--- a/Documents/FragenTemplate.xlsx
+++ b/Documents/FragenTemplate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-1275" yWindow="1830" windowWidth="22755" windowHeight="9750"/>
   </bookViews>
@@ -10,13 +10,17 @@
     <sheet name="FragenTemplate" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="SQl-Befehl" sheetId="4" r:id="rId3"/>
+    <sheet name="Jimdo_Import" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Jimdo_Import!$A$1:$M$12</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>Unterkategorie</t>
   </si>
@@ -47,12 +51,6 @@
 -choice? *</t>
   </si>
   <si>
-    <t>richtig</t>
-  </si>
-  <si>
-    <t>falsch</t>
-  </si>
-  <si>
     <t>Richtigkeit der 
 Antwort 1 *</t>
   </si>
@@ -72,30 +70,198 @@
     <t>Antwortmöglichkeit4 *</t>
   </si>
   <si>
-    <t>Mathe</t>
-  </si>
-  <si>
-    <t>Was ist eine Primzahl?</t>
-  </si>
-  <si>
     <t>Info:</t>
   </si>
   <si>
     <t>* sind Pflichtfelder</t>
-  </si>
-  <si>
-    <t>Was ist durch 3 ohne Rest teilbar?</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO Frage(kategorieName,unterkategorieName,flagFragenTypMult,frage,antwortmoeglichkeit1,antwortmoeglichkeit2,antwortmoeglichkeit3,antwortmoeglichkeit4,wahrheitAntwortmoeglichkeit1,wahrheitAntwortmoeglichkeit2,wahrheitAntwortmoeglichkeit3,wahrheitAntwortmoeglichkeit4,flagFrageValidiert) VALUES
 </t>
   </si>
   <si>
-    <t>Primzahlen</t>
-  </si>
-  <si>
     <t>Copy-&gt; Paste Code ist
 rechts</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Frage</t>
+  </si>
+  <si>
+    <t>Studienfach</t>
+  </si>
+  <si>
+    <t>Antwortmöglichkeit1</t>
+  </si>
+  <si>
+    <t>Antwortmöglichkeit2</t>
+  </si>
+  <si>
+    <t>Antwortmöglichkeit3</t>
+  </si>
+  <si>
+    <t>Antwortmöglichkeit4</t>
+  </si>
+  <si>
+    <t>Welche der Antwortmöglichkeiten ist richtig?</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>StelleFragen</t>
+  </si>
+  <si>
+    <t>Studiengang</t>
+  </si>
+  <si>
+    <t>wann ging die Titanik unter?</t>
+  </si>
+  <si>
+    <t>Geschichte</t>
+  </si>
+  <si>
+    <t>Geschichte-Grundlagen</t>
+  </si>
+  <si>
+    <t>Antwort 1</t>
+  </si>
+  <si>
+    <t>Für was steht BWL?</t>
+  </si>
+  <si>
+    <t>BWL</t>
+  </si>
+  <si>
+    <t>allgemeine BWL</t>
+  </si>
+  <si>
+    <t>Busy Word Long</t>
+  </si>
+  <si>
+    <t>BetriebwirtschaftsLehre</t>
+  </si>
+  <si>
+    <t>Betriebwirtschaftslehre</t>
+  </si>
+  <si>
+    <t>Betriebwissenslehre</t>
+  </si>
+  <si>
+    <t>Antwort 2, Antwort 3</t>
+  </si>
+  <si>
+    <t>Wer ist der schönste im Land?</t>
+  </si>
+  <si>
+    <t>Schönheit</t>
+  </si>
+  <si>
+    <t>Gesicht</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Antwort 3</t>
+  </si>
+  <si>
+    <t>WAITINGLIST</t>
+  </si>
+  <si>
+    <t>phil1910@web.de</t>
+  </si>
+  <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
+    <t>milan751@hotmail.de</t>
+  </si>
+  <si>
+    <t>Hi, testnachricht von der website!</t>
+  </si>
+  <si>
+    <t>Antwort 2</t>
+  </si>
+  <si>
+    <t>Antwort 4</t>
+  </si>
+  <si>
+    <t>Für was steht DWH?</t>
+  </si>
+  <si>
+    <t>Wirtschaftsinformatik</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Data Warehouse</t>
+  </si>
+  <si>
+    <t>Data wall</t>
+  </si>
+  <si>
+    <t>Data Wire</t>
+  </si>
+  <si>
+    <t>Dummy Wine</t>
+  </si>
+  <si>
+    <t>frage</t>
+  </si>
+  <si>
+    <t>studiengang</t>
+  </si>
+  <si>
+    <t>fach</t>
+  </si>
+  <si>
+    <t>1f</t>
+  </si>
+  <si>
+    <t>2t</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>4t</t>
+  </si>
+  <si>
+    <t>Antwort 2, Antwort 4</t>
+  </si>
+  <si>
+    <t>Für was steht BI?</t>
+  </si>
+  <si>
+    <t>Bisschen Intelligent</t>
+  </si>
+  <si>
+    <t>Business Interest</t>
+  </si>
+  <si>
+    <t>Binary Integer</t>
   </si>
 </sst>
 </file>
@@ -138,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -162,6 +328,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,6 +344,137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>933450</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Import from Jimdo CSV</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>485774</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>190499</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Button 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Schreibe importierte Jimdo Fragen in FragenTemplate</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,12 +763,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,141 +789,2879 @@
     <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1">
-        <v>333333</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>IF(ISBLANK($D3)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D3,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>richtig</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>IF(ISBLANK($D3)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D3,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>IF(ISBLANK($D3)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D3,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>IF(ISBLANK($D3)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D3,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>IF(ISBLANK($D4)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D4,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>IF(ISBLANK($D4)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D4,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>IF(ISBLANK($D4)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D4,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f>IF(ISBLANK($D4)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D4,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>333367212</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>22222</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1">
-        <v>543211</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>IF(ISBLANK($D5)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D5,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>richtig</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>IF(ISBLANK($D5)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D5,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>IF(ISBLANK($D5)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D5,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f>IF(ISBLANK($D5)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D5,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6"/>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>1973</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>IF(ISBLANK($D6)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D6,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>richtig</v>
+      </c>
+      <c r="G6">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>IF(ISBLANK($D6)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D6,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="I6">
+        <v>2001</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>IF(ISBLANK($D6)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D6,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="K6">
+        <v>2006</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>IF(ISBLANK($D6)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D6,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7"/>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>IF(ISBLANK($D7)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D7,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>IF(ISBLANK($D7)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D7,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>richtig</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IF(ISBLANK($D7)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D7,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>richtig</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>IF(ISBLANK($D7)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D7,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8"/>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>IF(ISBLANK($D8)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D8,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>IF(ISBLANK($D8)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D8,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>IF(ISBLANK($D8)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D8,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>richtig</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>IF(ISBLANK($D8)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D8,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v>falsch</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" s="2" t="str">
+        <f>IF(ISBLANK($D9)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D9,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G9"/>
+      <c r="H9" s="2" t="str">
+        <f>IF(ISBLANK($D9)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D9,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I9"/>
+      <c r="J9" s="2" t="str">
+        <f>IF(ISBLANK($D9)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D9,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K9"/>
+      <c r="L9" s="2" t="str">
+        <f>IF(ISBLANK($D9)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D9,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" s="2" t="str">
+        <f>IF(ISBLANK($D10)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D10,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="2" t="str">
+        <f>IF(ISBLANK($D10)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D10,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I10"/>
+      <c r="J10" s="2" t="str">
+        <f>IF(ISBLANK($D10)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D10,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K10"/>
+      <c r="L10" s="2" t="str">
+        <f>IF(ISBLANK($D10)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D10,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="2" t="str">
+        <f>IF(ISBLANK($D11)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D11,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G11"/>
+      <c r="H11" s="2" t="str">
+        <f>IF(ISBLANK($D11)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D11,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I11"/>
+      <c r="J11" s="2" t="str">
+        <f>IF(ISBLANK($D11)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D11,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K11"/>
+      <c r="L11" s="2" t="str">
+        <f>IF(ISBLANK($D11)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D11,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" s="2" t="str">
+        <f>IF(ISBLANK($D12)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D12,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G12"/>
+      <c r="H12" s="2" t="str">
+        <f>IF(ISBLANK($D12)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D12,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I12"/>
+      <c r="J12" s="2" t="str">
+        <f>IF(ISBLANK($D12)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D12,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K12"/>
+      <c r="L12" s="2" t="str">
+        <f>IF(ISBLANK($D12)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D12,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" s="2" t="str">
+        <f>IF(ISBLANK($D13)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D13,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G13"/>
+      <c r="H13" s="2" t="str">
+        <f>IF(ISBLANK($D13)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D13,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I13"/>
+      <c r="J13" s="2" t="str">
+        <f>IF(ISBLANK($D13)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D13,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K13"/>
+      <c r="L13" s="2" t="str">
+        <f>IF(ISBLANK($D13)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D13,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" s="2" t="str">
+        <f>IF(ISBLANK($D14)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D14,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G14"/>
+      <c r="H14" s="2" t="str">
+        <f>IF(ISBLANK($D14)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D14,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I14"/>
+      <c r="J14" s="2" t="str">
+        <f>IF(ISBLANK($D14)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D14,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K14"/>
+      <c r="L14" s="2" t="str">
+        <f>IF(ISBLANK($D14)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D14,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" s="2" t="str">
+        <f>IF(ISBLANK($D15)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D15,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G15"/>
+      <c r="H15" s="2" t="str">
+        <f>IF(ISBLANK($D15)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D15,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I15"/>
+      <c r="J15" s="2" t="str">
+        <f>IF(ISBLANK($D15)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D15,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K15"/>
+      <c r="L15" s="2" t="str">
+        <f>IF(ISBLANK($D15)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D15,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="2" t="str">
+        <f>IF(ISBLANK($D16)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D16,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G16"/>
+      <c r="H16" s="2" t="str">
+        <f>IF(ISBLANK($D16)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D16,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I16"/>
+      <c r="J16" s="2" t="str">
+        <f>IF(ISBLANK($D16)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D16,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K16"/>
+      <c r="L16" s="2" t="str">
+        <f>IF(ISBLANK($D16)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D16,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" s="2" t="str">
+        <f>IF(ISBLANK($D17)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D17,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G17"/>
+      <c r="H17" s="2" t="str">
+        <f>IF(ISBLANK($D17)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D17,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I17"/>
+      <c r="J17" s="2" t="str">
+        <f>IF(ISBLANK($D17)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D17,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K17"/>
+      <c r="L17" s="2" t="str">
+        <f>IF(ISBLANK($D17)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D17,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" s="2" t="str">
+        <f>IF(ISBLANK($D18)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D18,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G18"/>
+      <c r="H18" s="2" t="str">
+        <f>IF(ISBLANK($D18)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D18,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I18"/>
+      <c r="J18" s="2" t="str">
+        <f>IF(ISBLANK($D18)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D18,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K18"/>
+      <c r="L18" s="2" t="str">
+        <f>IF(ISBLANK($D18)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D18,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" s="2" t="str">
+        <f>IF(ISBLANK($D19)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D19,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G19"/>
+      <c r="H19" s="2" t="str">
+        <f>IF(ISBLANK($D19)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D19,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I19"/>
+      <c r="J19" s="2" t="str">
+        <f>IF(ISBLANK($D19)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D19,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K19"/>
+      <c r="L19" s="2" t="str">
+        <f>IF(ISBLANK($D19)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D19,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" s="2" t="str">
+        <f>IF(ISBLANK($D20)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D20,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G20"/>
+      <c r="H20" s="2" t="str">
+        <f>IF(ISBLANK($D20)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D20,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I20"/>
+      <c r="J20" s="2" t="str">
+        <f>IF(ISBLANK($D20)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D20,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K20"/>
+      <c r="L20" s="2" t="str">
+        <f>IF(ISBLANK($D20)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D20,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" s="2" t="str">
+        <f>IF(ISBLANK($D21)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D21,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G21"/>
+      <c r="H21" s="2" t="str">
+        <f>IF(ISBLANK($D21)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D21,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I21"/>
+      <c r="J21" s="2" t="str">
+        <f>IF(ISBLANK($D21)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D21,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K21"/>
+      <c r="L21" s="2" t="str">
+        <f>IF(ISBLANK($D21)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D21,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" s="2" t="str">
+        <f>IF(ISBLANK($D22)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D22,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G22"/>
+      <c r="H22" s="2" t="str">
+        <f>IF(ISBLANK($D22)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D22,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I22"/>
+      <c r="J22" s="2" t="str">
+        <f>IF(ISBLANK($D22)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D22,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K22"/>
+      <c r="L22" s="2" t="str">
+        <f>IF(ISBLANK($D22)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D22,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" s="2" t="str">
+        <f>IF(ISBLANK($D23)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D23,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G23"/>
+      <c r="H23" s="2" t="str">
+        <f>IF(ISBLANK($D23)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D23,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I23"/>
+      <c r="J23" s="2" t="str">
+        <f>IF(ISBLANK($D23)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D23,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K23"/>
+      <c r="L23" s="2" t="str">
+        <f>IF(ISBLANK($D23)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D23,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" s="2" t="str">
+        <f>IF(ISBLANK($D24)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D24,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G24"/>
+      <c r="H24" s="2" t="str">
+        <f>IF(ISBLANK($D24)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D24,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I24"/>
+      <c r="J24" s="2" t="str">
+        <f>IF(ISBLANK($D24)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D24,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K24"/>
+      <c r="L24" s="2" t="str">
+        <f>IF(ISBLANK($D24)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D24,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" s="2" t="str">
+        <f>IF(ISBLANK($D25)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D25,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G25"/>
+      <c r="H25" s="2" t="str">
+        <f>IF(ISBLANK($D25)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D25,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I25"/>
+      <c r="J25" s="2" t="str">
+        <f>IF(ISBLANK($D25)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D25,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K25"/>
+      <c r="L25" s="2" t="str">
+        <f>IF(ISBLANK($D25)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D25,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" s="2" t="str">
+        <f>IF(ISBLANK($D26)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D26,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G26"/>
+      <c r="H26" s="2" t="str">
+        <f>IF(ISBLANK($D26)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D26,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I26"/>
+      <c r="J26" s="2" t="str">
+        <f>IF(ISBLANK($D26)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D26,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K26"/>
+      <c r="L26" s="2" t="str">
+        <f>IF(ISBLANK($D26)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D26,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" s="2" t="str">
+        <f>IF(ISBLANK($D27)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D27,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G27"/>
+      <c r="H27" s="2" t="str">
+        <f>IF(ISBLANK($D27)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D27,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I27"/>
+      <c r="J27" s="2" t="str">
+        <f>IF(ISBLANK($D27)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D27,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K27"/>
+      <c r="L27" s="2" t="str">
+        <f>IF(ISBLANK($D27)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D27,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" s="2" t="str">
+        <f>IF(ISBLANK($D28)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D28,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G28"/>
+      <c r="H28" s="2" t="str">
+        <f>IF(ISBLANK($D28)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D28,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I28"/>
+      <c r="J28" s="2" t="str">
+        <f>IF(ISBLANK($D28)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D28,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K28"/>
+      <c r="L28" s="2" t="str">
+        <f>IF(ISBLANK($D28)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D28,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" s="2" t="str">
+        <f>IF(ISBLANK($D29)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D29,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G29"/>
+      <c r="H29" s="2" t="str">
+        <f>IF(ISBLANK($D29)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D29,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I29"/>
+      <c r="J29" s="2" t="str">
+        <f>IF(ISBLANK($D29)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D29,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K29"/>
+      <c r="L29" s="2" t="str">
+        <f>IF(ISBLANK($D29)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D29,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30" s="2" t="str">
+        <f>IF(ISBLANK($D30)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D30,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G30"/>
+      <c r="H30" s="2" t="str">
+        <f>IF(ISBLANK($D30)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D30,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I30"/>
+      <c r="J30" s="2" t="str">
+        <f>IF(ISBLANK($D30)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D30,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K30"/>
+      <c r="L30" s="2" t="str">
+        <f>IF(ISBLANK($D30)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D30,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" s="2" t="str">
+        <f>IF(ISBLANK($D31)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D31,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G31"/>
+      <c r="H31" s="2" t="str">
+        <f>IF(ISBLANK($D31)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D31,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I31"/>
+      <c r="J31" s="2" t="str">
+        <f>IF(ISBLANK($D31)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D31,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K31"/>
+      <c r="L31" s="2" t="str">
+        <f>IF(ISBLANK($D31)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D31,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" s="2" t="str">
+        <f>IF(ISBLANK($D32)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D32,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G32"/>
+      <c r="H32" s="2" t="str">
+        <f>IF(ISBLANK($D32)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D32,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I32"/>
+      <c r="J32" s="2" t="str">
+        <f>IF(ISBLANK($D32)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D32,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K32"/>
+      <c r="L32" s="2" t="str">
+        <f>IF(ISBLANK($D32)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D32,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33" s="2" t="str">
+        <f>IF(ISBLANK($D33)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D33,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G33"/>
+      <c r="H33" s="2" t="str">
+        <f>IF(ISBLANK($D33)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D33,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I33"/>
+      <c r="J33" s="2" t="str">
+        <f>IF(ISBLANK($D33)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D33,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K33"/>
+      <c r="L33" s="2" t="str">
+        <f>IF(ISBLANK($D33)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D33,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34" s="2" t="str">
+        <f>IF(ISBLANK($D34)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D34,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G34"/>
+      <c r="H34" s="2" t="str">
+        <f>IF(ISBLANK($D34)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D34,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I34"/>
+      <c r="J34" s="2" t="str">
+        <f>IF(ISBLANK($D34)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D34,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K34"/>
+      <c r="L34" s="2" t="str">
+        <f>IF(ISBLANK($D34)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D34,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35" s="2" t="str">
+        <f>IF(ISBLANK($D35)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D35,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G35"/>
+      <c r="H35" s="2" t="str">
+        <f>IF(ISBLANK($D35)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D35,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I35"/>
+      <c r="J35" s="2" t="str">
+        <f>IF(ISBLANK($D35)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D35,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K35"/>
+      <c r="L35" s="2" t="str">
+        <f>IF(ISBLANK($D35)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D35,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36" s="2" t="str">
+        <f>IF(ISBLANK($D36)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D36,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G36"/>
+      <c r="H36" s="2" t="str">
+        <f>IF(ISBLANK($D36)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D36,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I36"/>
+      <c r="J36" s="2" t="str">
+        <f>IF(ISBLANK($D36)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D36,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K36"/>
+      <c r="L36" s="2" t="str">
+        <f>IF(ISBLANK($D36)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D36,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37" s="2" t="str">
+        <f>IF(ISBLANK($D37)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D37,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G37"/>
+      <c r="H37" s="2" t="str">
+        <f>IF(ISBLANK($D37)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D37,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I37"/>
+      <c r="J37" s="2" t="str">
+        <f>IF(ISBLANK($D37)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D37,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K37"/>
+      <c r="L37" s="2" t="str">
+        <f>IF(ISBLANK($D37)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D37,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38" s="2" t="str">
+        <f>IF(ISBLANK($D38)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D38,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G38"/>
+      <c r="H38" s="2" t="str">
+        <f>IF(ISBLANK($D38)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D38,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I38"/>
+      <c r="J38" s="2" t="str">
+        <f>IF(ISBLANK($D38)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D38,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K38"/>
+      <c r="L38" s="2" t="str">
+        <f>IF(ISBLANK($D38)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D38,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39" s="2" t="str">
+        <f>IF(ISBLANK($D39)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D39,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G39"/>
+      <c r="H39" s="2" t="str">
+        <f>IF(ISBLANK($D39)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D39,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I39"/>
+      <c r="J39" s="2" t="str">
+        <f>IF(ISBLANK($D39)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D39,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K39"/>
+      <c r="L39" s="2" t="str">
+        <f>IF(ISBLANK($D39)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D39,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40" s="2" t="str">
+        <f>IF(ISBLANK($D40)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D40,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G40"/>
+      <c r="H40" s="2" t="str">
+        <f>IF(ISBLANK($D40)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D40,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I40"/>
+      <c r="J40" s="2" t="str">
+        <f>IF(ISBLANK($D40)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D40,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K40"/>
+      <c r="L40" s="2" t="str">
+        <f>IF(ISBLANK($D40)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D40,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41" s="2" t="str">
+        <f>IF(ISBLANK($D41)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D41,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G41"/>
+      <c r="H41" s="2" t="str">
+        <f>IF(ISBLANK($D41)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D41,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I41"/>
+      <c r="J41" s="2" t="str">
+        <f>IF(ISBLANK($D41)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D41,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K41"/>
+      <c r="L41" s="2" t="str">
+        <f>IF(ISBLANK($D41)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D41,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42" s="2" t="str">
+        <f>IF(ISBLANK($D42)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D42,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G42"/>
+      <c r="H42" s="2" t="str">
+        <f>IF(ISBLANK($D42)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D42,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I42"/>
+      <c r="J42" s="2" t="str">
+        <f>IF(ISBLANK($D42)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D42,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K42"/>
+      <c r="L42" s="2" t="str">
+        <f>IF(ISBLANK($D42)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D42,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43" s="2" t="str">
+        <f>IF(ISBLANK($D43)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D43,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G43"/>
+      <c r="H43" s="2" t="str">
+        <f>IF(ISBLANK($D43)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D43,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I43"/>
+      <c r="J43" s="2" t="str">
+        <f>IF(ISBLANK($D43)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D43,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K43"/>
+      <c r="L43" s="2" t="str">
+        <f>IF(ISBLANK($D43)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D43,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44" s="2" t="str">
+        <f>IF(ISBLANK($D44)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D44,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G44"/>
+      <c r="H44" s="2" t="str">
+        <f>IF(ISBLANK($D44)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D44,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I44"/>
+      <c r="J44" s="2" t="str">
+        <f>IF(ISBLANK($D44)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D44,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K44"/>
+      <c r="L44" s="2" t="str">
+        <f>IF(ISBLANK($D44)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D44,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45" s="2" t="str">
+        <f>IF(ISBLANK($D45)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D45,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G45"/>
+      <c r="H45" s="2" t="str">
+        <f>IF(ISBLANK($D45)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D45,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I45"/>
+      <c r="J45" s="2" t="str">
+        <f>IF(ISBLANK($D45)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D45,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K45"/>
+      <c r="L45" s="2" t="str">
+        <f>IF(ISBLANK($D45)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D45,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46" s="2" t="str">
+        <f>IF(ISBLANK($D46)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D46,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G46"/>
+      <c r="H46" s="2" t="str">
+        <f>IF(ISBLANK($D46)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D46,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I46"/>
+      <c r="J46" s="2" t="str">
+        <f>IF(ISBLANK($D46)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D46,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K46"/>
+      <c r="L46" s="2" t="str">
+        <f>IF(ISBLANK($D46)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D46,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47" s="2" t="str">
+        <f>IF(ISBLANK($D47)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D47,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G47"/>
+      <c r="H47" s="2" t="str">
+        <f>IF(ISBLANK($D47)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D47,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I47"/>
+      <c r="J47" s="2" t="str">
+        <f>IF(ISBLANK($D47)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D47,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K47"/>
+      <c r="L47" s="2" t="str">
+        <f>IF(ISBLANK($D47)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D47,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48" s="2" t="str">
+        <f>IF(ISBLANK($D48)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D48,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G48"/>
+      <c r="H48" s="2" t="str">
+        <f>IF(ISBLANK($D48)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D48,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I48"/>
+      <c r="J48" s="2" t="str">
+        <f>IF(ISBLANK($D48)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D48,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K48"/>
+      <c r="L48" s="2" t="str">
+        <f>IF(ISBLANK($D48)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D48,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49" s="2" t="str">
+        <f>IF(ISBLANK($D49)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D49,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G49"/>
+      <c r="H49" s="2" t="str">
+        <f>IF(ISBLANK($D49)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D49,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I49"/>
+      <c r="J49" s="2" t="str">
+        <f>IF(ISBLANK($D49)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D49,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K49"/>
+      <c r="L49" s="2" t="str">
+        <f>IF(ISBLANK($D49)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D49,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50" s="2" t="str">
+        <f>IF(ISBLANK($D50)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D50,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G50"/>
+      <c r="H50" s="2" t="str">
+        <f>IF(ISBLANK($D50)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D50,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I50"/>
+      <c r="J50" s="2" t="str">
+        <f>IF(ISBLANK($D50)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D50,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K50"/>
+      <c r="L50" s="2" t="str">
+        <f>IF(ISBLANK($D50)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D50,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51" s="2" t="str">
+        <f>IF(ISBLANK($D51)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D51,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G51"/>
+      <c r="H51" s="2" t="str">
+        <f>IF(ISBLANK($D51)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D51,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I51"/>
+      <c r="J51" s="2" t="str">
+        <f>IF(ISBLANK($D51)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D51,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K51"/>
+      <c r="L51" s="2" t="str">
+        <f>IF(ISBLANK($D51)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D51,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52" s="2" t="str">
+        <f>IF(ISBLANK($D52)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D52,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G52"/>
+      <c r="H52" s="2" t="str">
+        <f>IF(ISBLANK($D52)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D52,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I52"/>
+      <c r="J52" s="2" t="str">
+        <f>IF(ISBLANK($D52)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D52,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K52"/>
+      <c r="L52" s="2" t="str">
+        <f>IF(ISBLANK($D52)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D52,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53" s="2" t="str">
+        <f>IF(ISBLANK($D53)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D53,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G53"/>
+      <c r="H53" s="2" t="str">
+        <f>IF(ISBLANK($D53)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D53,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I53"/>
+      <c r="J53" s="2" t="str">
+        <f>IF(ISBLANK($D53)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D53,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K53"/>
+      <c r="L53" s="2" t="str">
+        <f>IF(ISBLANK($D53)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D53,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54" s="2" t="str">
+        <f>IF(ISBLANK($D54)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D54,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G54"/>
+      <c r="H54" s="2" t="str">
+        <f>IF(ISBLANK($D54)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D54,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I54"/>
+      <c r="J54" s="2" t="str">
+        <f>IF(ISBLANK($D54)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D54,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K54"/>
+      <c r="L54" s="2" t="str">
+        <f>IF(ISBLANK($D54)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D54,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55" s="2" t="str">
+        <f>IF(ISBLANK($D55)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D55,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G55"/>
+      <c r="H55" s="2" t="str">
+        <f>IF(ISBLANK($D55)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D55,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I55"/>
+      <c r="J55" s="2" t="str">
+        <f>IF(ISBLANK($D55)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D55,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K55"/>
+      <c r="L55" s="2" t="str">
+        <f>IF(ISBLANK($D55)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D55,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56" s="2" t="str">
+        <f>IF(ISBLANK($D56)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D56,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G56"/>
+      <c r="H56" s="2" t="str">
+        <f>IF(ISBLANK($D56)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D56,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I56"/>
+      <c r="J56" s="2" t="str">
+        <f>IF(ISBLANK($D56)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D56,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K56"/>
+      <c r="L56" s="2" t="str">
+        <f>IF(ISBLANK($D56)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D56,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57" s="2" t="str">
+        <f>IF(ISBLANK($D57)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D57,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G57"/>
+      <c r="H57" s="2" t="str">
+        <f>IF(ISBLANK($D57)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D57,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I57"/>
+      <c r="J57" s="2" t="str">
+        <f>IF(ISBLANK($D57)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D57,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K57"/>
+      <c r="L57" s="2" t="str">
+        <f>IF(ISBLANK($D57)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D57,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58" s="2" t="str">
+        <f>IF(ISBLANK($D58)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D58,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G58"/>
+      <c r="H58" s="2" t="str">
+        <f>IF(ISBLANK($D58)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D58,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I58"/>
+      <c r="J58" s="2" t="str">
+        <f>IF(ISBLANK($D58)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D58,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K58"/>
+      <c r="L58" s="2" t="str">
+        <f>IF(ISBLANK($D58)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D58,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" s="2" t="str">
+        <f>IF(ISBLANK($D59)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D59,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G59"/>
+      <c r="H59" s="2" t="str">
+        <f>IF(ISBLANK($D59)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D59,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I59"/>
+      <c r="J59" s="2" t="str">
+        <f>IF(ISBLANK($D59)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D59,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K59"/>
+      <c r="L59" s="2" t="str">
+        <f>IF(ISBLANK($D59)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D59,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" s="2" t="str">
+        <f>IF(ISBLANK($D60)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D60,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G60"/>
+      <c r="H60" s="2" t="str">
+        <f>IF(ISBLANK($D60)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D60,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I60"/>
+      <c r="J60" s="2" t="str">
+        <f>IF(ISBLANK($D60)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D60,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K60"/>
+      <c r="L60" s="2" t="str">
+        <f>IF(ISBLANK($D60)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D60,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61" s="2" t="str">
+        <f>IF(ISBLANK($D61)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D61,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G61"/>
+      <c r="H61" s="2" t="str">
+        <f>IF(ISBLANK($D61)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D61,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I61"/>
+      <c r="J61" s="2" t="str">
+        <f>IF(ISBLANK($D61)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D61,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K61"/>
+      <c r="L61" s="2" t="str">
+        <f>IF(ISBLANK($D61)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D61,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62" s="2" t="str">
+        <f>IF(ISBLANK($D62)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D62,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G62"/>
+      <c r="H62" s="2" t="str">
+        <f>IF(ISBLANK($D62)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D62,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I62"/>
+      <c r="J62" s="2" t="str">
+        <f>IF(ISBLANK($D62)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D62,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K62"/>
+      <c r="L62" s="2" t="str">
+        <f>IF(ISBLANK($D62)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D62,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63" s="2" t="str">
+        <f>IF(ISBLANK($D63)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D63,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G63"/>
+      <c r="H63" s="2" t="str">
+        <f>IF(ISBLANK($D63)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D63,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I63"/>
+      <c r="J63" s="2" t="str">
+        <f>IF(ISBLANK($D63)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D63,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K63"/>
+      <c r="L63" s="2" t="str">
+        <f>IF(ISBLANK($D63)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D63,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64" s="2" t="str">
+        <f>IF(ISBLANK($D64)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D64,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G64"/>
+      <c r="H64" s="2" t="str">
+        <f>IF(ISBLANK($D64)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D64,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I64"/>
+      <c r="J64" s="2" t="str">
+        <f>IF(ISBLANK($D64)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D64,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K64"/>
+      <c r="L64" s="2" t="str">
+        <f>IF(ISBLANK($D64)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D64,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65" s="2" t="str">
+        <f>IF(ISBLANK($D65)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D65,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G65"/>
+      <c r="H65" s="2" t="str">
+        <f>IF(ISBLANK($D65)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D65,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I65"/>
+      <c r="J65" s="2" t="str">
+        <f>IF(ISBLANK($D65)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D65,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K65"/>
+      <c r="L65" s="2" t="str">
+        <f>IF(ISBLANK($D65)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D65,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" s="2" t="str">
+        <f>IF(ISBLANK($D66)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D66,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G66"/>
+      <c r="H66" s="2" t="str">
+        <f>IF(ISBLANK($D66)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D66,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I66"/>
+      <c r="J66" s="2" t="str">
+        <f>IF(ISBLANK($D66)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D66,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K66"/>
+      <c r="L66" s="2" t="str">
+        <f>IF(ISBLANK($D66)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D66,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67" s="2" t="str">
+        <f>IF(ISBLANK($D67)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D67,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G67"/>
+      <c r="H67" s="2" t="str">
+        <f>IF(ISBLANK($D67)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D67,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I67"/>
+      <c r="J67" s="2" t="str">
+        <f>IF(ISBLANK($D67)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D67,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K67"/>
+      <c r="L67" s="2" t="str">
+        <f>IF(ISBLANK($D67)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D67,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68" s="2" t="str">
+        <f>IF(ISBLANK($D68)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D68,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G68"/>
+      <c r="H68" s="2" t="str">
+        <f>IF(ISBLANK($D68)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D68,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I68"/>
+      <c r="J68" s="2" t="str">
+        <f>IF(ISBLANK($D68)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D68,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K68"/>
+      <c r="L68" s="2" t="str">
+        <f>IF(ISBLANK($D68)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D68,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69" s="2" t="str">
+        <f>IF(ISBLANK($D69)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D69,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G69"/>
+      <c r="H69" s="2" t="str">
+        <f>IF(ISBLANK($D69)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D69,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I69"/>
+      <c r="J69" s="2" t="str">
+        <f>IF(ISBLANK($D69)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D69,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K69"/>
+      <c r="L69" s="2" t="str">
+        <f>IF(ISBLANK($D69)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D69,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" s="2" t="str">
+        <f>IF(ISBLANK($D70)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D70,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G70"/>
+      <c r="H70" s="2" t="str">
+        <f>IF(ISBLANK($D70)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D70,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I70"/>
+      <c r="J70" s="2" t="str">
+        <f>IF(ISBLANK($D70)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D70,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K70"/>
+      <c r="L70" s="2" t="str">
+        <f>IF(ISBLANK($D70)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D70,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71" s="2" t="str">
+        <f>IF(ISBLANK($D71)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D71,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G71"/>
+      <c r="H71" s="2" t="str">
+        <f>IF(ISBLANK($D71)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D71,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I71"/>
+      <c r="J71" s="2" t="str">
+        <f>IF(ISBLANK($D71)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D71,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K71"/>
+      <c r="L71" s="2" t="str">
+        <f>IF(ISBLANK($D71)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D71,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72" s="2" t="str">
+        <f>IF(ISBLANK($D72)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D72,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G72"/>
+      <c r="H72" s="2" t="str">
+        <f>IF(ISBLANK($D72)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D72,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I72"/>
+      <c r="J72" s="2" t="str">
+        <f>IF(ISBLANK($D72)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D72,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K72"/>
+      <c r="L72" s="2" t="str">
+        <f>IF(ISBLANK($D72)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D72,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73" s="2" t="str">
+        <f>IF(ISBLANK($D73)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D73,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G73"/>
+      <c r="H73" s="2" t="str">
+        <f>IF(ISBLANK($D73)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D73,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I73"/>
+      <c r="J73" s="2" t="str">
+        <f>IF(ISBLANK($D73)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D73,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K73"/>
+      <c r="L73" s="2" t="str">
+        <f>IF(ISBLANK($D73)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D73,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74" s="2" t="str">
+        <f>IF(ISBLANK($D74)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D74,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G74"/>
+      <c r="H74" s="2" t="str">
+        <f>IF(ISBLANK($D74)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D74,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I74"/>
+      <c r="J74" s="2" t="str">
+        <f>IF(ISBLANK($D74)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D74,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K74"/>
+      <c r="L74" s="2" t="str">
+        <f>IF(ISBLANK($D74)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D74,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75" s="2" t="str">
+        <f>IF(ISBLANK($D75)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D75,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G75"/>
+      <c r="H75" s="2" t="str">
+        <f>IF(ISBLANK($D75)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D75,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I75"/>
+      <c r="J75" s="2" t="str">
+        <f>IF(ISBLANK($D75)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D75,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K75"/>
+      <c r="L75" s="2" t="str">
+        <f>IF(ISBLANK($D75)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D75,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76" s="2" t="str">
+        <f>IF(ISBLANK($D76)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D76,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G76"/>
+      <c r="H76" s="2" t="str">
+        <f>IF(ISBLANK($D76)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D76,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I76"/>
+      <c r="J76" s="2" t="str">
+        <f>IF(ISBLANK($D76)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D76,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K76"/>
+      <c r="L76" s="2" t="str">
+        <f>IF(ISBLANK($D76)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D76,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77" s="2" t="str">
+        <f>IF(ISBLANK($D77)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D77,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G77"/>
+      <c r="H77" s="2" t="str">
+        <f>IF(ISBLANK($D77)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D77,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I77"/>
+      <c r="J77" s="2" t="str">
+        <f>IF(ISBLANK($D77)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D77,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K77"/>
+      <c r="L77" s="2" t="str">
+        <f>IF(ISBLANK($D77)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D77,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78" s="2" t="str">
+        <f>IF(ISBLANK($D78)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D78,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G78"/>
+      <c r="H78" s="2" t="str">
+        <f>IF(ISBLANK($D78)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D78,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I78"/>
+      <c r="J78" s="2" t="str">
+        <f>IF(ISBLANK($D78)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D78,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K78"/>
+      <c r="L78" s="2" t="str">
+        <f>IF(ISBLANK($D78)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D78,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" s="2" t="str">
+        <f>IF(ISBLANK($D79)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D79,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G79"/>
+      <c r="H79" s="2" t="str">
+        <f>IF(ISBLANK($D79)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D79,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I79"/>
+      <c r="J79" s="2" t="str">
+        <f>IF(ISBLANK($D79)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D79,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K79"/>
+      <c r="L79" s="2" t="str">
+        <f>IF(ISBLANK($D79)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D79,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80" s="2" t="str">
+        <f>IF(ISBLANK($D80)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D80,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G80"/>
+      <c r="H80" s="2" t="str">
+        <f>IF(ISBLANK($D80)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D80,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I80"/>
+      <c r="J80" s="2" t="str">
+        <f>IF(ISBLANK($D80)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D80,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K80"/>
+      <c r="L80" s="2" t="str">
+        <f>IF(ISBLANK($D80)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D80,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81" s="2" t="str">
+        <f>IF(ISBLANK($D81)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D81,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G81"/>
+      <c r="H81" s="2" t="str">
+        <f>IF(ISBLANK($D81)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D81,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I81"/>
+      <c r="J81" s="2" t="str">
+        <f>IF(ISBLANK($D81)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D81,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K81"/>
+      <c r="L81" s="2" t="str">
+        <f>IF(ISBLANK($D81)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D81,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82" s="2" t="str">
+        <f>IF(ISBLANK($D82)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D82,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G82"/>
+      <c r="H82" s="2" t="str">
+        <f>IF(ISBLANK($D82)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D82,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I82"/>
+      <c r="J82" s="2" t="str">
+        <f>IF(ISBLANK($D82)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D82,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K82"/>
+      <c r="L82" s="2" t="str">
+        <f>IF(ISBLANK($D82)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D82,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83" s="2" t="str">
+        <f>IF(ISBLANK($D83)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D83,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G83"/>
+      <c r="H83" s="2" t="str">
+        <f>IF(ISBLANK($D83)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D83,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I83"/>
+      <c r="J83" s="2" t="str">
+        <f>IF(ISBLANK($D83)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D83,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K83"/>
+      <c r="L83" s="2" t="str">
+        <f>IF(ISBLANK($D83)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D83,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84" s="2" t="str">
+        <f>IF(ISBLANK($D84)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D84,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G84"/>
+      <c r="H84" s="2" t="str">
+        <f>IF(ISBLANK($D84)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D84,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I84"/>
+      <c r="J84" s="2" t="str">
+        <f>IF(ISBLANK($D84)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D84,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K84"/>
+      <c r="L84" s="2" t="str">
+        <f>IF(ISBLANK($D84)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D84,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" s="2" t="str">
+        <f>IF(ISBLANK($D85)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D85,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G85"/>
+      <c r="H85" s="2" t="str">
+        <f>IF(ISBLANK($D85)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D85,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I85"/>
+      <c r="J85" s="2" t="str">
+        <f>IF(ISBLANK($D85)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D85,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K85"/>
+      <c r="L85" s="2" t="str">
+        <f>IF(ISBLANK($D85)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D85,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86" s="2" t="str">
+        <f>IF(ISBLANK($D86)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D86,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G86"/>
+      <c r="H86" s="2" t="str">
+        <f>IF(ISBLANK($D86)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D86,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I86"/>
+      <c r="J86" s="2" t="str">
+        <f>IF(ISBLANK($D86)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D86,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K86"/>
+      <c r="L86" s="2" t="str">
+        <f>IF(ISBLANK($D86)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D86,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87" s="2" t="str">
+        <f>IF(ISBLANK($D87)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D87,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G87"/>
+      <c r="H87" s="2" t="str">
+        <f>IF(ISBLANK($D87)=TRUE,"",IF(ISNUMBER(FIND(H$1,VLOOKUP($D87,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="I87"/>
+      <c r="J87" s="2" t="str">
+        <f>IF(ISBLANK($D87)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D87,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K87"/>
+      <c r="L87" s="2" t="str">
+        <f>IF(ISBLANK($D87)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D87,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88" s="2" t="str">
+        <f>IF(ISBLANK($D88)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D88,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G88"/>
+      <c r="I88"/>
+      <c r="J88" s="2" t="str">
+        <f>IF(ISBLANK($D88)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D88,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K88"/>
+      <c r="L88" s="2" t="str">
+        <f>IF(ISBLANK($D88)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D88,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89" s="2" t="str">
+        <f>IF(ISBLANK($D89)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D89,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G89"/>
+      <c r="I89"/>
+      <c r="J89" s="2" t="str">
+        <f>IF(ISBLANK($D89)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D89,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K89"/>
+      <c r="L89" s="2" t="str">
+        <f>IF(ISBLANK($D89)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D89,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90" s="2" t="str">
+        <f>IF(ISBLANK($D90)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D90,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G90"/>
+      <c r="I90"/>
+      <c r="J90" s="2" t="str">
+        <f>IF(ISBLANK($D90)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D90,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K90"/>
+      <c r="L90" s="2" t="str">
+        <f>IF(ISBLANK($D90)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D90,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91" s="2" t="str">
+        <f>IF(ISBLANK($D91)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D91,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G91"/>
+      <c r="I91"/>
+      <c r="J91" s="2" t="str">
+        <f>IF(ISBLANK($D91)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D91,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K91"/>
+      <c r="L91" s="2" t="str">
+        <f>IF(ISBLANK($D91)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D91,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92" s="2" t="str">
+        <f>IF(ISBLANK($D92)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D92,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G92"/>
+      <c r="I92"/>
+      <c r="J92" s="2" t="str">
+        <f>IF(ISBLANK($D92)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D92,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K92"/>
+      <c r="L92" s="2" t="str">
+        <f>IF(ISBLANK($D92)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D92,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93" s="2" t="str">
+        <f>IF(ISBLANK($D93)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D93,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G93"/>
+      <c r="I93"/>
+      <c r="J93" s="2" t="str">
+        <f>IF(ISBLANK($D93)=TRUE,"",IF(ISNUMBER(FIND(J$1,VLOOKUP($D93,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="K93"/>
+      <c r="L93" s="2" t="str">
+        <f>IF(ISBLANK($D93)=TRUE,"",IF(ISNUMBER(FIND(L$1,VLOOKUP($D93,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94" s="2" t="str">
+        <f>IF(ISBLANK($D94)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D94,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G94"/>
+      <c r="I94"/>
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95" s="2" t="str">
+        <f>IF(ISBLANK($D95)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D95,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G95"/>
+      <c r="I95"/>
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96" s="2" t="str">
+        <f>IF(ISBLANK($D96)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D96,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G96"/>
+      <c r="I96"/>
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97" s="2" t="str">
+        <f>IF(ISBLANK($D97)=TRUE,"",IF(ISNUMBER(FIND(F$1,VLOOKUP($D97,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
+      <c r="G97"/>
+      <c r="I97"/>
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="G98"/>
+      <c r="I98"/>
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="G99"/>
+      <c r="I99"/>
+      <c r="K99"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="G100"/>
+      <c r="I100"/>
+      <c r="K100"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="G101"/>
+      <c r="I101"/>
+      <c r="K101"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="G102"/>
+      <c r="I102"/>
+      <c r="K102"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="G103"/>
+      <c r="I103"/>
+      <c r="K103"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="G104"/>
+      <c r="I104"/>
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="G105"/>
+      <c r="I105"/>
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="G106"/>
+      <c r="I106"/>
+      <c r="K106"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="G107"/>
+      <c r="I107"/>
+      <c r="K107"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="G108"/>
+      <c r="I108"/>
+      <c r="K108"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="G109"/>
+      <c r="I109"/>
+      <c r="K109"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="G110"/>
+      <c r="I110"/>
+      <c r="K110"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="G111"/>
+      <c r="I111"/>
+      <c r="K111"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="G112"/>
+      <c r="I112"/>
+      <c r="K112"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="G113"/>
+      <c r="I113"/>
+      <c r="K113"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="G114"/>
+      <c r="I114"/>
+      <c r="K114"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="G115"/>
+      <c r="I115"/>
+      <c r="K115"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="G116"/>
+      <c r="I116"/>
+      <c r="K116"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="G117"/>
+      <c r="I117"/>
+      <c r="K117"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="G118"/>
+      <c r="I118"/>
+      <c r="K118"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="G119"/>
+      <c r="I119"/>
+      <c r="K119"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="G120"/>
+      <c r="I120"/>
+      <c r="K120"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="G121"/>
+      <c r="I121"/>
+      <c r="K121"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="G122"/>
+      <c r="I122"/>
+      <c r="K122"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="G123"/>
+      <c r="I123"/>
+      <c r="K123"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="G124"/>
+      <c r="I124"/>
+      <c r="K124"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="G125"/>
+      <c r="I125"/>
+      <c r="K125"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="G126"/>
+      <c r="I126"/>
+      <c r="K126"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="G127"/>
+      <c r="I127"/>
+      <c r="K127"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="G128"/>
+      <c r="I128"/>
+      <c r="K128"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="G129"/>
+      <c r="I129"/>
+      <c r="K129"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="G130"/>
+      <c r="I130"/>
+      <c r="K130"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="G131"/>
+      <c r="I131"/>
+      <c r="K131"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="G132"/>
+      <c r="I132"/>
+      <c r="K132"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="G133"/>
+      <c r="I133"/>
+      <c r="K133"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="G134"/>
+      <c r="I134"/>
+      <c r="K134"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="G135"/>
+      <c r="I135"/>
+      <c r="K135"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="G136"/>
+      <c r="I136"/>
+      <c r="K136"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="G137"/>
+      <c r="I137"/>
+      <c r="K137"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="G138"/>
+      <c r="I138"/>
+      <c r="K138"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="G139"/>
+      <c r="I139"/>
+      <c r="K139"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="G140"/>
+      <c r="I140"/>
+      <c r="K140"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wählen Sie aus, ob die Frage richtig oder falsch ist " sqref="J2:J1048576 H2:H1048576 L2:L1048576 F2:F1048576">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wählen Sie aus, ob die Frage richtig oder falsch ist " sqref="J94:J1048576 H88:H1048576 L94:L1048576">
       <formula1>"richtig,falsch"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Die maximale Zeichenlänge der Frage beträgt 170 Zeichen._x000a_Bitte kürzen Sie ihre Frage." sqref="D2:D1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Die maximale Zeichenlänge der Frage beträgt 170 Zeichen._x000a_Bitte kürzen Sie ihre Frage." sqref="D3:D1048576">
       <formula1>0</formula1>
       <formula2>170</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wählen Sie  ja oder nein aus." promptTitle="ja" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wählen Sie  ja oder nein aus." promptTitle="ja" sqref="C3:C1048576">
       <formula1>"ja,nein,"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Die maximale Zeichenlänge der Antwort beträgt 55 Zeichen._x000a_Bitte kürzen Sie ihre Antwort." sqref="K2:K1048576 G2:G1048576 E2:E1048576 I2:I1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Die maximale Zeichenlänge der Antwort beträgt 55 Zeichen._x000a_Bitte kürzen Sie ihre Antwort." sqref="I3:I1048576 E3:E1048576 G3:G1048576 K3:K1048576">
       <formula1>0</formula1>
       <formula2>55</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wählen Sie aus, ob die Frage richtig oder falsch ist " sqref="H3:H87 J3:J93 F1:F1048576 L3:L93"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Import_From_Jimdo_CSV">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>257175</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId5" name="Button 4">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Macro2">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -640,10 +3680,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -653,10 +3693,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,861 +3709,861 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="str">
         <f>A1&amp;A2&amp;A3&amp;A4&amp;A5&amp;A6&amp;A7&amp;A8&amp;A9&amp;A10&amp;A11&amp;A12&amp;A13&amp;A14&amp;A15&amp;A16&amp;A17&amp;A18&amp;A19&amp;A20&amp;A21&amp;A22&amp;A23&amp;A24&amp;A25&amp;A26&amp;A27&amp;A28&amp;A29&amp;A30&amp;A31&amp;A32&amp;A33&amp;A34&amp;A35&amp;A36&amp;A37&amp;A38&amp;A39&amp;A40&amp;A41&amp;A42&amp;A43&amp;A44&amp;A45&amp;A46&amp;A47&amp;A48&amp;A49&amp;A50</f>
         <v>INSERT INTO Frage(kategorieName,unterkategorieName,flagFragenTypMult,frage,antwortmoeglichkeit1,antwortmoeglichkeit2,antwortmoeglichkeit3,antwortmoeglichkeit4,wahrheitAntwortmoeglichkeit1,wahrheitAntwortmoeglichkeit2,wahrheitAntwortmoeglichkeit3,wahrheitAntwortmoeglichkeit4,flagFrageValidiert) VALUES
-('Mathe', 'Primzahlen', false, 'Was ist eine Primzahl?', '1', '13', '333333', '7', false,true,false,true,true),('Mathe', , false, 'Was ist durch 3 ohne Rest teilbar?', '333367212', '22222', '43', '543211', true,false,false,false,true);</v>
+('Business Intelligence', 'Geschichte', false, 'Für was steht DWH?', 'Data Warehouse', 'Data wall', 'Data Wire', 'Dummy Wine', true,false,false,false,true),('fach', 'BWL', false, 'frage', '1f', '2t', '3f', '4t', false,false,false,false,true),('Business Intelligence', 'Schönheit', false, 'Für was steht BI?', 'Business Intelligence', 'Bisschen Intelligent', 'Business Interest', 'Binary Integer', true,false,false,false,true),('Geschichte-Grundlagen', , false, 'wann ging die Titanik unter?', '1973', '2000', '2001', '2006', true,false,false,false,true),('allgemeine BWL', , false, 'Für was steht BWL?', 'Busy Word Long', 'BetriebwirtschaftsLehre', 'Betriebwirtschaftslehre', 'Betriebwissenslehre', false,true,true,false,true),('Gesicht', , false, 'Wer ist der schönste im Land?', 'Paul', 'Milan', 'Phil', 'Kevin', false,false,true,false,true);</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A2),"",("('"&amp;FragenTemplate!A2&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B2),"","'"&amp;FragenTemplate!B2&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C2,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D2&amp;"', '"&amp;FragenTemplate!E2&amp;"', '"&amp;FragenTemplate!G2&amp;"', '"&amp;FragenTemplate!I2&amp;"', '"&amp;FragenTemplate!K2&amp;"', "&amp;IF(EXACT(FragenTemplate!F2,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H2,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J2,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L2,"richtig"),"true","false")&amp;",true)"&amp;IF(A3="",";",",")))</f>
-        <v>('Mathe', 'Primzahlen', false, 'Was ist eine Primzahl?', '1', '13', '333333', '7', false,true,false,true,true),</v>
-      </c>
-      <c r="C2" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A3),"",("('"&amp;FragenTemplate!A3&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B3),"","'"&amp;FragenTemplate!B3&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C3,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D3&amp;"', '"&amp;FragenTemplate!E3&amp;"', '"&amp;FragenTemplate!G3&amp;"', '"&amp;FragenTemplate!I3&amp;"', '"&amp;FragenTemplate!K3&amp;"', "&amp;IF(EXACT(FragenTemplate!F3,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H3,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J3,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L3,"richtig"),"true","false")&amp;",true)"&amp;IF(A3="",";",",")))</f>
+        <v>('Business Intelligence', 'Geschichte', false, 'Für was steht DWH?', 'Data Warehouse', 'Data wall', 'Data Wire', 'Dummy Wine', true,false,false,false,true),</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A3),"",("('"&amp;FragenTemplate!A3&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B3),"","'"&amp;FragenTemplate!B3&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C3,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D3&amp;"', '"&amp;FragenTemplate!E3&amp;"', '"&amp;FragenTemplate!G3&amp;"', '"&amp;FragenTemplate!I3&amp;"', '"&amp;FragenTemplate!K3&amp;"', "&amp;IF(EXACT(FragenTemplate!F3,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H3,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J3,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L3,"richtig"),"true","false")&amp;",true)"&amp;IF(A4="",";",",")))</f>
-        <v>('Mathe', , false, 'Was ist durch 3 ohne Rest teilbar?', '333367212', '22222', '43', '543211', true,false,false,false,true);</v>
-      </c>
-      <c r="C3" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A4),"",("('"&amp;FragenTemplate!A4&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B4),"","'"&amp;FragenTemplate!B4&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C4,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D4&amp;"', '"&amp;FragenTemplate!E4&amp;"', '"&amp;FragenTemplate!G4&amp;"', '"&amp;FragenTemplate!I4&amp;"', '"&amp;FragenTemplate!K4&amp;"', "&amp;IF(EXACT(FragenTemplate!F4,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H4,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J4,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L4,"richtig"),"true","false")&amp;",true)"&amp;IF(A4="",";",",")))</f>
+        <v>('fach', 'BWL', false, 'frage', '1f', '2t', '3f', '4t', false,false,false,false,true),</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A4),"",("('"&amp;FragenTemplate!A4&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B4),"","'"&amp;FragenTemplate!B4&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C4,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D4&amp;"', '"&amp;FragenTemplate!E4&amp;"', '"&amp;FragenTemplate!G4&amp;"', '"&amp;FragenTemplate!I4&amp;"', '"&amp;FragenTemplate!K4&amp;"', "&amp;IF(EXACT(FragenTemplate!F4,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H4,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J4,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L4,"richtig"),"true","false")&amp;",true)"&amp;IF(A5="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C4" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A5),"",("('"&amp;FragenTemplate!A5&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B5),"","'"&amp;FragenTemplate!B5&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C5,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D5&amp;"', '"&amp;FragenTemplate!E5&amp;"', '"&amp;FragenTemplate!G5&amp;"', '"&amp;FragenTemplate!I5&amp;"', '"&amp;FragenTemplate!K5&amp;"', "&amp;IF(EXACT(FragenTemplate!F5,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H5,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J5,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L5,"richtig"),"true","false")&amp;",true)"&amp;IF(A5="",";",",")))</f>
+        <v>('Business Intelligence', 'Schönheit', false, 'Für was steht BI?', 'Business Intelligence', 'Bisschen Intelligent', 'Business Interest', 'Binary Integer', true,false,false,false,true),</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A5),"",("('"&amp;FragenTemplate!A5&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B5),"","'"&amp;FragenTemplate!B5&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C5,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D5&amp;"', '"&amp;FragenTemplate!E5&amp;"', '"&amp;FragenTemplate!G5&amp;"', '"&amp;FragenTemplate!I5&amp;"', '"&amp;FragenTemplate!K5&amp;"', "&amp;IF(EXACT(FragenTemplate!F5,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H5,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J5,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L5,"richtig"),"true","false")&amp;",true)"&amp;IF(A6="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C5" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A6),"",("('"&amp;FragenTemplate!A6&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B6),"","'"&amp;FragenTemplate!B6&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C6,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D6&amp;"', '"&amp;FragenTemplate!E6&amp;"', '"&amp;FragenTemplate!G6&amp;"', '"&amp;FragenTemplate!I6&amp;"', '"&amp;FragenTemplate!K6&amp;"', "&amp;IF(EXACT(FragenTemplate!F6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L6,"richtig"),"true","false")&amp;",true)"&amp;IF(A6="",";",",")))</f>
+        <v>('Geschichte-Grundlagen', , false, 'wann ging die Titanik unter?', '1973', '2000', '2001', '2006', true,false,false,false,true),</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A6),"",("('"&amp;FragenTemplate!A6&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B6),"","'"&amp;FragenTemplate!B6&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C6,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D6&amp;"', '"&amp;FragenTemplate!E6&amp;"', '"&amp;FragenTemplate!G6&amp;"', '"&amp;FragenTemplate!I6&amp;"', '"&amp;FragenTemplate!K6&amp;"', "&amp;IF(EXACT(FragenTemplate!F6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L6,"richtig"),"true","false")&amp;",true)"&amp;IF(A7="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C6" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A7),"",("('"&amp;FragenTemplate!A7&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B7),"","'"&amp;FragenTemplate!B7&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C7,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D7&amp;"', '"&amp;FragenTemplate!E7&amp;"', '"&amp;FragenTemplate!G7&amp;"', '"&amp;FragenTemplate!I7&amp;"', '"&amp;FragenTemplate!K7&amp;"', "&amp;IF(EXACT(FragenTemplate!F7,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H7,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J7,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L7,"richtig"),"true","false")&amp;",true)"&amp;IF(A7="",";",",")))</f>
+        <v>('allgemeine BWL', , false, 'Für was steht BWL?', 'Busy Word Long', 'BetriebwirtschaftsLehre', 'Betriebwirtschaftslehre', 'Betriebwissenslehre', false,true,true,false,true),</v>
+      </c>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A7),"",("('"&amp;FragenTemplate!A7&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B7),"","'"&amp;FragenTemplate!B7&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C7,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D7&amp;"', '"&amp;FragenTemplate!E7&amp;"', '"&amp;FragenTemplate!G7&amp;"', '"&amp;FragenTemplate!I7&amp;"', '"&amp;FragenTemplate!K7&amp;"', "&amp;IF(EXACT(FragenTemplate!F7,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H7,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J7,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L7,"richtig"),"true","false")&amp;",true)"&amp;IF(A8="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C7" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A8),"",("('"&amp;FragenTemplate!A8&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B8),"","'"&amp;FragenTemplate!B8&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C8,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D8&amp;"', '"&amp;FragenTemplate!E8&amp;"', '"&amp;FragenTemplate!G8&amp;"', '"&amp;FragenTemplate!I8&amp;"', '"&amp;FragenTemplate!K8&amp;"', "&amp;IF(EXACT(FragenTemplate!F8,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H8,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J8,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L8,"richtig"),"true","false")&amp;",true)"&amp;IF(A8="",";",",")))</f>
+        <v>('Gesicht', , false, 'Wer ist der schönste im Land?', 'Paul', 'Milan', 'Phil', 'Kevin', false,false,true,false,true);</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A8),"",("('"&amp;FragenTemplate!A8&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B8),"","'"&amp;FragenTemplate!B8&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C8,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D8&amp;"', '"&amp;FragenTemplate!E8&amp;"', '"&amp;FragenTemplate!G8&amp;"', '"&amp;FragenTemplate!I8&amp;"', '"&amp;FragenTemplate!K8&amp;"', "&amp;IF(EXACT(FragenTemplate!F8,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H8,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J8,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L8,"richtig"),"true","false")&amp;",true)"&amp;IF(A9="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C8" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A9),"",("('"&amp;FragenTemplate!A9&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B9),"","'"&amp;FragenTemplate!B9&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C9,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D9&amp;"', '"&amp;FragenTemplate!E9&amp;"', '"&amp;FragenTemplate!G9&amp;"', '"&amp;FragenTemplate!I9&amp;"', '"&amp;FragenTemplate!K9&amp;"', "&amp;IF(EXACT(FragenTemplate!F9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L9,"richtig"),"true","false")&amp;",true)"&amp;IF(A9="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A9),"",("('"&amp;FragenTemplate!A9&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B9),"","'"&amp;FragenTemplate!B9&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C9,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D9&amp;"', '"&amp;FragenTemplate!E9&amp;"', '"&amp;FragenTemplate!G9&amp;"', '"&amp;FragenTemplate!I9&amp;"', '"&amp;FragenTemplate!K9&amp;"', "&amp;IF(EXACT(FragenTemplate!F9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L9,"richtig"),"true","false")&amp;",true)"&amp;IF(A10="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C9" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A10),"",("('"&amp;FragenTemplate!A10&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B10),"","'"&amp;FragenTemplate!B10&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C10,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D10&amp;"', '"&amp;FragenTemplate!E10&amp;"', '"&amp;FragenTemplate!G10&amp;"', '"&amp;FragenTemplate!I10&amp;"', '"&amp;FragenTemplate!K10&amp;"', "&amp;IF(EXACT(FragenTemplate!F10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L10,"richtig"),"true","false")&amp;",true)"&amp;IF(A10="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A10),"",("('"&amp;FragenTemplate!A10&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B10),"","'"&amp;FragenTemplate!B10&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C10,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D10&amp;"', '"&amp;FragenTemplate!E10&amp;"', '"&amp;FragenTemplate!G10&amp;"', '"&amp;FragenTemplate!I10&amp;"', '"&amp;FragenTemplate!K10&amp;"', "&amp;IF(EXACT(FragenTemplate!F10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L10,"richtig"),"true","false")&amp;",true)"&amp;IF(A11="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C10" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A11),"",("('"&amp;FragenTemplate!A11&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B11),"","'"&amp;FragenTemplate!B11&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C11,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D11&amp;"', '"&amp;FragenTemplate!E11&amp;"', '"&amp;FragenTemplate!G11&amp;"', '"&amp;FragenTemplate!I11&amp;"', '"&amp;FragenTemplate!K11&amp;"', "&amp;IF(EXACT(FragenTemplate!F11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L11,"richtig"),"true","false")&amp;",true)"&amp;IF(A11="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A11),"",("('"&amp;FragenTemplate!A11&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B11),"","'"&amp;FragenTemplate!B11&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C11,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D11&amp;"', '"&amp;FragenTemplate!E11&amp;"', '"&amp;FragenTemplate!G11&amp;"', '"&amp;FragenTemplate!I11&amp;"', '"&amp;FragenTemplate!K11&amp;"', "&amp;IF(EXACT(FragenTemplate!F11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L11,"richtig"),"true","false")&amp;",true)"&amp;IF(A12="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C11" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A12),"",("('"&amp;FragenTemplate!A12&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B12),"","'"&amp;FragenTemplate!B12&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C12,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D12&amp;"', '"&amp;FragenTemplate!E12&amp;"', '"&amp;FragenTemplate!G12&amp;"', '"&amp;FragenTemplate!I12&amp;"', '"&amp;FragenTemplate!K12&amp;"', "&amp;IF(EXACT(FragenTemplate!F12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L12,"richtig"),"true","false")&amp;",true)"&amp;IF(A12="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A12),"",("('"&amp;FragenTemplate!A12&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B12),"","'"&amp;FragenTemplate!B12&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C12,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D12&amp;"', '"&amp;FragenTemplate!E12&amp;"', '"&amp;FragenTemplate!G12&amp;"', '"&amp;FragenTemplate!I12&amp;"', '"&amp;FragenTemplate!K12&amp;"', "&amp;IF(EXACT(FragenTemplate!F12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L12,"richtig"),"true","false")&amp;",true)"&amp;IF(A13="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C12" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A13),"",("('"&amp;FragenTemplate!A13&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B13),"","'"&amp;FragenTemplate!B13&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C13,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D13&amp;"', '"&amp;FragenTemplate!E13&amp;"', '"&amp;FragenTemplate!G13&amp;"', '"&amp;FragenTemplate!I13&amp;"', '"&amp;FragenTemplate!K13&amp;"', "&amp;IF(EXACT(FragenTemplate!F13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L13,"richtig"),"true","false")&amp;",true)"&amp;IF(A13="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A13),"",("('"&amp;FragenTemplate!A13&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B13),"","'"&amp;FragenTemplate!B13&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C13,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D13&amp;"', '"&amp;FragenTemplate!E13&amp;"', '"&amp;FragenTemplate!G13&amp;"', '"&amp;FragenTemplate!I13&amp;"', '"&amp;FragenTemplate!K13&amp;"', "&amp;IF(EXACT(FragenTemplate!F13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L13,"richtig"),"true","false")&amp;",true)"&amp;IF(A14="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C13" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A14),"",("('"&amp;FragenTemplate!A14&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B14),"","'"&amp;FragenTemplate!B14&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C14,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D14&amp;"', '"&amp;FragenTemplate!E14&amp;"', '"&amp;FragenTemplate!G14&amp;"', '"&amp;FragenTemplate!I14&amp;"', '"&amp;FragenTemplate!K14&amp;"', "&amp;IF(EXACT(FragenTemplate!F14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L14,"richtig"),"true","false")&amp;",true)"&amp;IF(A14="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A14),"",("('"&amp;FragenTemplate!A14&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B14),"","'"&amp;FragenTemplate!B14&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C14,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D14&amp;"', '"&amp;FragenTemplate!E14&amp;"', '"&amp;FragenTemplate!G14&amp;"', '"&amp;FragenTemplate!I14&amp;"', '"&amp;FragenTemplate!K14&amp;"', "&amp;IF(EXACT(FragenTemplate!F14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L14,"richtig"),"true","false")&amp;",true)"&amp;IF(A15="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C14" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A15),"",("('"&amp;FragenTemplate!A15&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B15),"","'"&amp;FragenTemplate!B15&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C15,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D15&amp;"', '"&amp;FragenTemplate!E15&amp;"', '"&amp;FragenTemplate!G15&amp;"', '"&amp;FragenTemplate!I15&amp;"', '"&amp;FragenTemplate!K15&amp;"', "&amp;IF(EXACT(FragenTemplate!F15,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H15,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J15,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L15,"richtig"),"true","false")&amp;",true)"&amp;IF(A15="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A15),"",("('"&amp;FragenTemplate!A15&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B15),"","'"&amp;FragenTemplate!B15&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C15,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D15&amp;"', '"&amp;FragenTemplate!E15&amp;"', '"&amp;FragenTemplate!G15&amp;"', '"&amp;FragenTemplate!I15&amp;"', '"&amp;FragenTemplate!K15&amp;"', "&amp;IF(EXACT(FragenTemplate!F15,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H15,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J15,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L15,"richtig"),"true","false")&amp;",true)"&amp;IF(A16="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C15" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A16),"",("('"&amp;FragenTemplate!A16&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B16),"","'"&amp;FragenTemplate!B16&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C16,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D16&amp;"', '"&amp;FragenTemplate!E16&amp;"', '"&amp;FragenTemplate!G16&amp;"', '"&amp;FragenTemplate!I16&amp;"', '"&amp;FragenTemplate!K16&amp;"', "&amp;IF(EXACT(FragenTemplate!F16,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H16,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J16,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L16,"richtig"),"true","false")&amp;",true)"&amp;IF(A16="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A16),"",("('"&amp;FragenTemplate!A16&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B16),"","'"&amp;FragenTemplate!B16&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C16,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D16&amp;"', '"&amp;FragenTemplate!E16&amp;"', '"&amp;FragenTemplate!G16&amp;"', '"&amp;FragenTemplate!I16&amp;"', '"&amp;FragenTemplate!K16&amp;"', "&amp;IF(EXACT(FragenTemplate!F16,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H16,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J16,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L16,"richtig"),"true","false")&amp;",true)"&amp;IF(A17="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C16" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A17),"",("('"&amp;FragenTemplate!A17&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B17),"","'"&amp;FragenTemplate!B17&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C17,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D17&amp;"', '"&amp;FragenTemplate!E17&amp;"', '"&amp;FragenTemplate!G17&amp;"', '"&amp;FragenTemplate!I17&amp;"', '"&amp;FragenTemplate!K17&amp;"', "&amp;IF(EXACT(FragenTemplate!F17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L17,"richtig"),"true","false")&amp;",true)"&amp;IF(A17="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A17),"",("('"&amp;FragenTemplate!A17&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B17),"","'"&amp;FragenTemplate!B17&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C17,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D17&amp;"', '"&amp;FragenTemplate!E17&amp;"', '"&amp;FragenTemplate!G17&amp;"', '"&amp;FragenTemplate!I17&amp;"', '"&amp;FragenTemplate!K17&amp;"', "&amp;IF(EXACT(FragenTemplate!F17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L17,"richtig"),"true","false")&amp;",true)"&amp;IF(A18="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C17" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A18),"",("('"&amp;FragenTemplate!A18&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B18),"","'"&amp;FragenTemplate!B18&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C18,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D18&amp;"', '"&amp;FragenTemplate!E18&amp;"', '"&amp;FragenTemplate!G18&amp;"', '"&amp;FragenTemplate!I18&amp;"', '"&amp;FragenTemplate!K18&amp;"', "&amp;IF(EXACT(FragenTemplate!F18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L18,"richtig"),"true","false")&amp;",true)"&amp;IF(A18="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A18),"",("('"&amp;FragenTemplate!A18&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B18),"","'"&amp;FragenTemplate!B18&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C18,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D18&amp;"', '"&amp;FragenTemplate!E18&amp;"', '"&amp;FragenTemplate!G18&amp;"', '"&amp;FragenTemplate!I18&amp;"', '"&amp;FragenTemplate!K18&amp;"', "&amp;IF(EXACT(FragenTemplate!F18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L18,"richtig"),"true","false")&amp;",true)"&amp;IF(A19="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C18" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A19),"",("('"&amp;FragenTemplate!A19&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B19),"","'"&amp;FragenTemplate!B19&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C19,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D19&amp;"', '"&amp;FragenTemplate!E19&amp;"', '"&amp;FragenTemplate!G19&amp;"', '"&amp;FragenTemplate!I19&amp;"', '"&amp;FragenTemplate!K19&amp;"', "&amp;IF(EXACT(FragenTemplate!F19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L19,"richtig"),"true","false")&amp;",true)"&amp;IF(A19="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A19),"",("('"&amp;FragenTemplate!A19&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B19),"","'"&amp;FragenTemplate!B19&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C19,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D19&amp;"', '"&amp;FragenTemplate!E19&amp;"', '"&amp;FragenTemplate!G19&amp;"', '"&amp;FragenTemplate!I19&amp;"', '"&amp;FragenTemplate!K19&amp;"', "&amp;IF(EXACT(FragenTemplate!F19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L19,"richtig"),"true","false")&amp;",true)"&amp;IF(A20="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C19" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A20),"",("('"&amp;FragenTemplate!A20&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B20),"","'"&amp;FragenTemplate!B20&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C20,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D20&amp;"', '"&amp;FragenTemplate!E20&amp;"', '"&amp;FragenTemplate!G20&amp;"', '"&amp;FragenTemplate!I20&amp;"', '"&amp;FragenTemplate!K20&amp;"', "&amp;IF(EXACT(FragenTemplate!F20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L20,"richtig"),"true","false")&amp;",true)"&amp;IF(A20="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A20),"",("('"&amp;FragenTemplate!A20&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B20),"","'"&amp;FragenTemplate!B20&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C20,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D20&amp;"', '"&amp;FragenTemplate!E20&amp;"', '"&amp;FragenTemplate!G20&amp;"', '"&amp;FragenTemplate!I20&amp;"', '"&amp;FragenTemplate!K20&amp;"', "&amp;IF(EXACT(FragenTemplate!F20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L20,"richtig"),"true","false")&amp;",true)"&amp;IF(A21="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C20" s="8"/>
+        <f>IF(ISBLANK(FragenTemplate!A21),"",("('"&amp;FragenTemplate!A21&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B21),"","'"&amp;FragenTemplate!B21&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C21,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D21&amp;"', '"&amp;FragenTemplate!E21&amp;"', '"&amp;FragenTemplate!G21&amp;"', '"&amp;FragenTemplate!I21&amp;"', '"&amp;FragenTemplate!K21&amp;"', "&amp;IF(EXACT(FragenTemplate!F21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L21,"richtig"),"true","false")&amp;",true)"&amp;IF(A21="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A21),"",("('"&amp;FragenTemplate!A21&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B21),"","'"&amp;FragenTemplate!B21&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C21,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D21&amp;"', '"&amp;FragenTemplate!E21&amp;"', '"&amp;FragenTemplate!G21&amp;"', '"&amp;FragenTemplate!I21&amp;"', '"&amp;FragenTemplate!K21&amp;"', "&amp;IF(EXACT(FragenTemplate!F21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L21,"richtig"),"true","false")&amp;",true)"&amp;IF(A22="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A22),"",("('"&amp;FragenTemplate!A22&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B22),"","'"&amp;FragenTemplate!B22&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C22,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D22&amp;"', '"&amp;FragenTemplate!E22&amp;"', '"&amp;FragenTemplate!G22&amp;"', '"&amp;FragenTemplate!I22&amp;"', '"&amp;FragenTemplate!K22&amp;"', "&amp;IF(EXACT(FragenTemplate!F22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L22,"richtig"),"true","false")&amp;",true)"&amp;IF(A22="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A22),"",("('"&amp;FragenTemplate!A22&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B22),"","'"&amp;FragenTemplate!B22&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C22,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D22&amp;"', '"&amp;FragenTemplate!E22&amp;"', '"&amp;FragenTemplate!G22&amp;"', '"&amp;FragenTemplate!I22&amp;"', '"&amp;FragenTemplate!K22&amp;"', "&amp;IF(EXACT(FragenTemplate!F22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L22,"richtig"),"true","false")&amp;",true)"&amp;IF(A23="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A23),"",("('"&amp;FragenTemplate!A23&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B23),"","'"&amp;FragenTemplate!B23&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C23,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D23&amp;"', '"&amp;FragenTemplate!E23&amp;"', '"&amp;FragenTemplate!G23&amp;"', '"&amp;FragenTemplate!I23&amp;"', '"&amp;FragenTemplate!K23&amp;"', "&amp;IF(EXACT(FragenTemplate!F23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L23,"richtig"),"true","false")&amp;",true)"&amp;IF(A23="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A23),"",("('"&amp;FragenTemplate!A23&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B23),"","'"&amp;FragenTemplate!B23&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C23,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D23&amp;"', '"&amp;FragenTemplate!E23&amp;"', '"&amp;FragenTemplate!G23&amp;"', '"&amp;FragenTemplate!I23&amp;"', '"&amp;FragenTemplate!K23&amp;"', "&amp;IF(EXACT(FragenTemplate!F23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L23,"richtig"),"true","false")&amp;",true)"&amp;IF(A24="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A24),"",("('"&amp;FragenTemplate!A24&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B24),"","'"&amp;FragenTemplate!B24&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C24,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D24&amp;"', '"&amp;FragenTemplate!E24&amp;"', '"&amp;FragenTemplate!G24&amp;"', '"&amp;FragenTemplate!I24&amp;"', '"&amp;FragenTemplate!K24&amp;"', "&amp;IF(EXACT(FragenTemplate!F24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L24,"richtig"),"true","false")&amp;",true)"&amp;IF(A24="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A24),"",("('"&amp;FragenTemplate!A24&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B24),"","'"&amp;FragenTemplate!B24&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C24,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D24&amp;"', '"&amp;FragenTemplate!E24&amp;"', '"&amp;FragenTemplate!G24&amp;"', '"&amp;FragenTemplate!I24&amp;"', '"&amp;FragenTemplate!K24&amp;"', "&amp;IF(EXACT(FragenTemplate!F24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L24,"richtig"),"true","false")&amp;",true)"&amp;IF(A25="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A25),"",("('"&amp;FragenTemplate!A25&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B25),"","'"&amp;FragenTemplate!B25&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C25,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D25&amp;"', '"&amp;FragenTemplate!E25&amp;"', '"&amp;FragenTemplate!G25&amp;"', '"&amp;FragenTemplate!I25&amp;"', '"&amp;FragenTemplate!K25&amp;"', "&amp;IF(EXACT(FragenTemplate!F25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L25,"richtig"),"true","false")&amp;",true)"&amp;IF(A25="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A25),"",("('"&amp;FragenTemplate!A25&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B25),"","'"&amp;FragenTemplate!B25&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C25,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D25&amp;"', '"&amp;FragenTemplate!E25&amp;"', '"&amp;FragenTemplate!G25&amp;"', '"&amp;FragenTemplate!I25&amp;"', '"&amp;FragenTemplate!K25&amp;"', "&amp;IF(EXACT(FragenTemplate!F25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L25,"richtig"),"true","false")&amp;",true)"&amp;IF(A26="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A26),"",("('"&amp;FragenTemplate!A26&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B26),"","'"&amp;FragenTemplate!B26&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C26,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D26&amp;"', '"&amp;FragenTemplate!E26&amp;"', '"&amp;FragenTemplate!G26&amp;"', '"&amp;FragenTemplate!I26&amp;"', '"&amp;FragenTemplate!K26&amp;"', "&amp;IF(EXACT(FragenTemplate!F26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L26,"richtig"),"true","false")&amp;",true)"&amp;IF(A26="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A26),"",("('"&amp;FragenTemplate!A26&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B26),"","'"&amp;FragenTemplate!B26&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C26,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D26&amp;"', '"&amp;FragenTemplate!E26&amp;"', '"&amp;FragenTemplate!G26&amp;"', '"&amp;FragenTemplate!I26&amp;"', '"&amp;FragenTemplate!K26&amp;"', "&amp;IF(EXACT(FragenTemplate!F26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L26,"richtig"),"true","false")&amp;",true)"&amp;IF(A27="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A27),"",("('"&amp;FragenTemplate!A27&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B27),"","'"&amp;FragenTemplate!B27&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C27,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D27&amp;"', '"&amp;FragenTemplate!E27&amp;"', '"&amp;FragenTemplate!G27&amp;"', '"&amp;FragenTemplate!I27&amp;"', '"&amp;FragenTemplate!K27&amp;"', "&amp;IF(EXACT(FragenTemplate!F27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L27,"richtig"),"true","false")&amp;",true)"&amp;IF(A27="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A27),"",("('"&amp;FragenTemplate!A27&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B27),"","'"&amp;FragenTemplate!B27&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C27,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D27&amp;"', '"&amp;FragenTemplate!E27&amp;"', '"&amp;FragenTemplate!G27&amp;"', '"&amp;FragenTemplate!I27&amp;"', '"&amp;FragenTemplate!K27&amp;"', "&amp;IF(EXACT(FragenTemplate!F27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L27,"richtig"),"true","false")&amp;",true)"&amp;IF(A28="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A28),"",("('"&amp;FragenTemplate!A28&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B28),"","'"&amp;FragenTemplate!B28&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C28,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D28&amp;"', '"&amp;FragenTemplate!E28&amp;"', '"&amp;FragenTemplate!G28&amp;"', '"&amp;FragenTemplate!I28&amp;"', '"&amp;FragenTemplate!K28&amp;"', "&amp;IF(EXACT(FragenTemplate!F28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L28,"richtig"),"true","false")&amp;",true)"&amp;IF(A28="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A28),"",("('"&amp;FragenTemplate!A28&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B28),"","'"&amp;FragenTemplate!B28&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C28,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D28&amp;"', '"&amp;FragenTemplate!E28&amp;"', '"&amp;FragenTemplate!G28&amp;"', '"&amp;FragenTemplate!I28&amp;"', '"&amp;FragenTemplate!K28&amp;"', "&amp;IF(EXACT(FragenTemplate!F28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L28,"richtig"),"true","false")&amp;",true)"&amp;IF(A29="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A29),"",("('"&amp;FragenTemplate!A29&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B29),"","'"&amp;FragenTemplate!B29&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C29,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D29&amp;"', '"&amp;FragenTemplate!E29&amp;"', '"&amp;FragenTemplate!G29&amp;"', '"&amp;FragenTemplate!I29&amp;"', '"&amp;FragenTemplate!K29&amp;"', "&amp;IF(EXACT(FragenTemplate!F29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L29,"richtig"),"true","false")&amp;",true)"&amp;IF(A29="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A29),"",("('"&amp;FragenTemplate!A29&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B29),"","'"&amp;FragenTemplate!B29&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C29,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D29&amp;"', '"&amp;FragenTemplate!E29&amp;"', '"&amp;FragenTemplate!G29&amp;"', '"&amp;FragenTemplate!I29&amp;"', '"&amp;FragenTemplate!K29&amp;"', "&amp;IF(EXACT(FragenTemplate!F29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L29,"richtig"),"true","false")&amp;",true)"&amp;IF(A30="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A30),"",("('"&amp;FragenTemplate!A30&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B30),"","'"&amp;FragenTemplate!B30&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C30,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D30&amp;"', '"&amp;FragenTemplate!E30&amp;"', '"&amp;FragenTemplate!G30&amp;"', '"&amp;FragenTemplate!I30&amp;"', '"&amp;FragenTemplate!K30&amp;"', "&amp;IF(EXACT(FragenTemplate!F30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L30,"richtig"),"true","false")&amp;",true)"&amp;IF(A30="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A30),"",("('"&amp;FragenTemplate!A30&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B30),"","'"&amp;FragenTemplate!B30&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C30,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D30&amp;"', '"&amp;FragenTemplate!E30&amp;"', '"&amp;FragenTemplate!G30&amp;"', '"&amp;FragenTemplate!I30&amp;"', '"&amp;FragenTemplate!K30&amp;"', "&amp;IF(EXACT(FragenTemplate!F30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L30,"richtig"),"true","false")&amp;",true)"&amp;IF(A31="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A31),"",("('"&amp;FragenTemplate!A31&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B31),"","'"&amp;FragenTemplate!B31&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C31,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D31&amp;"', '"&amp;FragenTemplate!E31&amp;"', '"&amp;FragenTemplate!G31&amp;"', '"&amp;FragenTemplate!I31&amp;"', '"&amp;FragenTemplate!K31&amp;"', "&amp;IF(EXACT(FragenTemplate!F31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L31,"richtig"),"true","false")&amp;",true)"&amp;IF(A31="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A31),"",("('"&amp;FragenTemplate!A31&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B31),"","'"&amp;FragenTemplate!B31&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C31,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D31&amp;"', '"&amp;FragenTemplate!E31&amp;"', '"&amp;FragenTemplate!G31&amp;"', '"&amp;FragenTemplate!I31&amp;"', '"&amp;FragenTemplate!K31&amp;"', "&amp;IF(EXACT(FragenTemplate!F31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L31,"richtig"),"true","false")&amp;",true)"&amp;IF(A32="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A32),"",("('"&amp;FragenTemplate!A32&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B32),"","'"&amp;FragenTemplate!B32&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C32,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D32&amp;"', '"&amp;FragenTemplate!E32&amp;"', '"&amp;FragenTemplate!G32&amp;"', '"&amp;FragenTemplate!I32&amp;"', '"&amp;FragenTemplate!K32&amp;"', "&amp;IF(EXACT(FragenTemplate!F32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L32,"richtig"),"true","false")&amp;",true)"&amp;IF(A32="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A32),"",("('"&amp;FragenTemplate!A32&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B32),"","'"&amp;FragenTemplate!B32&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C32,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D32&amp;"', '"&amp;FragenTemplate!E32&amp;"', '"&amp;FragenTemplate!G32&amp;"', '"&amp;FragenTemplate!I32&amp;"', '"&amp;FragenTemplate!K32&amp;"', "&amp;IF(EXACT(FragenTemplate!F32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L32,"richtig"),"true","false")&amp;",true)"&amp;IF(A33="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A33),"",("('"&amp;FragenTemplate!A33&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B33),"","'"&amp;FragenTemplate!B33&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C33,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D33&amp;"', '"&amp;FragenTemplate!E33&amp;"', '"&amp;FragenTemplate!G33&amp;"', '"&amp;FragenTemplate!I33&amp;"', '"&amp;FragenTemplate!K33&amp;"', "&amp;IF(EXACT(FragenTemplate!F33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L33,"richtig"),"true","false")&amp;",true)"&amp;IF(A33="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A33),"",("('"&amp;FragenTemplate!A33&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B33),"","'"&amp;FragenTemplate!B33&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C33,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D33&amp;"', '"&amp;FragenTemplate!E33&amp;"', '"&amp;FragenTemplate!G33&amp;"', '"&amp;FragenTemplate!I33&amp;"', '"&amp;FragenTemplate!K33&amp;"', "&amp;IF(EXACT(FragenTemplate!F33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L33,"richtig"),"true","false")&amp;",true)"&amp;IF(A34="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A34),"",("('"&amp;FragenTemplate!A34&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B34),"","'"&amp;FragenTemplate!B34&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C34,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D34&amp;"', '"&amp;FragenTemplate!E34&amp;"', '"&amp;FragenTemplate!G34&amp;"', '"&amp;FragenTemplate!I34&amp;"', '"&amp;FragenTemplate!K34&amp;"', "&amp;IF(EXACT(FragenTemplate!F34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L34,"richtig"),"true","false")&amp;",true)"&amp;IF(A34="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A34),"",("('"&amp;FragenTemplate!A34&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B34),"","'"&amp;FragenTemplate!B34&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C34,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D34&amp;"', '"&amp;FragenTemplate!E34&amp;"', '"&amp;FragenTemplate!G34&amp;"', '"&amp;FragenTemplate!I34&amp;"', '"&amp;FragenTemplate!K34&amp;"', "&amp;IF(EXACT(FragenTemplate!F34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L34,"richtig"),"true","false")&amp;",true)"&amp;IF(A35="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A35),"",("('"&amp;FragenTemplate!A35&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B35),"","'"&amp;FragenTemplate!B35&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C35,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D35&amp;"', '"&amp;FragenTemplate!E35&amp;"', '"&amp;FragenTemplate!G35&amp;"', '"&amp;FragenTemplate!I35&amp;"', '"&amp;FragenTemplate!K35&amp;"', "&amp;IF(EXACT(FragenTemplate!F35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L35,"richtig"),"true","false")&amp;",true)"&amp;IF(A35="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A35),"",("('"&amp;FragenTemplate!A35&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B35),"","'"&amp;FragenTemplate!B35&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C35,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D35&amp;"', '"&amp;FragenTemplate!E35&amp;"', '"&amp;FragenTemplate!G35&amp;"', '"&amp;FragenTemplate!I35&amp;"', '"&amp;FragenTemplate!K35&amp;"', "&amp;IF(EXACT(FragenTemplate!F35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L35,"richtig"),"true","false")&amp;",true)"&amp;IF(A36="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A36),"",("('"&amp;FragenTemplate!A36&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B36),"","'"&amp;FragenTemplate!B36&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C36,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D36&amp;"', '"&amp;FragenTemplate!E36&amp;"', '"&amp;FragenTemplate!G36&amp;"', '"&amp;FragenTemplate!I36&amp;"', '"&amp;FragenTemplate!K36&amp;"', "&amp;IF(EXACT(FragenTemplate!F36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L36,"richtig"),"true","false")&amp;",true)"&amp;IF(A36="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A36),"",("('"&amp;FragenTemplate!A36&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B36),"","'"&amp;FragenTemplate!B36&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C36,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D36&amp;"', '"&amp;FragenTemplate!E36&amp;"', '"&amp;FragenTemplate!G36&amp;"', '"&amp;FragenTemplate!I36&amp;"', '"&amp;FragenTemplate!K36&amp;"', "&amp;IF(EXACT(FragenTemplate!F36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L36,"richtig"),"true","false")&amp;",true)"&amp;IF(A37="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A37),"",("('"&amp;FragenTemplate!A37&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B37),"","'"&amp;FragenTemplate!B37&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C37,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D37&amp;"', '"&amp;FragenTemplate!E37&amp;"', '"&amp;FragenTemplate!G37&amp;"', '"&amp;FragenTemplate!I37&amp;"', '"&amp;FragenTemplate!K37&amp;"', "&amp;IF(EXACT(FragenTemplate!F37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L37,"richtig"),"true","false")&amp;",true)"&amp;IF(A37="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A37),"",("('"&amp;FragenTemplate!A37&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B37),"","'"&amp;FragenTemplate!B37&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C37,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D37&amp;"', '"&amp;FragenTemplate!E37&amp;"', '"&amp;FragenTemplate!G37&amp;"', '"&amp;FragenTemplate!I37&amp;"', '"&amp;FragenTemplate!K37&amp;"', "&amp;IF(EXACT(FragenTemplate!F37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L37,"richtig"),"true","false")&amp;",true)"&amp;IF(A38="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A38),"",("('"&amp;FragenTemplate!A38&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B38),"","'"&amp;FragenTemplate!B38&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C38,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D38&amp;"', '"&amp;FragenTemplate!E38&amp;"', '"&amp;FragenTemplate!G38&amp;"', '"&amp;FragenTemplate!I38&amp;"', '"&amp;FragenTemplate!K38&amp;"', "&amp;IF(EXACT(FragenTemplate!F38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L38,"richtig"),"true","false")&amp;",true)"&amp;IF(A38="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A38),"",("('"&amp;FragenTemplate!A38&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B38),"","'"&amp;FragenTemplate!B38&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C38,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D38&amp;"', '"&amp;FragenTemplate!E38&amp;"', '"&amp;FragenTemplate!G38&amp;"', '"&amp;FragenTemplate!I38&amp;"', '"&amp;FragenTemplate!K38&amp;"', "&amp;IF(EXACT(FragenTemplate!F38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L38,"richtig"),"true","false")&amp;",true)"&amp;IF(A39="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A39),"",("('"&amp;FragenTemplate!A39&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B39),"","'"&amp;FragenTemplate!B39&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C39,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D39&amp;"', '"&amp;FragenTemplate!E39&amp;"', '"&amp;FragenTemplate!G39&amp;"', '"&amp;FragenTemplate!I39&amp;"', '"&amp;FragenTemplate!K39&amp;"', "&amp;IF(EXACT(FragenTemplate!F39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L39,"richtig"),"true","false")&amp;",true)"&amp;IF(A39="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A39),"",("('"&amp;FragenTemplate!A39&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B39),"","'"&amp;FragenTemplate!B39&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C39,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D39&amp;"', '"&amp;FragenTemplate!E39&amp;"', '"&amp;FragenTemplate!G39&amp;"', '"&amp;FragenTemplate!I39&amp;"', '"&amp;FragenTemplate!K39&amp;"', "&amp;IF(EXACT(FragenTemplate!F39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L39,"richtig"),"true","false")&amp;",true)"&amp;IF(A40="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A40),"",("('"&amp;FragenTemplate!A40&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B40),"","'"&amp;FragenTemplate!B40&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C40,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D40&amp;"', '"&amp;FragenTemplate!E40&amp;"', '"&amp;FragenTemplate!G40&amp;"', '"&amp;FragenTemplate!I40&amp;"', '"&amp;FragenTemplate!K40&amp;"', "&amp;IF(EXACT(FragenTemplate!F40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L40,"richtig"),"true","false")&amp;",true)"&amp;IF(A40="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A40),"",("('"&amp;FragenTemplate!A40&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B40),"","'"&amp;FragenTemplate!B40&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C40,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D40&amp;"', '"&amp;FragenTemplate!E40&amp;"', '"&amp;FragenTemplate!G40&amp;"', '"&amp;FragenTemplate!I40&amp;"', '"&amp;FragenTemplate!K40&amp;"', "&amp;IF(EXACT(FragenTemplate!F40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L40,"richtig"),"true","false")&amp;",true)"&amp;IF(A41="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A41),"",("('"&amp;FragenTemplate!A41&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B41),"","'"&amp;FragenTemplate!B41&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C41,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D41&amp;"', '"&amp;FragenTemplate!E41&amp;"', '"&amp;FragenTemplate!G41&amp;"', '"&amp;FragenTemplate!I41&amp;"', '"&amp;FragenTemplate!K41&amp;"', "&amp;IF(EXACT(FragenTemplate!F41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L41,"richtig"),"true","false")&amp;",true)"&amp;IF(A41="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A41),"",("('"&amp;FragenTemplate!A41&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B41),"","'"&amp;FragenTemplate!B41&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C41,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D41&amp;"', '"&amp;FragenTemplate!E41&amp;"', '"&amp;FragenTemplate!G41&amp;"', '"&amp;FragenTemplate!I41&amp;"', '"&amp;FragenTemplate!K41&amp;"', "&amp;IF(EXACT(FragenTemplate!F41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L41,"richtig"),"true","false")&amp;",true)"&amp;IF(A42="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A42),"",("('"&amp;FragenTemplate!A42&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B42),"","'"&amp;FragenTemplate!B42&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C42,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D42&amp;"', '"&amp;FragenTemplate!E42&amp;"', '"&amp;FragenTemplate!G42&amp;"', '"&amp;FragenTemplate!I42&amp;"', '"&amp;FragenTemplate!K42&amp;"', "&amp;IF(EXACT(FragenTemplate!F42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L42,"richtig"),"true","false")&amp;",true)"&amp;IF(A42="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A42),"",("('"&amp;FragenTemplate!A42&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B42),"","'"&amp;FragenTemplate!B42&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C42,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D42&amp;"', '"&amp;FragenTemplate!E42&amp;"', '"&amp;FragenTemplate!G42&amp;"', '"&amp;FragenTemplate!I42&amp;"', '"&amp;FragenTemplate!K42&amp;"', "&amp;IF(EXACT(FragenTemplate!F42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L42,"richtig"),"true","false")&amp;",true)"&amp;IF(A43="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A43),"",("('"&amp;FragenTemplate!A43&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B43),"","'"&amp;FragenTemplate!B43&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C43,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D43&amp;"', '"&amp;FragenTemplate!E43&amp;"', '"&amp;FragenTemplate!G43&amp;"', '"&amp;FragenTemplate!I43&amp;"', '"&amp;FragenTemplate!K43&amp;"', "&amp;IF(EXACT(FragenTemplate!F43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L43,"richtig"),"true","false")&amp;",true)"&amp;IF(A43="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A43),"",("('"&amp;FragenTemplate!A43&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B43),"","'"&amp;FragenTemplate!B43&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C43,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D43&amp;"', '"&amp;FragenTemplate!E43&amp;"', '"&amp;FragenTemplate!G43&amp;"', '"&amp;FragenTemplate!I43&amp;"', '"&amp;FragenTemplate!K43&amp;"', "&amp;IF(EXACT(FragenTemplate!F43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L43,"richtig"),"true","false")&amp;",true)"&amp;IF(A44="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A44),"",("('"&amp;FragenTemplate!A44&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B44),"","'"&amp;FragenTemplate!B44&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C44,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D44&amp;"', '"&amp;FragenTemplate!E44&amp;"', '"&amp;FragenTemplate!G44&amp;"', '"&amp;FragenTemplate!I44&amp;"', '"&amp;FragenTemplate!K44&amp;"', "&amp;IF(EXACT(FragenTemplate!F44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L44,"richtig"),"true","false")&amp;",true)"&amp;IF(A44="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A44),"",("('"&amp;FragenTemplate!A44&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B44),"","'"&amp;FragenTemplate!B44&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C44,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D44&amp;"', '"&amp;FragenTemplate!E44&amp;"', '"&amp;FragenTemplate!G44&amp;"', '"&amp;FragenTemplate!I44&amp;"', '"&amp;FragenTemplate!K44&amp;"', "&amp;IF(EXACT(FragenTemplate!F44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L44,"richtig"),"true","false")&amp;",true)"&amp;IF(A45="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A45),"",("('"&amp;FragenTemplate!A45&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B45),"","'"&amp;FragenTemplate!B45&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C45,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D45&amp;"', '"&amp;FragenTemplate!E45&amp;"', '"&amp;FragenTemplate!G45&amp;"', '"&amp;FragenTemplate!I45&amp;"', '"&amp;FragenTemplate!K45&amp;"', "&amp;IF(EXACT(FragenTemplate!F45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L45,"richtig"),"true","false")&amp;",true)"&amp;IF(A45="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A45),"",("('"&amp;FragenTemplate!A45&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B45),"","'"&amp;FragenTemplate!B45&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C45,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D45&amp;"', '"&amp;FragenTemplate!E45&amp;"', '"&amp;FragenTemplate!G45&amp;"', '"&amp;FragenTemplate!I45&amp;"', '"&amp;FragenTemplate!K45&amp;"', "&amp;IF(EXACT(FragenTemplate!F45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L45,"richtig"),"true","false")&amp;",true)"&amp;IF(A46="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A46),"",("('"&amp;FragenTemplate!A46&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B46),"","'"&amp;FragenTemplate!B46&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C46,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D46&amp;"', '"&amp;FragenTemplate!E46&amp;"', '"&amp;FragenTemplate!G46&amp;"', '"&amp;FragenTemplate!I46&amp;"', '"&amp;FragenTemplate!K46&amp;"', "&amp;IF(EXACT(FragenTemplate!F46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L46,"richtig"),"true","false")&amp;",true)"&amp;IF(A46="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A46),"",("('"&amp;FragenTemplate!A46&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B46),"","'"&amp;FragenTemplate!B46&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C46,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D46&amp;"', '"&amp;FragenTemplate!E46&amp;"', '"&amp;FragenTemplate!G46&amp;"', '"&amp;FragenTemplate!I46&amp;"', '"&amp;FragenTemplate!K46&amp;"', "&amp;IF(EXACT(FragenTemplate!F46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L46,"richtig"),"true","false")&amp;",true)"&amp;IF(A47="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A47),"",("('"&amp;FragenTemplate!A47&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B47),"","'"&amp;FragenTemplate!B47&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C47,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D47&amp;"', '"&amp;FragenTemplate!E47&amp;"', '"&amp;FragenTemplate!G47&amp;"', '"&amp;FragenTemplate!I47&amp;"', '"&amp;FragenTemplate!K47&amp;"', "&amp;IF(EXACT(FragenTemplate!F47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L47,"richtig"),"true","false")&amp;",true)"&amp;IF(A47="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A47),"",("('"&amp;FragenTemplate!A47&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B47),"","'"&amp;FragenTemplate!B47&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C47,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D47&amp;"', '"&amp;FragenTemplate!E47&amp;"', '"&amp;FragenTemplate!G47&amp;"', '"&amp;FragenTemplate!I47&amp;"', '"&amp;FragenTemplate!K47&amp;"', "&amp;IF(EXACT(FragenTemplate!F47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L47,"richtig"),"true","false")&amp;",true)"&amp;IF(A48="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A48),"",("('"&amp;FragenTemplate!A48&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B48),"","'"&amp;FragenTemplate!B48&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C48,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D48&amp;"', '"&amp;FragenTemplate!E48&amp;"', '"&amp;FragenTemplate!G48&amp;"', '"&amp;FragenTemplate!I48&amp;"', '"&amp;FragenTemplate!K48&amp;"', "&amp;IF(EXACT(FragenTemplate!F48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L48,"richtig"),"true","false")&amp;",true)"&amp;IF(A48="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A48),"",("('"&amp;FragenTemplate!A48&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B48),"","'"&amp;FragenTemplate!B48&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C48,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D48&amp;"', '"&amp;FragenTemplate!E48&amp;"', '"&amp;FragenTemplate!G48&amp;"', '"&amp;FragenTemplate!I48&amp;"', '"&amp;FragenTemplate!K48&amp;"', "&amp;IF(EXACT(FragenTemplate!F48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L48,"richtig"),"true","false")&amp;",true)"&amp;IF(A49="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A49),"",("('"&amp;FragenTemplate!A49&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B49),"","'"&amp;FragenTemplate!B49&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C49,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D49&amp;"', '"&amp;FragenTemplate!E49&amp;"', '"&amp;FragenTemplate!G49&amp;"', '"&amp;FragenTemplate!I49&amp;"', '"&amp;FragenTemplate!K49&amp;"', "&amp;IF(EXACT(FragenTemplate!F49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L49,"richtig"),"true","false")&amp;",true)"&amp;IF(A49="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A49),"",("('"&amp;FragenTemplate!A49&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B49),"","'"&amp;FragenTemplate!B49&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C49,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D49&amp;"', '"&amp;FragenTemplate!E49&amp;"', '"&amp;FragenTemplate!G49&amp;"', '"&amp;FragenTemplate!I49&amp;"', '"&amp;FragenTemplate!K49&amp;"', "&amp;IF(EXACT(FragenTemplate!F49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L49,"richtig"),"true","false")&amp;",true)"&amp;IF(A50="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A50),"",("('"&amp;FragenTemplate!A50&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B50),"","'"&amp;FragenTemplate!B50&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C50,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D50&amp;"', '"&amp;FragenTemplate!E50&amp;"', '"&amp;FragenTemplate!G50&amp;"', '"&amp;FragenTemplate!I50&amp;"', '"&amp;FragenTemplate!K50&amp;"', "&amp;IF(EXACT(FragenTemplate!F50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L50,"richtig"),"true","false")&amp;",true)"&amp;IF(A50="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A50),"",("('"&amp;FragenTemplate!A50&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B50),"","'"&amp;FragenTemplate!B50&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C50,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D50&amp;"', '"&amp;FragenTemplate!E50&amp;"', '"&amp;FragenTemplate!G50&amp;"', '"&amp;FragenTemplate!I50&amp;"', '"&amp;FragenTemplate!K50&amp;"', "&amp;IF(EXACT(FragenTemplate!F50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L50,"richtig"),"true","false")&amp;",true)"&amp;IF(A51="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A51),"",("('"&amp;FragenTemplate!A51&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B51),"","'"&amp;FragenTemplate!B51&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C51,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D51&amp;"', '"&amp;FragenTemplate!E51&amp;"', '"&amp;FragenTemplate!G51&amp;"', '"&amp;FragenTemplate!I51&amp;"', '"&amp;FragenTemplate!K51&amp;"', "&amp;IF(EXACT(FragenTemplate!F51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L51,"richtig"),"true","false")&amp;",true)"&amp;IF(A51="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A51),"",("('"&amp;FragenTemplate!A51&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B51),"","'"&amp;FragenTemplate!B51&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C51,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D51&amp;"', '"&amp;FragenTemplate!E51&amp;"', '"&amp;FragenTemplate!G51&amp;"', '"&amp;FragenTemplate!I51&amp;"', '"&amp;FragenTemplate!K51&amp;"', "&amp;IF(EXACT(FragenTemplate!F51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L51,"richtig"),"true","false")&amp;",true)"&amp;IF(A52="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A52),"",("('"&amp;FragenTemplate!A52&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B52),"","'"&amp;FragenTemplate!B52&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C52,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D52&amp;"', '"&amp;FragenTemplate!E52&amp;"', '"&amp;FragenTemplate!G52&amp;"', '"&amp;FragenTemplate!I52&amp;"', '"&amp;FragenTemplate!K52&amp;"', "&amp;IF(EXACT(FragenTemplate!F52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L52,"richtig"),"true","false")&amp;",true)"&amp;IF(A52="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A52),"",("('"&amp;FragenTemplate!A52&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B52),"","'"&amp;FragenTemplate!B52&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C52,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D52&amp;"', '"&amp;FragenTemplate!E52&amp;"', '"&amp;FragenTemplate!G52&amp;"', '"&amp;FragenTemplate!I52&amp;"', '"&amp;FragenTemplate!K52&amp;"', "&amp;IF(EXACT(FragenTemplate!F52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L52,"richtig"),"true","false")&amp;",true)"&amp;IF(A53="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A53),"",("('"&amp;FragenTemplate!A53&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B53),"","'"&amp;FragenTemplate!B53&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C53,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D53&amp;"', '"&amp;FragenTemplate!E53&amp;"', '"&amp;FragenTemplate!G53&amp;"', '"&amp;FragenTemplate!I53&amp;"', '"&amp;FragenTemplate!K53&amp;"', "&amp;IF(EXACT(FragenTemplate!F53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L53,"richtig"),"true","false")&amp;",true)"&amp;IF(A53="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A53),"",("('"&amp;FragenTemplate!A53&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B53),"","'"&amp;FragenTemplate!B53&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C53,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D53&amp;"', '"&amp;FragenTemplate!E53&amp;"', '"&amp;FragenTemplate!G53&amp;"', '"&amp;FragenTemplate!I53&amp;"', '"&amp;FragenTemplate!K53&amp;"', "&amp;IF(EXACT(FragenTemplate!F53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L53,"richtig"),"true","false")&amp;",true)"&amp;IF(A54="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A54),"",("('"&amp;FragenTemplate!A54&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B54),"","'"&amp;FragenTemplate!B54&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C54,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D54&amp;"', '"&amp;FragenTemplate!E54&amp;"', '"&amp;FragenTemplate!G54&amp;"', '"&amp;FragenTemplate!I54&amp;"', '"&amp;FragenTemplate!K54&amp;"', "&amp;IF(EXACT(FragenTemplate!F54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L54,"richtig"),"true","false")&amp;",true)"&amp;IF(A54="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A54),"",("('"&amp;FragenTemplate!A54&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B54),"","'"&amp;FragenTemplate!B54&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C54,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D54&amp;"', '"&amp;FragenTemplate!E54&amp;"', '"&amp;FragenTemplate!G54&amp;"', '"&amp;FragenTemplate!I54&amp;"', '"&amp;FragenTemplate!K54&amp;"', "&amp;IF(EXACT(FragenTemplate!F54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L54,"richtig"),"true","false")&amp;",true)"&amp;IF(A55="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A55),"",("('"&amp;FragenTemplate!A55&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B55),"","'"&amp;FragenTemplate!B55&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C55,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D55&amp;"', '"&amp;FragenTemplate!E55&amp;"', '"&amp;FragenTemplate!G55&amp;"', '"&amp;FragenTemplate!I55&amp;"', '"&amp;FragenTemplate!K55&amp;"', "&amp;IF(EXACT(FragenTemplate!F55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L55,"richtig"),"true","false")&amp;",true)"&amp;IF(A55="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A55),"",("('"&amp;FragenTemplate!A55&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B55),"","'"&amp;FragenTemplate!B55&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C55,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D55&amp;"', '"&amp;FragenTemplate!E55&amp;"', '"&amp;FragenTemplate!G55&amp;"', '"&amp;FragenTemplate!I55&amp;"', '"&amp;FragenTemplate!K55&amp;"', "&amp;IF(EXACT(FragenTemplate!F55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L55,"richtig"),"true","false")&amp;",true)"&amp;IF(A56="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A56),"",("('"&amp;FragenTemplate!A56&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B56),"","'"&amp;FragenTemplate!B56&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C56,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D56&amp;"', '"&amp;FragenTemplate!E56&amp;"', '"&amp;FragenTemplate!G56&amp;"', '"&amp;FragenTemplate!I56&amp;"', '"&amp;FragenTemplate!K56&amp;"', "&amp;IF(EXACT(FragenTemplate!F56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L56,"richtig"),"true","false")&amp;",true)"&amp;IF(A56="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A56),"",("('"&amp;FragenTemplate!A56&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B56),"","'"&amp;FragenTemplate!B56&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C56,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D56&amp;"', '"&amp;FragenTemplate!E56&amp;"', '"&amp;FragenTemplate!G56&amp;"', '"&amp;FragenTemplate!I56&amp;"', '"&amp;FragenTemplate!K56&amp;"', "&amp;IF(EXACT(FragenTemplate!F56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L56,"richtig"),"true","false")&amp;",true)"&amp;IF(A57="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A57),"",("('"&amp;FragenTemplate!A57&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B57),"","'"&amp;FragenTemplate!B57&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C57,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D57&amp;"', '"&amp;FragenTemplate!E57&amp;"', '"&amp;FragenTemplate!G57&amp;"', '"&amp;FragenTemplate!I57&amp;"', '"&amp;FragenTemplate!K57&amp;"', "&amp;IF(EXACT(FragenTemplate!F57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L57,"richtig"),"true","false")&amp;",true)"&amp;IF(A57="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A57),"",("('"&amp;FragenTemplate!A57&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B57),"","'"&amp;FragenTemplate!B57&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C57,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D57&amp;"', '"&amp;FragenTemplate!E57&amp;"', '"&amp;FragenTemplate!G57&amp;"', '"&amp;FragenTemplate!I57&amp;"', '"&amp;FragenTemplate!K57&amp;"', "&amp;IF(EXACT(FragenTemplate!F57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L57,"richtig"),"true","false")&amp;",true)"&amp;IF(A58="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A58),"",("('"&amp;FragenTemplate!A58&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B58),"","'"&amp;FragenTemplate!B58&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C58,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D58&amp;"', '"&amp;FragenTemplate!E58&amp;"', '"&amp;FragenTemplate!G58&amp;"', '"&amp;FragenTemplate!I58&amp;"', '"&amp;FragenTemplate!K58&amp;"', "&amp;IF(EXACT(FragenTemplate!F58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L58,"richtig"),"true","false")&amp;",true)"&amp;IF(A58="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A58),"",("('"&amp;FragenTemplate!A58&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B58),"","'"&amp;FragenTemplate!B58&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C58,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D58&amp;"', '"&amp;FragenTemplate!E58&amp;"', '"&amp;FragenTemplate!G58&amp;"', '"&amp;FragenTemplate!I58&amp;"', '"&amp;FragenTemplate!K58&amp;"', "&amp;IF(EXACT(FragenTemplate!F58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L58,"richtig"),"true","false")&amp;",true)"&amp;IF(A59="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A59),"",("('"&amp;FragenTemplate!A59&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B59),"","'"&amp;FragenTemplate!B59&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C59,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D59&amp;"', '"&amp;FragenTemplate!E59&amp;"', '"&amp;FragenTemplate!G59&amp;"', '"&amp;FragenTemplate!I59&amp;"', '"&amp;FragenTemplate!K59&amp;"', "&amp;IF(EXACT(FragenTemplate!F59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L59,"richtig"),"true","false")&amp;",true)"&amp;IF(A59="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A59),"",("('"&amp;FragenTemplate!A59&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B59),"","'"&amp;FragenTemplate!B59&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C59,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D59&amp;"', '"&amp;FragenTemplate!E59&amp;"', '"&amp;FragenTemplate!G59&amp;"', '"&amp;FragenTemplate!I59&amp;"', '"&amp;FragenTemplate!K59&amp;"', "&amp;IF(EXACT(FragenTemplate!F59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L59,"richtig"),"true","false")&amp;",true)"&amp;IF(A60="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A60),"",("('"&amp;FragenTemplate!A60&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B60),"","'"&amp;FragenTemplate!B60&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C60,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D60&amp;"', '"&amp;FragenTemplate!E60&amp;"', '"&amp;FragenTemplate!G60&amp;"', '"&amp;FragenTemplate!I60&amp;"', '"&amp;FragenTemplate!K60&amp;"', "&amp;IF(EXACT(FragenTemplate!F60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L60,"richtig"),"true","false")&amp;",true)"&amp;IF(A60="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A60),"",("('"&amp;FragenTemplate!A60&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B60),"","'"&amp;FragenTemplate!B60&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C60,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D60&amp;"', '"&amp;FragenTemplate!E60&amp;"', '"&amp;FragenTemplate!G60&amp;"', '"&amp;FragenTemplate!I60&amp;"', '"&amp;FragenTemplate!K60&amp;"', "&amp;IF(EXACT(FragenTemplate!F60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L60,"richtig"),"true","false")&amp;",true)"&amp;IF(A61="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A61),"",("('"&amp;FragenTemplate!A61&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B61),"","'"&amp;FragenTemplate!B61&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C61,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D61&amp;"', '"&amp;FragenTemplate!E61&amp;"', '"&amp;FragenTemplate!G61&amp;"', '"&amp;FragenTemplate!I61&amp;"', '"&amp;FragenTemplate!K61&amp;"', "&amp;IF(EXACT(FragenTemplate!F61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L61,"richtig"),"true","false")&amp;",true)"&amp;IF(A61="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A61),"",("('"&amp;FragenTemplate!A61&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B61),"","'"&amp;FragenTemplate!B61&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C61,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D61&amp;"', '"&amp;FragenTemplate!E61&amp;"', '"&amp;FragenTemplate!G61&amp;"', '"&amp;FragenTemplate!I61&amp;"', '"&amp;FragenTemplate!K61&amp;"', "&amp;IF(EXACT(FragenTemplate!F61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L61,"richtig"),"true","false")&amp;",true)"&amp;IF(A62="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A62),"",("('"&amp;FragenTemplate!A62&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B62),"","'"&amp;FragenTemplate!B62&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C62,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D62&amp;"', '"&amp;FragenTemplate!E62&amp;"', '"&amp;FragenTemplate!G62&amp;"', '"&amp;FragenTemplate!I62&amp;"', '"&amp;FragenTemplate!K62&amp;"', "&amp;IF(EXACT(FragenTemplate!F62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L62,"richtig"),"true","false")&amp;",true)"&amp;IF(A62="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A62),"",("('"&amp;FragenTemplate!A62&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B62),"","'"&amp;FragenTemplate!B62&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C62,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D62&amp;"', '"&amp;FragenTemplate!E62&amp;"', '"&amp;FragenTemplate!G62&amp;"', '"&amp;FragenTemplate!I62&amp;"', '"&amp;FragenTemplate!K62&amp;"', "&amp;IF(EXACT(FragenTemplate!F62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L62,"richtig"),"true","false")&amp;",true)"&amp;IF(A63="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A63),"",("('"&amp;FragenTemplate!A63&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B63),"","'"&amp;FragenTemplate!B63&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C63,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D63&amp;"', '"&amp;FragenTemplate!E63&amp;"', '"&amp;FragenTemplate!G63&amp;"', '"&amp;FragenTemplate!I63&amp;"', '"&amp;FragenTemplate!K63&amp;"', "&amp;IF(EXACT(FragenTemplate!F63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L63,"richtig"),"true","false")&amp;",true)"&amp;IF(A63="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A63),"",("('"&amp;FragenTemplate!A63&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B63),"","'"&amp;FragenTemplate!B63&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C63,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D63&amp;"', '"&amp;FragenTemplate!E63&amp;"', '"&amp;FragenTemplate!G63&amp;"', '"&amp;FragenTemplate!I63&amp;"', '"&amp;FragenTemplate!K63&amp;"', "&amp;IF(EXACT(FragenTemplate!F63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L63,"richtig"),"true","false")&amp;",true)"&amp;IF(A64="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A64),"",("('"&amp;FragenTemplate!A64&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B64),"","'"&amp;FragenTemplate!B64&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C64,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D64&amp;"', '"&amp;FragenTemplate!E64&amp;"', '"&amp;FragenTemplate!G64&amp;"', '"&amp;FragenTemplate!I64&amp;"', '"&amp;FragenTemplate!K64&amp;"', "&amp;IF(EXACT(FragenTemplate!F64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L64,"richtig"),"true","false")&amp;",true)"&amp;IF(A64="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A64),"",("('"&amp;FragenTemplate!A64&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B64),"","'"&amp;FragenTemplate!B64&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C64,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D64&amp;"', '"&amp;FragenTemplate!E64&amp;"', '"&amp;FragenTemplate!G64&amp;"', '"&amp;FragenTemplate!I64&amp;"', '"&amp;FragenTemplate!K64&amp;"', "&amp;IF(EXACT(FragenTemplate!F64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L64,"richtig"),"true","false")&amp;",true)"&amp;IF(A65="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A65),"",("('"&amp;FragenTemplate!A65&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B65),"","'"&amp;FragenTemplate!B65&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C65,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D65&amp;"', '"&amp;FragenTemplate!E65&amp;"', '"&amp;FragenTemplate!G65&amp;"', '"&amp;FragenTemplate!I65&amp;"', '"&amp;FragenTemplate!K65&amp;"', "&amp;IF(EXACT(FragenTemplate!F65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L65,"richtig"),"true","false")&amp;",true)"&amp;IF(A65="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A65),"",("('"&amp;FragenTemplate!A65&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B65),"","'"&amp;FragenTemplate!B65&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C65,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D65&amp;"', '"&amp;FragenTemplate!E65&amp;"', '"&amp;FragenTemplate!G65&amp;"', '"&amp;FragenTemplate!I65&amp;"', '"&amp;FragenTemplate!K65&amp;"', "&amp;IF(EXACT(FragenTemplate!F65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L65,"richtig"),"true","false")&amp;",true)"&amp;IF(A66="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A66),"",("('"&amp;FragenTemplate!A66&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B66),"","'"&amp;FragenTemplate!B66&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C66,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D66&amp;"', '"&amp;FragenTemplate!E66&amp;"', '"&amp;FragenTemplate!G66&amp;"', '"&amp;FragenTemplate!I66&amp;"', '"&amp;FragenTemplate!K66&amp;"', "&amp;IF(EXACT(FragenTemplate!F66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L66,"richtig"),"true","false")&amp;",true)"&amp;IF(A66="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A66),"",("('"&amp;FragenTemplate!A66&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B66),"","'"&amp;FragenTemplate!B66&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C66,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D66&amp;"', '"&amp;FragenTemplate!E66&amp;"', '"&amp;FragenTemplate!G66&amp;"', '"&amp;FragenTemplate!I66&amp;"', '"&amp;FragenTemplate!K66&amp;"', "&amp;IF(EXACT(FragenTemplate!F66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L66,"richtig"),"true","false")&amp;",true)"&amp;IF(A67="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A67),"",("('"&amp;FragenTemplate!A67&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B67),"","'"&amp;FragenTemplate!B67&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C67,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D67&amp;"', '"&amp;FragenTemplate!E67&amp;"', '"&amp;FragenTemplate!G67&amp;"', '"&amp;FragenTemplate!I67&amp;"', '"&amp;FragenTemplate!K67&amp;"', "&amp;IF(EXACT(FragenTemplate!F67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L67,"richtig"),"true","false")&amp;",true)"&amp;IF(A67="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A67),"",("('"&amp;FragenTemplate!A67&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B67),"","'"&amp;FragenTemplate!B67&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C67,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D67&amp;"', '"&amp;FragenTemplate!E67&amp;"', '"&amp;FragenTemplate!G67&amp;"', '"&amp;FragenTemplate!I67&amp;"', '"&amp;FragenTemplate!K67&amp;"', "&amp;IF(EXACT(FragenTemplate!F67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L67,"richtig"),"true","false")&amp;",true)"&amp;IF(A68="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A68),"",("('"&amp;FragenTemplate!A68&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B68),"","'"&amp;FragenTemplate!B68&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C68,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D68&amp;"', '"&amp;FragenTemplate!E68&amp;"', '"&amp;FragenTemplate!G68&amp;"', '"&amp;FragenTemplate!I68&amp;"', '"&amp;FragenTemplate!K68&amp;"', "&amp;IF(EXACT(FragenTemplate!F68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L68,"richtig"),"true","false")&amp;",true)"&amp;IF(A68="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A68),"",("('"&amp;FragenTemplate!A68&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B68),"","'"&amp;FragenTemplate!B68&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C68,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D68&amp;"', '"&amp;FragenTemplate!E68&amp;"', '"&amp;FragenTemplate!G68&amp;"', '"&amp;FragenTemplate!I68&amp;"', '"&amp;FragenTemplate!K68&amp;"', "&amp;IF(EXACT(FragenTemplate!F68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L68,"richtig"),"true","false")&amp;",true)"&amp;IF(A69="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A69),"",("('"&amp;FragenTemplate!A69&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B69),"","'"&amp;FragenTemplate!B69&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C69,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D69&amp;"', '"&amp;FragenTemplate!E69&amp;"', '"&amp;FragenTemplate!G69&amp;"', '"&amp;FragenTemplate!I69&amp;"', '"&amp;FragenTemplate!K69&amp;"', "&amp;IF(EXACT(FragenTemplate!F69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L69,"richtig"),"true","false")&amp;",true)"&amp;IF(A69="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A69),"",("('"&amp;FragenTemplate!A69&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B69),"","'"&amp;FragenTemplate!B69&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C69,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D69&amp;"', '"&amp;FragenTemplate!E69&amp;"', '"&amp;FragenTemplate!G69&amp;"', '"&amp;FragenTemplate!I69&amp;"', '"&amp;FragenTemplate!K69&amp;"', "&amp;IF(EXACT(FragenTemplate!F69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L69,"richtig"),"true","false")&amp;",true)"&amp;IF(A70="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A70),"",("('"&amp;FragenTemplate!A70&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B70),"","'"&amp;FragenTemplate!B70&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C70,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D70&amp;"', '"&amp;FragenTemplate!E70&amp;"', '"&amp;FragenTemplate!G70&amp;"', '"&amp;FragenTemplate!I70&amp;"', '"&amp;FragenTemplate!K70&amp;"', "&amp;IF(EXACT(FragenTemplate!F70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L70,"richtig"),"true","false")&amp;",true)"&amp;IF(A70="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A70),"",("('"&amp;FragenTemplate!A70&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B70),"","'"&amp;FragenTemplate!B70&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C70,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D70&amp;"', '"&amp;FragenTemplate!E70&amp;"', '"&amp;FragenTemplate!G70&amp;"', '"&amp;FragenTemplate!I70&amp;"', '"&amp;FragenTemplate!K70&amp;"', "&amp;IF(EXACT(FragenTemplate!F70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L70,"richtig"),"true","false")&amp;",true)"&amp;IF(A71="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A71),"",("('"&amp;FragenTemplate!A71&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B71),"","'"&amp;FragenTemplate!B71&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C71,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D71&amp;"', '"&amp;FragenTemplate!E71&amp;"', '"&amp;FragenTemplate!G71&amp;"', '"&amp;FragenTemplate!I71&amp;"', '"&amp;FragenTemplate!K71&amp;"', "&amp;IF(EXACT(FragenTemplate!F71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L71,"richtig"),"true","false")&amp;",true)"&amp;IF(A71="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A71),"",("('"&amp;FragenTemplate!A71&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B71),"","'"&amp;FragenTemplate!B71&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C71,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D71&amp;"', '"&amp;FragenTemplate!E71&amp;"', '"&amp;FragenTemplate!G71&amp;"', '"&amp;FragenTemplate!I71&amp;"', '"&amp;FragenTemplate!K71&amp;"', "&amp;IF(EXACT(FragenTemplate!F71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L71,"richtig"),"true","false")&amp;",true)"&amp;IF(A72="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A72),"",("('"&amp;FragenTemplate!A72&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B72),"","'"&amp;FragenTemplate!B72&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C72,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D72&amp;"', '"&amp;FragenTemplate!E72&amp;"', '"&amp;FragenTemplate!G72&amp;"', '"&amp;FragenTemplate!I72&amp;"', '"&amp;FragenTemplate!K72&amp;"', "&amp;IF(EXACT(FragenTemplate!F72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L72,"richtig"),"true","false")&amp;",true)"&amp;IF(A72="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A72),"",("('"&amp;FragenTemplate!A72&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B72),"","'"&amp;FragenTemplate!B72&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C72,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D72&amp;"', '"&amp;FragenTemplate!E72&amp;"', '"&amp;FragenTemplate!G72&amp;"', '"&amp;FragenTemplate!I72&amp;"', '"&amp;FragenTemplate!K72&amp;"', "&amp;IF(EXACT(FragenTemplate!F72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L72,"richtig"),"true","false")&amp;",true)"&amp;IF(A73="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A73),"",("('"&amp;FragenTemplate!A73&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B73),"","'"&amp;FragenTemplate!B73&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C73,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D73&amp;"', '"&amp;FragenTemplate!E73&amp;"', '"&amp;FragenTemplate!G73&amp;"', '"&amp;FragenTemplate!I73&amp;"', '"&amp;FragenTemplate!K73&amp;"', "&amp;IF(EXACT(FragenTemplate!F73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L73,"richtig"),"true","false")&amp;",true)"&amp;IF(A73="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A73),"",("('"&amp;FragenTemplate!A73&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B73),"","'"&amp;FragenTemplate!B73&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C73,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D73&amp;"', '"&amp;FragenTemplate!E73&amp;"', '"&amp;FragenTemplate!G73&amp;"', '"&amp;FragenTemplate!I73&amp;"', '"&amp;FragenTemplate!K73&amp;"', "&amp;IF(EXACT(FragenTemplate!F73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L73,"richtig"),"true","false")&amp;",true)"&amp;IF(A74="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A74),"",("('"&amp;FragenTemplate!A74&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B74),"","'"&amp;FragenTemplate!B74&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C74,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D74&amp;"', '"&amp;FragenTemplate!E74&amp;"', '"&amp;FragenTemplate!G74&amp;"', '"&amp;FragenTemplate!I74&amp;"', '"&amp;FragenTemplate!K74&amp;"', "&amp;IF(EXACT(FragenTemplate!F74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L74,"richtig"),"true","false")&amp;",true)"&amp;IF(A74="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A74),"",("('"&amp;FragenTemplate!A74&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B74),"","'"&amp;FragenTemplate!B74&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C74,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D74&amp;"', '"&amp;FragenTemplate!E74&amp;"', '"&amp;FragenTemplate!G74&amp;"', '"&amp;FragenTemplate!I74&amp;"', '"&amp;FragenTemplate!K74&amp;"', "&amp;IF(EXACT(FragenTemplate!F74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L74,"richtig"),"true","false")&amp;",true)"&amp;IF(A75="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A75),"",("('"&amp;FragenTemplate!A75&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B75),"","'"&amp;FragenTemplate!B75&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C75,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D75&amp;"', '"&amp;FragenTemplate!E75&amp;"', '"&amp;FragenTemplate!G75&amp;"', '"&amp;FragenTemplate!I75&amp;"', '"&amp;FragenTemplate!K75&amp;"', "&amp;IF(EXACT(FragenTemplate!F75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L75,"richtig"),"true","false")&amp;",true)"&amp;IF(A75="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A75),"",("('"&amp;FragenTemplate!A75&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B75),"","'"&amp;FragenTemplate!B75&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C75,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D75&amp;"', '"&amp;FragenTemplate!E75&amp;"', '"&amp;FragenTemplate!G75&amp;"', '"&amp;FragenTemplate!I75&amp;"', '"&amp;FragenTemplate!K75&amp;"', "&amp;IF(EXACT(FragenTemplate!F75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L75,"richtig"),"true","false")&amp;",true)"&amp;IF(A76="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A76),"",("('"&amp;FragenTemplate!A76&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B76),"","'"&amp;FragenTemplate!B76&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C76,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D76&amp;"', '"&amp;FragenTemplate!E76&amp;"', '"&amp;FragenTemplate!G76&amp;"', '"&amp;FragenTemplate!I76&amp;"', '"&amp;FragenTemplate!K76&amp;"', "&amp;IF(EXACT(FragenTemplate!F76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L76,"richtig"),"true","false")&amp;",true)"&amp;IF(A76="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A76),"",("('"&amp;FragenTemplate!A76&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B76),"","'"&amp;FragenTemplate!B76&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C76,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D76&amp;"', '"&amp;FragenTemplate!E76&amp;"', '"&amp;FragenTemplate!G76&amp;"', '"&amp;FragenTemplate!I76&amp;"', '"&amp;FragenTemplate!K76&amp;"', "&amp;IF(EXACT(FragenTemplate!F76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L76,"richtig"),"true","false")&amp;",true)"&amp;IF(A77="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A77),"",("('"&amp;FragenTemplate!A77&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B77),"","'"&amp;FragenTemplate!B77&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C77,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D77&amp;"', '"&amp;FragenTemplate!E77&amp;"', '"&amp;FragenTemplate!G77&amp;"', '"&amp;FragenTemplate!I77&amp;"', '"&amp;FragenTemplate!K77&amp;"', "&amp;IF(EXACT(FragenTemplate!F77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L77,"richtig"),"true","false")&amp;",true)"&amp;IF(A77="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A77),"",("('"&amp;FragenTemplate!A77&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B77),"","'"&amp;FragenTemplate!B77&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C77,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D77&amp;"', '"&amp;FragenTemplate!E77&amp;"', '"&amp;FragenTemplate!G77&amp;"', '"&amp;FragenTemplate!I77&amp;"', '"&amp;FragenTemplate!K77&amp;"', "&amp;IF(EXACT(FragenTemplate!F77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L77,"richtig"),"true","false")&amp;",true)"&amp;IF(A78="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A78),"",("('"&amp;FragenTemplate!A78&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B78),"","'"&amp;FragenTemplate!B78&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C78,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D78&amp;"', '"&amp;FragenTemplate!E78&amp;"', '"&amp;FragenTemplate!G78&amp;"', '"&amp;FragenTemplate!I78&amp;"', '"&amp;FragenTemplate!K78&amp;"', "&amp;IF(EXACT(FragenTemplate!F78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L78,"richtig"),"true","false")&amp;",true)"&amp;IF(A78="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A78),"",("('"&amp;FragenTemplate!A78&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B78),"","'"&amp;FragenTemplate!B78&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C78,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D78&amp;"', '"&amp;FragenTemplate!E78&amp;"', '"&amp;FragenTemplate!G78&amp;"', '"&amp;FragenTemplate!I78&amp;"', '"&amp;FragenTemplate!K78&amp;"', "&amp;IF(EXACT(FragenTemplate!F78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L78,"richtig"),"true","false")&amp;",true)"&amp;IF(A79="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A79),"",("('"&amp;FragenTemplate!A79&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B79),"","'"&amp;FragenTemplate!B79&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C79,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D79&amp;"', '"&amp;FragenTemplate!E79&amp;"', '"&amp;FragenTemplate!G79&amp;"', '"&amp;FragenTemplate!I79&amp;"', '"&amp;FragenTemplate!K79&amp;"', "&amp;IF(EXACT(FragenTemplate!F79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L79,"richtig"),"true","false")&amp;",true)"&amp;IF(A79="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A79),"",("('"&amp;FragenTemplate!A79&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B79),"","'"&amp;FragenTemplate!B79&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C79,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D79&amp;"', '"&amp;FragenTemplate!E79&amp;"', '"&amp;FragenTemplate!G79&amp;"', '"&amp;FragenTemplate!I79&amp;"', '"&amp;FragenTemplate!K79&amp;"', "&amp;IF(EXACT(FragenTemplate!F79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L79,"richtig"),"true","false")&amp;",true)"&amp;IF(A80="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A80),"",("('"&amp;FragenTemplate!A80&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B80),"","'"&amp;FragenTemplate!B80&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C80,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D80&amp;"', '"&amp;FragenTemplate!E80&amp;"', '"&amp;FragenTemplate!G80&amp;"', '"&amp;FragenTemplate!I80&amp;"', '"&amp;FragenTemplate!K80&amp;"', "&amp;IF(EXACT(FragenTemplate!F80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L80,"richtig"),"true","false")&amp;",true)"&amp;IF(A80="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A80),"",("('"&amp;FragenTemplate!A80&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B80),"","'"&amp;FragenTemplate!B80&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C80,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D80&amp;"', '"&amp;FragenTemplate!E80&amp;"', '"&amp;FragenTemplate!G80&amp;"', '"&amp;FragenTemplate!I80&amp;"', '"&amp;FragenTemplate!K80&amp;"', "&amp;IF(EXACT(FragenTemplate!F80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L80,"richtig"),"true","false")&amp;",true)"&amp;IF(A81="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A81),"",("('"&amp;FragenTemplate!A81&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B81),"","'"&amp;FragenTemplate!B81&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C81,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D81&amp;"', '"&amp;FragenTemplate!E81&amp;"', '"&amp;FragenTemplate!G81&amp;"', '"&amp;FragenTemplate!I81&amp;"', '"&amp;FragenTemplate!K81&amp;"', "&amp;IF(EXACT(FragenTemplate!F81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L81,"richtig"),"true","false")&amp;",true)"&amp;IF(A81="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A81),"",("('"&amp;FragenTemplate!A81&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B81),"","'"&amp;FragenTemplate!B81&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C81,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D81&amp;"', '"&amp;FragenTemplate!E81&amp;"', '"&amp;FragenTemplate!G81&amp;"', '"&amp;FragenTemplate!I81&amp;"', '"&amp;FragenTemplate!K81&amp;"', "&amp;IF(EXACT(FragenTemplate!F81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L81,"richtig"),"true","false")&amp;",true)"&amp;IF(A82="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A82),"",("('"&amp;FragenTemplate!A82&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B82),"","'"&amp;FragenTemplate!B82&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C82,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D82&amp;"', '"&amp;FragenTemplate!E82&amp;"', '"&amp;FragenTemplate!G82&amp;"', '"&amp;FragenTemplate!I82&amp;"', '"&amp;FragenTemplate!K82&amp;"', "&amp;IF(EXACT(FragenTemplate!F82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L82,"richtig"),"true","false")&amp;",true)"&amp;IF(A82="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A82),"",("('"&amp;FragenTemplate!A82&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B82),"","'"&amp;FragenTemplate!B82&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C82,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D82&amp;"', '"&amp;FragenTemplate!E82&amp;"', '"&amp;FragenTemplate!G82&amp;"', '"&amp;FragenTemplate!I82&amp;"', '"&amp;FragenTemplate!K82&amp;"', "&amp;IF(EXACT(FragenTemplate!F82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L82,"richtig"),"true","false")&amp;",true)"&amp;IF(A83="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A83),"",("('"&amp;FragenTemplate!A83&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B83),"","'"&amp;FragenTemplate!B83&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C83,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D83&amp;"', '"&amp;FragenTemplate!E83&amp;"', '"&amp;FragenTemplate!G83&amp;"', '"&amp;FragenTemplate!I83&amp;"', '"&amp;FragenTemplate!K83&amp;"', "&amp;IF(EXACT(FragenTemplate!F83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L83,"richtig"),"true","false")&amp;",true)"&amp;IF(A83="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A83),"",("('"&amp;FragenTemplate!A83&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B83),"","'"&amp;FragenTemplate!B83&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C83,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D83&amp;"', '"&amp;FragenTemplate!E83&amp;"', '"&amp;FragenTemplate!G83&amp;"', '"&amp;FragenTemplate!I83&amp;"', '"&amp;FragenTemplate!K83&amp;"', "&amp;IF(EXACT(FragenTemplate!F83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L83,"richtig"),"true","false")&amp;",true)"&amp;IF(A84="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A84),"",("('"&amp;FragenTemplate!A84&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B84),"","'"&amp;FragenTemplate!B84&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C84,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D84&amp;"', '"&amp;FragenTemplate!E84&amp;"', '"&amp;FragenTemplate!G84&amp;"', '"&amp;FragenTemplate!I84&amp;"', '"&amp;FragenTemplate!K84&amp;"', "&amp;IF(EXACT(FragenTemplate!F84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L84,"richtig"),"true","false")&amp;",true)"&amp;IF(A84="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A84),"",("('"&amp;FragenTemplate!A84&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B84),"","'"&amp;FragenTemplate!B84&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C84,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D84&amp;"', '"&amp;FragenTemplate!E84&amp;"', '"&amp;FragenTemplate!G84&amp;"', '"&amp;FragenTemplate!I84&amp;"', '"&amp;FragenTemplate!K84&amp;"', "&amp;IF(EXACT(FragenTemplate!F84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L84,"richtig"),"true","false")&amp;",true)"&amp;IF(A85="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A85),"",("('"&amp;FragenTemplate!A85&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B85),"","'"&amp;FragenTemplate!B85&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C85,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D85&amp;"', '"&amp;FragenTemplate!E85&amp;"', '"&amp;FragenTemplate!G85&amp;"', '"&amp;FragenTemplate!I85&amp;"', '"&amp;FragenTemplate!K85&amp;"', "&amp;IF(EXACT(FragenTemplate!F85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L85,"richtig"),"true","false")&amp;",true)"&amp;IF(A85="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A85),"",("('"&amp;FragenTemplate!A85&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B85),"","'"&amp;FragenTemplate!B85&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C85,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D85&amp;"', '"&amp;FragenTemplate!E85&amp;"', '"&amp;FragenTemplate!G85&amp;"', '"&amp;FragenTemplate!I85&amp;"', '"&amp;FragenTemplate!K85&amp;"', "&amp;IF(EXACT(FragenTemplate!F85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L85,"richtig"),"true","false")&amp;",true)"&amp;IF(A86="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A86),"",("('"&amp;FragenTemplate!A86&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B86),"","'"&amp;FragenTemplate!B86&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C86,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D86&amp;"', '"&amp;FragenTemplate!E86&amp;"', '"&amp;FragenTemplate!G86&amp;"', '"&amp;FragenTemplate!I86&amp;"', '"&amp;FragenTemplate!K86&amp;"', "&amp;IF(EXACT(FragenTemplate!F86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L86,"richtig"),"true","false")&amp;",true)"&amp;IF(A86="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A86),"",("('"&amp;FragenTemplate!A86&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B86),"","'"&amp;FragenTemplate!B86&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C86,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D86&amp;"', '"&amp;FragenTemplate!E86&amp;"', '"&amp;FragenTemplate!G86&amp;"', '"&amp;FragenTemplate!I86&amp;"', '"&amp;FragenTemplate!K86&amp;"', "&amp;IF(EXACT(FragenTemplate!F86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L86,"richtig"),"true","false")&amp;",true)"&amp;IF(A87="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A87),"",("('"&amp;FragenTemplate!A87&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B87),"","'"&amp;FragenTemplate!B87&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C87,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D87&amp;"', '"&amp;FragenTemplate!E87&amp;"', '"&amp;FragenTemplate!G87&amp;"', '"&amp;FragenTemplate!I87&amp;"', '"&amp;FragenTemplate!K87&amp;"', "&amp;IF(EXACT(FragenTemplate!F87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L87,"richtig"),"true","false")&amp;",true)"&amp;IF(A87="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A87),"",("('"&amp;FragenTemplate!A87&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B87),"","'"&amp;FragenTemplate!B87&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C87,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D87&amp;"', '"&amp;FragenTemplate!E87&amp;"', '"&amp;FragenTemplate!G87&amp;"', '"&amp;FragenTemplate!I87&amp;"', '"&amp;FragenTemplate!K87&amp;"', "&amp;IF(EXACT(FragenTemplate!F87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L87,"richtig"),"true","false")&amp;",true)"&amp;IF(A88="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A88),"",("('"&amp;FragenTemplate!A88&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B88),"","'"&amp;FragenTemplate!B88&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C88,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D88&amp;"', '"&amp;FragenTemplate!E88&amp;"', '"&amp;FragenTemplate!G88&amp;"', '"&amp;FragenTemplate!I88&amp;"', '"&amp;FragenTemplate!K88&amp;"', "&amp;IF(EXACT(FragenTemplate!F88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L88,"richtig"),"true","false")&amp;",true)"&amp;IF(A88="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A88),"",("('"&amp;FragenTemplate!A88&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B88),"","'"&amp;FragenTemplate!B88&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C88,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D88&amp;"', '"&amp;FragenTemplate!E88&amp;"', '"&amp;FragenTemplate!G88&amp;"', '"&amp;FragenTemplate!I88&amp;"', '"&amp;FragenTemplate!K88&amp;"', "&amp;IF(EXACT(FragenTemplate!F88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L88,"richtig"),"true","false")&amp;",true)"&amp;IF(A89="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A89),"",("('"&amp;FragenTemplate!A89&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B89),"","'"&amp;FragenTemplate!B89&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C89,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D89&amp;"', '"&amp;FragenTemplate!E89&amp;"', '"&amp;FragenTemplate!G89&amp;"', '"&amp;FragenTemplate!I89&amp;"', '"&amp;FragenTemplate!K89&amp;"', "&amp;IF(EXACT(FragenTemplate!F89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L89,"richtig"),"true","false")&amp;",true)"&amp;IF(A89="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A89),"",("('"&amp;FragenTemplate!A89&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B89),"","'"&amp;FragenTemplate!B89&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C89,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D89&amp;"', '"&amp;FragenTemplate!E89&amp;"', '"&amp;FragenTemplate!G89&amp;"', '"&amp;FragenTemplate!I89&amp;"', '"&amp;FragenTemplate!K89&amp;"', "&amp;IF(EXACT(FragenTemplate!F89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L89,"richtig"),"true","false")&amp;",true)"&amp;IF(A90="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A90),"",("('"&amp;FragenTemplate!A90&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B90),"","'"&amp;FragenTemplate!B90&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C90,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D90&amp;"', '"&amp;FragenTemplate!E90&amp;"', '"&amp;FragenTemplate!G90&amp;"', '"&amp;FragenTemplate!I90&amp;"', '"&amp;FragenTemplate!K90&amp;"', "&amp;IF(EXACT(FragenTemplate!F90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L90,"richtig"),"true","false")&amp;",true)"&amp;IF(A90="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A90),"",("('"&amp;FragenTemplate!A90&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B90),"","'"&amp;FragenTemplate!B90&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C90,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D90&amp;"', '"&amp;FragenTemplate!E90&amp;"', '"&amp;FragenTemplate!G90&amp;"', '"&amp;FragenTemplate!I90&amp;"', '"&amp;FragenTemplate!K90&amp;"', "&amp;IF(EXACT(FragenTemplate!F90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L90,"richtig"),"true","false")&amp;",true)"&amp;IF(A91="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A91),"",("('"&amp;FragenTemplate!A91&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B91),"","'"&amp;FragenTemplate!B91&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C91,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D91&amp;"', '"&amp;FragenTemplate!E91&amp;"', '"&amp;FragenTemplate!G91&amp;"', '"&amp;FragenTemplate!I91&amp;"', '"&amp;FragenTemplate!K91&amp;"', "&amp;IF(EXACT(FragenTemplate!F91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L91,"richtig"),"true","false")&amp;",true)"&amp;IF(A91="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A91),"",("('"&amp;FragenTemplate!A91&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B91),"","'"&amp;FragenTemplate!B91&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C91,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D91&amp;"', '"&amp;FragenTemplate!E91&amp;"', '"&amp;FragenTemplate!G91&amp;"', '"&amp;FragenTemplate!I91&amp;"', '"&amp;FragenTemplate!K91&amp;"', "&amp;IF(EXACT(FragenTemplate!F91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L91,"richtig"),"true","false")&amp;",true)"&amp;IF(A92="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A92),"",("('"&amp;FragenTemplate!A92&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B92),"","'"&amp;FragenTemplate!B92&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C92,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D92&amp;"', '"&amp;FragenTemplate!E92&amp;"', '"&amp;FragenTemplate!G92&amp;"', '"&amp;FragenTemplate!I92&amp;"', '"&amp;FragenTemplate!K92&amp;"', "&amp;IF(EXACT(FragenTemplate!F92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L92,"richtig"),"true","false")&amp;",true)"&amp;IF(A92="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A92),"",("('"&amp;FragenTemplate!A92&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B92),"","'"&amp;FragenTemplate!B92&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C92,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D92&amp;"', '"&amp;FragenTemplate!E92&amp;"', '"&amp;FragenTemplate!G92&amp;"', '"&amp;FragenTemplate!I92&amp;"', '"&amp;FragenTemplate!K92&amp;"', "&amp;IF(EXACT(FragenTemplate!F92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L92,"richtig"),"true","false")&amp;",true)"&amp;IF(A93="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A93),"",("('"&amp;FragenTemplate!A93&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B93),"","'"&amp;FragenTemplate!B93&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C93,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D93&amp;"', '"&amp;FragenTemplate!E93&amp;"', '"&amp;FragenTemplate!G93&amp;"', '"&amp;FragenTemplate!I93&amp;"', '"&amp;FragenTemplate!K93&amp;"', "&amp;IF(EXACT(FragenTemplate!F93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L93,"richtig"),"true","false")&amp;",true)"&amp;IF(A93="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A93),"",("('"&amp;FragenTemplate!A93&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B93),"","'"&amp;FragenTemplate!B93&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C93,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D93&amp;"', '"&amp;FragenTemplate!E93&amp;"', '"&amp;FragenTemplate!G93&amp;"', '"&amp;FragenTemplate!I93&amp;"', '"&amp;FragenTemplate!K93&amp;"', "&amp;IF(EXACT(FragenTemplate!F93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L93,"richtig"),"true","false")&amp;",true)"&amp;IF(A94="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A94),"",("('"&amp;FragenTemplate!A94&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B94),"","'"&amp;FragenTemplate!B94&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C94,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D94&amp;"', '"&amp;FragenTemplate!E94&amp;"', '"&amp;FragenTemplate!G94&amp;"', '"&amp;FragenTemplate!I94&amp;"', '"&amp;FragenTemplate!K94&amp;"', "&amp;IF(EXACT(FragenTemplate!F94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L94,"richtig"),"true","false")&amp;",true)"&amp;IF(A94="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A94),"",("('"&amp;FragenTemplate!A94&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B94),"","'"&amp;FragenTemplate!B94&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C94,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D94&amp;"', '"&amp;FragenTemplate!E94&amp;"', '"&amp;FragenTemplate!G94&amp;"', '"&amp;FragenTemplate!I94&amp;"', '"&amp;FragenTemplate!K94&amp;"', "&amp;IF(EXACT(FragenTemplate!F94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L94,"richtig"),"true","false")&amp;",true)"&amp;IF(A95="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A95),"",("('"&amp;FragenTemplate!A95&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B95),"","'"&amp;FragenTemplate!B95&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C95,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D95&amp;"', '"&amp;FragenTemplate!E95&amp;"', '"&amp;FragenTemplate!G95&amp;"', '"&amp;FragenTemplate!I95&amp;"', '"&amp;FragenTemplate!K95&amp;"', "&amp;IF(EXACT(FragenTemplate!F95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L95,"richtig"),"true","false")&amp;",true)"&amp;IF(A95="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A95),"",("('"&amp;FragenTemplate!A95&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B95),"","'"&amp;FragenTemplate!B95&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C95,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D95&amp;"', '"&amp;FragenTemplate!E95&amp;"', '"&amp;FragenTemplate!G95&amp;"', '"&amp;FragenTemplate!I95&amp;"', '"&amp;FragenTemplate!K95&amp;"', "&amp;IF(EXACT(FragenTemplate!F95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L95,"richtig"),"true","false")&amp;",true)"&amp;IF(A96="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A96),"",("('"&amp;FragenTemplate!A96&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B96),"","'"&amp;FragenTemplate!B96&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C96,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D96&amp;"', '"&amp;FragenTemplate!E96&amp;"', '"&amp;FragenTemplate!G96&amp;"', '"&amp;FragenTemplate!I96&amp;"', '"&amp;FragenTemplate!K96&amp;"', "&amp;IF(EXACT(FragenTemplate!F96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L96,"richtig"),"true","false")&amp;",true)"&amp;IF(A96="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A96),"",("('"&amp;FragenTemplate!A96&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B96),"","'"&amp;FragenTemplate!B96&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C96,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D96&amp;"', '"&amp;FragenTemplate!E96&amp;"', '"&amp;FragenTemplate!G96&amp;"', '"&amp;FragenTemplate!I96&amp;"', '"&amp;FragenTemplate!K96&amp;"', "&amp;IF(EXACT(FragenTemplate!F96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L96,"richtig"),"true","false")&amp;",true)"&amp;IF(A97="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A97),"",("('"&amp;FragenTemplate!A97&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B97),"","'"&amp;FragenTemplate!B97&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C97,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D97&amp;"', '"&amp;FragenTemplate!E97&amp;"', '"&amp;FragenTemplate!G97&amp;"', '"&amp;FragenTemplate!I97&amp;"', '"&amp;FragenTemplate!K97&amp;"', "&amp;IF(EXACT(FragenTemplate!F97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L97,"richtig"),"true","false")&amp;",true)"&amp;IF(A97="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A97),"",("('"&amp;FragenTemplate!A97&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B97),"","'"&amp;FragenTemplate!B97&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C97,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D97&amp;"', '"&amp;FragenTemplate!E97&amp;"', '"&amp;FragenTemplate!G97&amp;"', '"&amp;FragenTemplate!I97&amp;"', '"&amp;FragenTemplate!K97&amp;"', "&amp;IF(EXACT(FragenTemplate!F97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L97,"richtig"),"true","false")&amp;",true)"&amp;IF(A98="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A98),"",("('"&amp;FragenTemplate!A98&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B98),"","'"&amp;FragenTemplate!B98&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C98,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D98&amp;"', '"&amp;FragenTemplate!E98&amp;"', '"&amp;FragenTemplate!G98&amp;"', '"&amp;FragenTemplate!I98&amp;"', '"&amp;FragenTemplate!K98&amp;"', "&amp;IF(EXACT(FragenTemplate!F98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L98,"richtig"),"true","false")&amp;",true)"&amp;IF(A98="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A98),"",("('"&amp;FragenTemplate!A98&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B98),"","'"&amp;FragenTemplate!B98&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C98,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D98&amp;"', '"&amp;FragenTemplate!E98&amp;"', '"&amp;FragenTemplate!G98&amp;"', '"&amp;FragenTemplate!I98&amp;"', '"&amp;FragenTemplate!K98&amp;"', "&amp;IF(EXACT(FragenTemplate!F98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L98,"richtig"),"true","false")&amp;",true)"&amp;IF(A99="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A99),"",("('"&amp;FragenTemplate!A99&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B99),"","'"&amp;FragenTemplate!B99&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C99,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D99&amp;"', '"&amp;FragenTemplate!E99&amp;"', '"&amp;FragenTemplate!G99&amp;"', '"&amp;FragenTemplate!I99&amp;"', '"&amp;FragenTemplate!K99&amp;"', "&amp;IF(EXACT(FragenTemplate!F99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L99,"richtig"),"true","false")&amp;",true)"&amp;IF(A99="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A99),"",("('"&amp;FragenTemplate!A99&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B99),"","'"&amp;FragenTemplate!B99&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C99,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D99&amp;"', '"&amp;FragenTemplate!E99&amp;"', '"&amp;FragenTemplate!G99&amp;"', '"&amp;FragenTemplate!I99&amp;"', '"&amp;FragenTemplate!K99&amp;"', "&amp;IF(EXACT(FragenTemplate!F99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L99,"richtig"),"true","false")&amp;",true)"&amp;IF(A100="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A100),"",("('"&amp;FragenTemplate!A100&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B100),"","'"&amp;FragenTemplate!B100&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C100,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D100&amp;"', '"&amp;FragenTemplate!E100&amp;"', '"&amp;FragenTemplate!G100&amp;"', '"&amp;FragenTemplate!I100&amp;"', '"&amp;FragenTemplate!K100&amp;"', "&amp;IF(EXACT(FragenTemplate!F100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L100,"richtig"),"true","false")&amp;",true)"&amp;IF(A100="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A100),"",("('"&amp;FragenTemplate!A100&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B100),"","'"&amp;FragenTemplate!B100&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C100,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D100&amp;"', '"&amp;FragenTemplate!E100&amp;"', '"&amp;FragenTemplate!G100&amp;"', '"&amp;FragenTemplate!I100&amp;"', '"&amp;FragenTemplate!K100&amp;"', "&amp;IF(EXACT(FragenTemplate!F100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L100,"richtig"),"true","false")&amp;",true)"&amp;IF(A101="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A101),"",("('"&amp;FragenTemplate!A101&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B101),"","'"&amp;FragenTemplate!B101&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C101,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D101&amp;"', '"&amp;FragenTemplate!E101&amp;"', '"&amp;FragenTemplate!G101&amp;"', '"&amp;FragenTemplate!I101&amp;"', '"&amp;FragenTemplate!K101&amp;"', "&amp;IF(EXACT(FragenTemplate!F101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L101,"richtig"),"true","false")&amp;",true)"&amp;IF(A101="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A101),"",("('"&amp;FragenTemplate!A101&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B101),"","'"&amp;FragenTemplate!B101&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C101,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D101&amp;"', '"&amp;FragenTemplate!E101&amp;"', '"&amp;FragenTemplate!G101&amp;"', '"&amp;FragenTemplate!I101&amp;"', '"&amp;FragenTemplate!K101&amp;"', "&amp;IF(EXACT(FragenTemplate!F101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L101,"richtig"),"true","false")&amp;",true)"&amp;IF(A102="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A102),"",("('"&amp;FragenTemplate!A102&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B102),"","'"&amp;FragenTemplate!B102&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C102,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D102&amp;"', '"&amp;FragenTemplate!E102&amp;"', '"&amp;FragenTemplate!G102&amp;"', '"&amp;FragenTemplate!I102&amp;"', '"&amp;FragenTemplate!K102&amp;"', "&amp;IF(EXACT(FragenTemplate!F102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L102,"richtig"),"true","false")&amp;",true)"&amp;IF(A102="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A102),"",("('"&amp;FragenTemplate!A102&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B102),"","'"&amp;FragenTemplate!B102&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C102,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D102&amp;"', '"&amp;FragenTemplate!E102&amp;"', '"&amp;FragenTemplate!G102&amp;"', '"&amp;FragenTemplate!I102&amp;"', '"&amp;FragenTemplate!K102&amp;"', "&amp;IF(EXACT(FragenTemplate!F102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L102,"richtig"),"true","false")&amp;",true)"&amp;IF(A103="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A103),"",("('"&amp;FragenTemplate!A103&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B103),"","'"&amp;FragenTemplate!B103&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C103,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D103&amp;"', '"&amp;FragenTemplate!E103&amp;"', '"&amp;FragenTemplate!G103&amp;"', '"&amp;FragenTemplate!I103&amp;"', '"&amp;FragenTemplate!K103&amp;"', "&amp;IF(EXACT(FragenTemplate!F103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L103,"richtig"),"true","false")&amp;",true)"&amp;IF(A103="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A103),"",("('"&amp;FragenTemplate!A103&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B103),"","'"&amp;FragenTemplate!B103&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C103,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D103&amp;"', '"&amp;FragenTemplate!E103&amp;"', '"&amp;FragenTemplate!G103&amp;"', '"&amp;FragenTemplate!I103&amp;"', '"&amp;FragenTemplate!K103&amp;"', "&amp;IF(EXACT(FragenTemplate!F103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L103,"richtig"),"true","false")&amp;",true)"&amp;IF(A104="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A104),"",("('"&amp;FragenTemplate!A104&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B104),"","'"&amp;FragenTemplate!B104&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C104,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D104&amp;"', '"&amp;FragenTemplate!E104&amp;"', '"&amp;FragenTemplate!G104&amp;"', '"&amp;FragenTemplate!I104&amp;"', '"&amp;FragenTemplate!K104&amp;"', "&amp;IF(EXACT(FragenTemplate!F104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L104,"richtig"),"true","false")&amp;",true)"&amp;IF(A104="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A104),"",("('"&amp;FragenTemplate!A104&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B104),"","'"&amp;FragenTemplate!B104&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C104,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D104&amp;"', '"&amp;FragenTemplate!E104&amp;"', '"&amp;FragenTemplate!G104&amp;"', '"&amp;FragenTemplate!I104&amp;"', '"&amp;FragenTemplate!K104&amp;"', "&amp;IF(EXACT(FragenTemplate!F104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L104,"richtig"),"true","false")&amp;",true)"&amp;IF(A105="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A105),"",("('"&amp;FragenTemplate!A105&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B105),"","'"&amp;FragenTemplate!B105&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C105,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D105&amp;"', '"&amp;FragenTemplate!E105&amp;"', '"&amp;FragenTemplate!G105&amp;"', '"&amp;FragenTemplate!I105&amp;"', '"&amp;FragenTemplate!K105&amp;"', "&amp;IF(EXACT(FragenTemplate!F105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L105,"richtig"),"true","false")&amp;",true)"&amp;IF(A105="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A105),"",("('"&amp;FragenTemplate!A105&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B105),"","'"&amp;FragenTemplate!B105&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C105,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D105&amp;"', '"&amp;FragenTemplate!E105&amp;"', '"&amp;FragenTemplate!G105&amp;"', '"&amp;FragenTemplate!I105&amp;"', '"&amp;FragenTemplate!K105&amp;"', "&amp;IF(EXACT(FragenTemplate!F105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L105,"richtig"),"true","false")&amp;",true)"&amp;IF(A106="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A106),"",("('"&amp;FragenTemplate!A106&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B106),"","'"&amp;FragenTemplate!B106&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C106,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D106&amp;"', '"&amp;FragenTemplate!E106&amp;"', '"&amp;FragenTemplate!G106&amp;"', '"&amp;FragenTemplate!I106&amp;"', '"&amp;FragenTemplate!K106&amp;"', "&amp;IF(EXACT(FragenTemplate!F106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L106,"richtig"),"true","false")&amp;",true)"&amp;IF(A106="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A106),"",("('"&amp;FragenTemplate!A106&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B106),"","'"&amp;FragenTemplate!B106&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C106,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D106&amp;"', '"&amp;FragenTemplate!E106&amp;"', '"&amp;FragenTemplate!G106&amp;"', '"&amp;FragenTemplate!I106&amp;"', '"&amp;FragenTemplate!K106&amp;"', "&amp;IF(EXACT(FragenTemplate!F106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L106,"richtig"),"true","false")&amp;",true)"&amp;IF(A107="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A107),"",("('"&amp;FragenTemplate!A107&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B107),"","'"&amp;FragenTemplate!B107&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C107,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D107&amp;"', '"&amp;FragenTemplate!E107&amp;"', '"&amp;FragenTemplate!G107&amp;"', '"&amp;FragenTemplate!I107&amp;"', '"&amp;FragenTemplate!K107&amp;"', "&amp;IF(EXACT(FragenTemplate!F107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L107,"richtig"),"true","false")&amp;",true)"&amp;IF(A107="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A107),"",("('"&amp;FragenTemplate!A107&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B107),"","'"&amp;FragenTemplate!B107&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C107,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D107&amp;"', '"&amp;FragenTemplate!E107&amp;"', '"&amp;FragenTemplate!G107&amp;"', '"&amp;FragenTemplate!I107&amp;"', '"&amp;FragenTemplate!K107&amp;"', "&amp;IF(EXACT(FragenTemplate!F107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L107,"richtig"),"true","false")&amp;",true)"&amp;IF(A108="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A108),"",("('"&amp;FragenTemplate!A108&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B108),"","'"&amp;FragenTemplate!B108&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C108,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D108&amp;"', '"&amp;FragenTemplate!E108&amp;"', '"&amp;FragenTemplate!G108&amp;"', '"&amp;FragenTemplate!I108&amp;"', '"&amp;FragenTemplate!K108&amp;"', "&amp;IF(EXACT(FragenTemplate!F108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L108,"richtig"),"true","false")&amp;",true)"&amp;IF(A108="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A108),"",("('"&amp;FragenTemplate!A108&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B108),"","'"&amp;FragenTemplate!B108&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C108,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D108&amp;"', '"&amp;FragenTemplate!E108&amp;"', '"&amp;FragenTemplate!G108&amp;"', '"&amp;FragenTemplate!I108&amp;"', '"&amp;FragenTemplate!K108&amp;"', "&amp;IF(EXACT(FragenTemplate!F108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L108,"richtig"),"true","false")&amp;",true)"&amp;IF(A109="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A109),"",("('"&amp;FragenTemplate!A109&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B109),"","'"&amp;FragenTemplate!B109&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C109,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D109&amp;"', '"&amp;FragenTemplate!E109&amp;"', '"&amp;FragenTemplate!G109&amp;"', '"&amp;FragenTemplate!I109&amp;"', '"&amp;FragenTemplate!K109&amp;"', "&amp;IF(EXACT(FragenTemplate!F109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L109,"richtig"),"true","false")&amp;",true)"&amp;IF(A109="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A109),"",("('"&amp;FragenTemplate!A109&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B109),"","'"&amp;FragenTemplate!B109&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C109,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D109&amp;"', '"&amp;FragenTemplate!E109&amp;"', '"&amp;FragenTemplate!G109&amp;"', '"&amp;FragenTemplate!I109&amp;"', '"&amp;FragenTemplate!K109&amp;"', "&amp;IF(EXACT(FragenTemplate!F109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L109,"richtig"),"true","false")&amp;",true)"&amp;IF(A110="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A110),"",("('"&amp;FragenTemplate!A110&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B110),"","'"&amp;FragenTemplate!B110&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C110,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D110&amp;"', '"&amp;FragenTemplate!E110&amp;"', '"&amp;FragenTemplate!G110&amp;"', '"&amp;FragenTemplate!I110&amp;"', '"&amp;FragenTemplate!K110&amp;"', "&amp;IF(EXACT(FragenTemplate!F110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L110,"richtig"),"true","false")&amp;",true)"&amp;IF(A110="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A110),"",("('"&amp;FragenTemplate!A110&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B110),"","'"&amp;FragenTemplate!B110&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C110,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D110&amp;"', '"&amp;FragenTemplate!E110&amp;"', '"&amp;FragenTemplate!G110&amp;"', '"&amp;FragenTemplate!I110&amp;"', '"&amp;FragenTemplate!K110&amp;"', "&amp;IF(EXACT(FragenTemplate!F110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L110,"richtig"),"true","false")&amp;",true)"&amp;IF(A111="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A111),"",("('"&amp;FragenTemplate!A111&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B111),"","'"&amp;FragenTemplate!B111&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C111,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D111&amp;"', '"&amp;FragenTemplate!E111&amp;"', '"&amp;FragenTemplate!G111&amp;"', '"&amp;FragenTemplate!I111&amp;"', '"&amp;FragenTemplate!K111&amp;"', "&amp;IF(EXACT(FragenTemplate!F111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L111,"richtig"),"true","false")&amp;",true)"&amp;IF(A111="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A111),"",("('"&amp;FragenTemplate!A111&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B111),"","'"&amp;FragenTemplate!B111&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C111,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D111&amp;"', '"&amp;FragenTemplate!E111&amp;"', '"&amp;FragenTemplate!G111&amp;"', '"&amp;FragenTemplate!I111&amp;"', '"&amp;FragenTemplate!K111&amp;"', "&amp;IF(EXACT(FragenTemplate!F111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L111,"richtig"),"true","false")&amp;",true)"&amp;IF(A112="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A112),"",("('"&amp;FragenTemplate!A112&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B112),"","'"&amp;FragenTemplate!B112&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C112,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D112&amp;"', '"&amp;FragenTemplate!E112&amp;"', '"&amp;FragenTemplate!G112&amp;"', '"&amp;FragenTemplate!I112&amp;"', '"&amp;FragenTemplate!K112&amp;"', "&amp;IF(EXACT(FragenTemplate!F112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L112,"richtig"),"true","false")&amp;",true)"&amp;IF(A112="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A112),"",("('"&amp;FragenTemplate!A112&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B112),"","'"&amp;FragenTemplate!B112&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C112,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D112&amp;"', '"&amp;FragenTemplate!E112&amp;"', '"&amp;FragenTemplate!G112&amp;"', '"&amp;FragenTemplate!I112&amp;"', '"&amp;FragenTemplate!K112&amp;"', "&amp;IF(EXACT(FragenTemplate!F112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L112,"richtig"),"true","false")&amp;",true)"&amp;IF(A113="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A113),"",("('"&amp;FragenTemplate!A113&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B113),"","'"&amp;FragenTemplate!B113&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C113,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D113&amp;"', '"&amp;FragenTemplate!E113&amp;"', '"&amp;FragenTemplate!G113&amp;"', '"&amp;FragenTemplate!I113&amp;"', '"&amp;FragenTemplate!K113&amp;"', "&amp;IF(EXACT(FragenTemplate!F113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L113,"richtig"),"true","false")&amp;",true)"&amp;IF(A113="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A113),"",("('"&amp;FragenTemplate!A113&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B113),"","'"&amp;FragenTemplate!B113&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C113,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D113&amp;"', '"&amp;FragenTemplate!E113&amp;"', '"&amp;FragenTemplate!G113&amp;"', '"&amp;FragenTemplate!I113&amp;"', '"&amp;FragenTemplate!K113&amp;"', "&amp;IF(EXACT(FragenTemplate!F113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L113,"richtig"),"true","false")&amp;",true)"&amp;IF(A114="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A114),"",("('"&amp;FragenTemplate!A114&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B114),"","'"&amp;FragenTemplate!B114&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C114,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D114&amp;"', '"&amp;FragenTemplate!E114&amp;"', '"&amp;FragenTemplate!G114&amp;"', '"&amp;FragenTemplate!I114&amp;"', '"&amp;FragenTemplate!K114&amp;"', "&amp;IF(EXACT(FragenTemplate!F114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L114,"richtig"),"true","false")&amp;",true)"&amp;IF(A114="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A114),"",("('"&amp;FragenTemplate!A114&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B114),"","'"&amp;FragenTemplate!B114&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C114,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D114&amp;"', '"&amp;FragenTemplate!E114&amp;"', '"&amp;FragenTemplate!G114&amp;"', '"&amp;FragenTemplate!I114&amp;"', '"&amp;FragenTemplate!K114&amp;"', "&amp;IF(EXACT(FragenTemplate!F114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L114,"richtig"),"true","false")&amp;",true)"&amp;IF(A115="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A115),"",("('"&amp;FragenTemplate!A115&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B115),"","'"&amp;FragenTemplate!B115&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C115,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D115&amp;"', '"&amp;FragenTemplate!E115&amp;"', '"&amp;FragenTemplate!G115&amp;"', '"&amp;FragenTemplate!I115&amp;"', '"&amp;FragenTemplate!K115&amp;"', "&amp;IF(EXACT(FragenTemplate!F115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L115,"richtig"),"true","false")&amp;",true)"&amp;IF(A115="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A115),"",("('"&amp;FragenTemplate!A115&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B115),"","'"&amp;FragenTemplate!B115&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C115,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D115&amp;"', '"&amp;FragenTemplate!E115&amp;"', '"&amp;FragenTemplate!G115&amp;"', '"&amp;FragenTemplate!I115&amp;"', '"&amp;FragenTemplate!K115&amp;"', "&amp;IF(EXACT(FragenTemplate!F115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L115,"richtig"),"true","false")&amp;",true)"&amp;IF(A116="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A116),"",("('"&amp;FragenTemplate!A116&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B116),"","'"&amp;FragenTemplate!B116&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C116,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D116&amp;"', '"&amp;FragenTemplate!E116&amp;"', '"&amp;FragenTemplate!G116&amp;"', '"&amp;FragenTemplate!I116&amp;"', '"&amp;FragenTemplate!K116&amp;"', "&amp;IF(EXACT(FragenTemplate!F116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L116,"richtig"),"true","false")&amp;",true)"&amp;IF(A116="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A116),"",("('"&amp;FragenTemplate!A116&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B116),"","'"&amp;FragenTemplate!B116&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C116,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D116&amp;"', '"&amp;FragenTemplate!E116&amp;"', '"&amp;FragenTemplate!G116&amp;"', '"&amp;FragenTemplate!I116&amp;"', '"&amp;FragenTemplate!K116&amp;"', "&amp;IF(EXACT(FragenTemplate!F116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L116,"richtig"),"true","false")&amp;",true)"&amp;IF(A117="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A117),"",("('"&amp;FragenTemplate!A117&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B117),"","'"&amp;FragenTemplate!B117&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C117,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D117&amp;"', '"&amp;FragenTemplate!E117&amp;"', '"&amp;FragenTemplate!G117&amp;"', '"&amp;FragenTemplate!I117&amp;"', '"&amp;FragenTemplate!K117&amp;"', "&amp;IF(EXACT(FragenTemplate!F117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L117,"richtig"),"true","false")&amp;",true)"&amp;IF(A117="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A117),"",("('"&amp;FragenTemplate!A117&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B117),"","'"&amp;FragenTemplate!B117&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C117,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D117&amp;"', '"&amp;FragenTemplate!E117&amp;"', '"&amp;FragenTemplate!G117&amp;"', '"&amp;FragenTemplate!I117&amp;"', '"&amp;FragenTemplate!K117&amp;"', "&amp;IF(EXACT(FragenTemplate!F117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L117,"richtig"),"true","false")&amp;",true)"&amp;IF(A118="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A118),"",("('"&amp;FragenTemplate!A118&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B118),"","'"&amp;FragenTemplate!B118&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C118,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D118&amp;"', '"&amp;FragenTemplate!E118&amp;"', '"&amp;FragenTemplate!G118&amp;"', '"&amp;FragenTemplate!I118&amp;"', '"&amp;FragenTemplate!K118&amp;"', "&amp;IF(EXACT(FragenTemplate!F118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L118,"richtig"),"true","false")&amp;",true)"&amp;IF(A118="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A118),"",("('"&amp;FragenTemplate!A118&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B118),"","'"&amp;FragenTemplate!B118&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C118,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D118&amp;"', '"&amp;FragenTemplate!E118&amp;"', '"&amp;FragenTemplate!G118&amp;"', '"&amp;FragenTemplate!I118&amp;"', '"&amp;FragenTemplate!K118&amp;"', "&amp;IF(EXACT(FragenTemplate!F118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L118,"richtig"),"true","false")&amp;",true)"&amp;IF(A119="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A119),"",("('"&amp;FragenTemplate!A119&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B119),"","'"&amp;FragenTemplate!B119&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C119,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D119&amp;"', '"&amp;FragenTemplate!E119&amp;"', '"&amp;FragenTemplate!G119&amp;"', '"&amp;FragenTemplate!I119&amp;"', '"&amp;FragenTemplate!K119&amp;"', "&amp;IF(EXACT(FragenTemplate!F119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L119,"richtig"),"true","false")&amp;",true)"&amp;IF(A119="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A119),"",("('"&amp;FragenTemplate!A119&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B119),"","'"&amp;FragenTemplate!B119&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C119,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D119&amp;"', '"&amp;FragenTemplate!E119&amp;"', '"&amp;FragenTemplate!G119&amp;"', '"&amp;FragenTemplate!I119&amp;"', '"&amp;FragenTemplate!K119&amp;"', "&amp;IF(EXACT(FragenTemplate!F119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L119,"richtig"),"true","false")&amp;",true)"&amp;IF(A120="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A120),"",("('"&amp;FragenTemplate!A120&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B120),"","'"&amp;FragenTemplate!B120&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C120,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D120&amp;"', '"&amp;FragenTemplate!E120&amp;"', '"&amp;FragenTemplate!G120&amp;"', '"&amp;FragenTemplate!I120&amp;"', '"&amp;FragenTemplate!K120&amp;"', "&amp;IF(EXACT(FragenTemplate!F120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L120,"richtig"),"true","false")&amp;",true)"&amp;IF(A120="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A120),"",("('"&amp;FragenTemplate!A120&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B120),"","'"&amp;FragenTemplate!B120&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C120,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D120&amp;"', '"&amp;FragenTemplate!E120&amp;"', '"&amp;FragenTemplate!G120&amp;"', '"&amp;FragenTemplate!I120&amp;"', '"&amp;FragenTemplate!K120&amp;"', "&amp;IF(EXACT(FragenTemplate!F120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L120,"richtig"),"true","false")&amp;",true)"&amp;IF(A121="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A121),"",("('"&amp;FragenTemplate!A121&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B121),"","'"&amp;FragenTemplate!B121&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C121,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D121&amp;"', '"&amp;FragenTemplate!E121&amp;"', '"&amp;FragenTemplate!G121&amp;"', '"&amp;FragenTemplate!I121&amp;"', '"&amp;FragenTemplate!K121&amp;"', "&amp;IF(EXACT(FragenTemplate!F121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L121,"richtig"),"true","false")&amp;",true)"&amp;IF(A121="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A121),"",("('"&amp;FragenTemplate!A121&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B121),"","'"&amp;FragenTemplate!B121&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C121,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D121&amp;"', '"&amp;FragenTemplate!E121&amp;"', '"&amp;FragenTemplate!G121&amp;"', '"&amp;FragenTemplate!I121&amp;"', '"&amp;FragenTemplate!K121&amp;"', "&amp;IF(EXACT(FragenTemplate!F121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L121,"richtig"),"true","false")&amp;",true)"&amp;IF(A122="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A122),"",("('"&amp;FragenTemplate!A122&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B122),"","'"&amp;FragenTemplate!B122&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C122,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D122&amp;"', '"&amp;FragenTemplate!E122&amp;"', '"&amp;FragenTemplate!G122&amp;"', '"&amp;FragenTemplate!I122&amp;"', '"&amp;FragenTemplate!K122&amp;"', "&amp;IF(EXACT(FragenTemplate!F122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L122,"richtig"),"true","false")&amp;",true)"&amp;IF(A122="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A122),"",("('"&amp;FragenTemplate!A122&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B122),"","'"&amp;FragenTemplate!B122&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C122,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D122&amp;"', '"&amp;FragenTemplate!E122&amp;"', '"&amp;FragenTemplate!G122&amp;"', '"&amp;FragenTemplate!I122&amp;"', '"&amp;FragenTemplate!K122&amp;"', "&amp;IF(EXACT(FragenTemplate!F122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L122,"richtig"),"true","false")&amp;",true)"&amp;IF(A123="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A123),"",("('"&amp;FragenTemplate!A123&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B123),"","'"&amp;FragenTemplate!B123&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C123,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D123&amp;"', '"&amp;FragenTemplate!E123&amp;"', '"&amp;FragenTemplate!G123&amp;"', '"&amp;FragenTemplate!I123&amp;"', '"&amp;FragenTemplate!K123&amp;"', "&amp;IF(EXACT(FragenTemplate!F123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L123,"richtig"),"true","false")&amp;",true)"&amp;IF(A123="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A123),"",("('"&amp;FragenTemplate!A123&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B123),"","'"&amp;FragenTemplate!B123&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C123,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D123&amp;"', '"&amp;FragenTemplate!E123&amp;"', '"&amp;FragenTemplate!G123&amp;"', '"&amp;FragenTemplate!I123&amp;"', '"&amp;FragenTemplate!K123&amp;"', "&amp;IF(EXACT(FragenTemplate!F123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L123,"richtig"),"true","false")&amp;",true)"&amp;IF(A124="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A124),"",("('"&amp;FragenTemplate!A124&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B124),"","'"&amp;FragenTemplate!B124&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C124,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D124&amp;"', '"&amp;FragenTemplate!E124&amp;"', '"&amp;FragenTemplate!G124&amp;"', '"&amp;FragenTemplate!I124&amp;"', '"&amp;FragenTemplate!K124&amp;"', "&amp;IF(EXACT(FragenTemplate!F124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L124,"richtig"),"true","false")&amp;",true)"&amp;IF(A124="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A124),"",("('"&amp;FragenTemplate!A124&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B124),"","'"&amp;FragenTemplate!B124&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C124,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D124&amp;"', '"&amp;FragenTemplate!E124&amp;"', '"&amp;FragenTemplate!G124&amp;"', '"&amp;FragenTemplate!I124&amp;"', '"&amp;FragenTemplate!K124&amp;"', "&amp;IF(EXACT(FragenTemplate!F124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L124,"richtig"),"true","false")&amp;",true)"&amp;IF(A125="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A125),"",("('"&amp;FragenTemplate!A125&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B125),"","'"&amp;FragenTemplate!B125&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C125,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D125&amp;"', '"&amp;FragenTemplate!E125&amp;"', '"&amp;FragenTemplate!G125&amp;"', '"&amp;FragenTemplate!I125&amp;"', '"&amp;FragenTemplate!K125&amp;"', "&amp;IF(EXACT(FragenTemplate!F125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L125,"richtig"),"true","false")&amp;",true)"&amp;IF(A125="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A125),"",("('"&amp;FragenTemplate!A125&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B125),"","'"&amp;FragenTemplate!B125&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C125,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D125&amp;"', '"&amp;FragenTemplate!E125&amp;"', '"&amp;FragenTemplate!G125&amp;"', '"&amp;FragenTemplate!I125&amp;"', '"&amp;FragenTemplate!K125&amp;"', "&amp;IF(EXACT(FragenTemplate!F125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L125,"richtig"),"true","false")&amp;",true)"&amp;IF(A126="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A126),"",("('"&amp;FragenTemplate!A126&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B126),"","'"&amp;FragenTemplate!B126&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C126,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D126&amp;"', '"&amp;FragenTemplate!E126&amp;"', '"&amp;FragenTemplate!G126&amp;"', '"&amp;FragenTemplate!I126&amp;"', '"&amp;FragenTemplate!K126&amp;"', "&amp;IF(EXACT(FragenTemplate!F126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L126,"richtig"),"true","false")&amp;",true)"&amp;IF(A126="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A126),"",("('"&amp;FragenTemplate!A126&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B126),"","'"&amp;FragenTemplate!B126&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C126,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D126&amp;"', '"&amp;FragenTemplate!E126&amp;"', '"&amp;FragenTemplate!G126&amp;"', '"&amp;FragenTemplate!I126&amp;"', '"&amp;FragenTemplate!K126&amp;"', "&amp;IF(EXACT(FragenTemplate!F126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L126,"richtig"),"true","false")&amp;",true)"&amp;IF(A127="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A127),"",("('"&amp;FragenTemplate!A127&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B127),"","'"&amp;FragenTemplate!B127&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C127,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D127&amp;"', '"&amp;FragenTemplate!E127&amp;"', '"&amp;FragenTemplate!G127&amp;"', '"&amp;FragenTemplate!I127&amp;"', '"&amp;FragenTemplate!K127&amp;"', "&amp;IF(EXACT(FragenTemplate!F127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L127,"richtig"),"true","false")&amp;",true)"&amp;IF(A127="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A127),"",("('"&amp;FragenTemplate!A127&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B127),"","'"&amp;FragenTemplate!B127&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C127,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D127&amp;"', '"&amp;FragenTemplate!E127&amp;"', '"&amp;FragenTemplate!G127&amp;"', '"&amp;FragenTemplate!I127&amp;"', '"&amp;FragenTemplate!K127&amp;"', "&amp;IF(EXACT(FragenTemplate!F127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L127,"richtig"),"true","false")&amp;",true)"&amp;IF(A128="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A128),"",("('"&amp;FragenTemplate!A128&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B128),"","'"&amp;FragenTemplate!B128&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C128,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D128&amp;"', '"&amp;FragenTemplate!E128&amp;"', '"&amp;FragenTemplate!G128&amp;"', '"&amp;FragenTemplate!I128&amp;"', '"&amp;FragenTemplate!K128&amp;"', "&amp;IF(EXACT(FragenTemplate!F128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L128,"richtig"),"true","false")&amp;",true)"&amp;IF(A128="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A128),"",("('"&amp;FragenTemplate!A128&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B128),"","'"&amp;FragenTemplate!B128&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C128,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D128&amp;"', '"&amp;FragenTemplate!E128&amp;"', '"&amp;FragenTemplate!G128&amp;"', '"&amp;FragenTemplate!I128&amp;"', '"&amp;FragenTemplate!K128&amp;"', "&amp;IF(EXACT(FragenTemplate!F128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L128,"richtig"),"true","false")&amp;",true)"&amp;IF(A129="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A129),"",("('"&amp;FragenTemplate!A129&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B129),"","'"&amp;FragenTemplate!B129&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C129,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D129&amp;"', '"&amp;FragenTemplate!E129&amp;"', '"&amp;FragenTemplate!G129&amp;"', '"&amp;FragenTemplate!I129&amp;"', '"&amp;FragenTemplate!K129&amp;"', "&amp;IF(EXACT(FragenTemplate!F129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L129,"richtig"),"true","false")&amp;",true)"&amp;IF(A129="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A129),"",("('"&amp;FragenTemplate!A129&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B129),"","'"&amp;FragenTemplate!B129&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C129,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D129&amp;"', '"&amp;FragenTemplate!E129&amp;"', '"&amp;FragenTemplate!G129&amp;"', '"&amp;FragenTemplate!I129&amp;"', '"&amp;FragenTemplate!K129&amp;"', "&amp;IF(EXACT(FragenTemplate!F129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L129,"richtig"),"true","false")&amp;",true)"&amp;IF(A130="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A130),"",("('"&amp;FragenTemplate!A130&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B130),"","'"&amp;FragenTemplate!B130&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C130,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D130&amp;"', '"&amp;FragenTemplate!E130&amp;"', '"&amp;FragenTemplate!G130&amp;"', '"&amp;FragenTemplate!I130&amp;"', '"&amp;FragenTemplate!K130&amp;"', "&amp;IF(EXACT(FragenTemplate!F130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L130,"richtig"),"true","false")&amp;",true)"&amp;IF(A130="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A130),"",("('"&amp;FragenTemplate!A130&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B130),"","'"&amp;FragenTemplate!B130&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C130,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D130&amp;"', '"&amp;FragenTemplate!E130&amp;"', '"&amp;FragenTemplate!G130&amp;"', '"&amp;FragenTemplate!I130&amp;"', '"&amp;FragenTemplate!K130&amp;"', "&amp;IF(EXACT(FragenTemplate!F130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L130,"richtig"),"true","false")&amp;",true)"&amp;IF(A131="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A131),"",("('"&amp;FragenTemplate!A131&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B131),"","'"&amp;FragenTemplate!B131&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C131,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D131&amp;"', '"&amp;FragenTemplate!E131&amp;"', '"&amp;FragenTemplate!G131&amp;"', '"&amp;FragenTemplate!I131&amp;"', '"&amp;FragenTemplate!K131&amp;"', "&amp;IF(EXACT(FragenTemplate!F131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L131,"richtig"),"true","false")&amp;",true)"&amp;IF(A131="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A131),"",("('"&amp;FragenTemplate!A131&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B131),"","'"&amp;FragenTemplate!B131&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C131,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D131&amp;"', '"&amp;FragenTemplate!E131&amp;"', '"&amp;FragenTemplate!G131&amp;"', '"&amp;FragenTemplate!I131&amp;"', '"&amp;FragenTemplate!K131&amp;"', "&amp;IF(EXACT(FragenTemplate!F131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L131,"richtig"),"true","false")&amp;",true)"&amp;IF(A132="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A132),"",("('"&amp;FragenTemplate!A132&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B132),"","'"&amp;FragenTemplate!B132&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C132,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D132&amp;"', '"&amp;FragenTemplate!E132&amp;"', '"&amp;FragenTemplate!G132&amp;"', '"&amp;FragenTemplate!I132&amp;"', '"&amp;FragenTemplate!K132&amp;"', "&amp;IF(EXACT(FragenTemplate!F132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L132,"richtig"),"true","false")&amp;",true)"&amp;IF(A132="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A132),"",("('"&amp;FragenTemplate!A132&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B132),"","'"&amp;FragenTemplate!B132&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C132,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D132&amp;"', '"&amp;FragenTemplate!E132&amp;"', '"&amp;FragenTemplate!G132&amp;"', '"&amp;FragenTemplate!I132&amp;"', '"&amp;FragenTemplate!K132&amp;"', "&amp;IF(EXACT(FragenTemplate!F132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L132,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A133),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A133),"",("('"&amp;FragenTemplate!A133&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B133),"","'"&amp;FragenTemplate!B133&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C133,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D133&amp;"', '"&amp;FragenTemplate!E133&amp;"', '"&amp;FragenTemplate!G133&amp;"', '"&amp;FragenTemplate!I133&amp;"', '"&amp;FragenTemplate!K133&amp;"', "&amp;IF(EXACT(FragenTemplate!F133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L133,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A133),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A133),"",("('"&amp;FragenTemplate!A133&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B133),"","'"&amp;FragenTemplate!B133&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C133,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D133&amp;"', '"&amp;FragenTemplate!E133&amp;"', '"&amp;FragenTemplate!G133&amp;"', '"&amp;FragenTemplate!I133&amp;"', '"&amp;FragenTemplate!K133&amp;"', "&amp;IF(EXACT(FragenTemplate!F133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L133,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A134),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A134),"",("('"&amp;FragenTemplate!A134&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B134),"","'"&amp;FragenTemplate!B134&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C134,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D134&amp;"', '"&amp;FragenTemplate!E134&amp;"', '"&amp;FragenTemplate!G134&amp;"', '"&amp;FragenTemplate!I134&amp;"', '"&amp;FragenTemplate!K134&amp;"', "&amp;IF(EXACT(FragenTemplate!F134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L134,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A134),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A134),"",("('"&amp;FragenTemplate!A134&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B134),"","'"&amp;FragenTemplate!B134&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C134,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D134&amp;"', '"&amp;FragenTemplate!E134&amp;"', '"&amp;FragenTemplate!G134&amp;"', '"&amp;FragenTemplate!I134&amp;"', '"&amp;FragenTemplate!K134&amp;"', "&amp;IF(EXACT(FragenTemplate!F134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L134,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A135),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A135),"",("('"&amp;FragenTemplate!A135&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B135),"","'"&amp;FragenTemplate!B135&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C135,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D135&amp;"', '"&amp;FragenTemplate!E135&amp;"', '"&amp;FragenTemplate!G135&amp;"', '"&amp;FragenTemplate!I135&amp;"', '"&amp;FragenTemplate!K135&amp;"', "&amp;IF(EXACT(FragenTemplate!F135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L135,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A135),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A135),"",("('"&amp;FragenTemplate!A135&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B135),"","'"&amp;FragenTemplate!B135&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C135,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D135&amp;"', '"&amp;FragenTemplate!E135&amp;"', '"&amp;FragenTemplate!G135&amp;"', '"&amp;FragenTemplate!I135&amp;"', '"&amp;FragenTemplate!K135&amp;"', "&amp;IF(EXACT(FragenTemplate!F135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L135,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A136),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A136),"",("('"&amp;FragenTemplate!A136&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B136),"","'"&amp;FragenTemplate!B136&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C136,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D136&amp;"', '"&amp;FragenTemplate!E136&amp;"', '"&amp;FragenTemplate!G136&amp;"', '"&amp;FragenTemplate!I136&amp;"', '"&amp;FragenTemplate!K136&amp;"', "&amp;IF(EXACT(FragenTemplate!F136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L136,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A136),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A136),"",("('"&amp;FragenTemplate!A136&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B136),"","'"&amp;FragenTemplate!B136&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C136,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D136&amp;"', '"&amp;FragenTemplate!E136&amp;"', '"&amp;FragenTemplate!G136&amp;"', '"&amp;FragenTemplate!I136&amp;"', '"&amp;FragenTemplate!K136&amp;"', "&amp;IF(EXACT(FragenTemplate!F136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L136,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A137),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A137),"",("('"&amp;FragenTemplate!A137&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B137),"","'"&amp;FragenTemplate!B137&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C137,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D137&amp;"', '"&amp;FragenTemplate!E137&amp;"', '"&amp;FragenTemplate!G137&amp;"', '"&amp;FragenTemplate!I137&amp;"', '"&amp;FragenTemplate!K137&amp;"', "&amp;IF(EXACT(FragenTemplate!F137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L137,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A137),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A137),"",("('"&amp;FragenTemplate!A137&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B137),"","'"&amp;FragenTemplate!B137&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C137,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D137&amp;"', '"&amp;FragenTemplate!E137&amp;"', '"&amp;FragenTemplate!G137&amp;"', '"&amp;FragenTemplate!I137&amp;"', '"&amp;FragenTemplate!K137&amp;"', "&amp;IF(EXACT(FragenTemplate!F137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L137,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A138),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A138),"",("('"&amp;FragenTemplate!A138&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B138),"","'"&amp;FragenTemplate!B138&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C138,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D138&amp;"', '"&amp;FragenTemplate!E138&amp;"', '"&amp;FragenTemplate!G138&amp;"', '"&amp;FragenTemplate!I138&amp;"', '"&amp;FragenTemplate!K138&amp;"', "&amp;IF(EXACT(FragenTemplate!F138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L138,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A138),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A138),"",("('"&amp;FragenTemplate!A138&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B138),"","'"&amp;FragenTemplate!B138&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C138,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D138&amp;"', '"&amp;FragenTemplate!E138&amp;"', '"&amp;FragenTemplate!G138&amp;"', '"&amp;FragenTemplate!I138&amp;"', '"&amp;FragenTemplate!K138&amp;"', "&amp;IF(EXACT(FragenTemplate!F138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L138,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A139),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A139),"",("('"&amp;FragenTemplate!A139&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B139),"","'"&amp;FragenTemplate!B139&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C139,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D139&amp;"', '"&amp;FragenTemplate!E139&amp;"', '"&amp;FragenTemplate!G139&amp;"', '"&amp;FragenTemplate!I139&amp;"', '"&amp;FragenTemplate!K139&amp;"', "&amp;IF(EXACT(FragenTemplate!F139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L139,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A139),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f>IF(ISBLANK(FragenTemplate!A139),"",("('"&amp;FragenTemplate!A139&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B139),"","'"&amp;FragenTemplate!B139&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C139,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D139&amp;"', '"&amp;FragenTemplate!E139&amp;"', '"&amp;FragenTemplate!G139&amp;"', '"&amp;FragenTemplate!I139&amp;"', '"&amp;FragenTemplate!K139&amp;"', "&amp;IF(EXACT(FragenTemplate!F139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L139,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A140),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!A140),"",("('"&amp;FragenTemplate!A140&amp;"', "&amp;IF(ISBLANK(FragenTemplate!B140),"","'"&amp;FragenTemplate!B140&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!C140,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!D140&amp;"', '"&amp;FragenTemplate!E140&amp;"', '"&amp;FragenTemplate!G140&amp;"', '"&amp;FragenTemplate!I140&amp;"', '"&amp;FragenTemplate!K140&amp;"', "&amp;IF(EXACT(FragenTemplate!F140,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!H140,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J140,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L140,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A140),";",",")))</f>
         <v/>
       </c>
     </row>
@@ -1532,4 +4573,336 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4" filterMode="1"/>
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>41730.444189814814</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>41730.443912037037</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>41730.44363425926</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>41730.432106481479</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>1973</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>2001</v>
+      </c>
+      <c r="I5">
+        <v>2006</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>41730.430543981478</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>41730.428113425929</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>41708.382962962962</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>41705.641030092593</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>41705.6403587963</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>41705.500185185185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>41705.484027777777</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M12">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="StelleFragen"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/FragenTemplate.xlsx
+++ b/Documents/FragenTemplate.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t>Unterkategorie</t>
   </si>
@@ -788,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -854,6 +854,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent5" xfId="1" builtinId="48"/>
@@ -890,9 +893,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>2969100</xdr:colOff>
+          <xdr:colOff>2971800</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>442500</xdr:rowOff>
+          <xdr:rowOff>438150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -922,7 +925,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -949,9 +952,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>2969100</xdr:colOff>
+          <xdr:colOff>2971800</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>728250</xdr:rowOff>
+          <xdr:rowOff>723900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -981,7 +984,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1361,8 +1364,8 @@
   <dimension ref="A1:BF202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="3" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,12 +1653,22 @@
       <c r="BF4" s="22"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="F5" s="5"/>
+      <c r="A5" s="3" t="str">
+        <f>K3</f>
+        <v>Antwortmöglichkeit3 *</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="F5" s="15"/>
+      <c r="G5"/>
+      <c r="I5"/>
+      <c r="K5"/>
+      <c r="M5"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
-        <f t="shared" ref="A6:A68" si="0">K3</f>
-        <v>Antwortmöglichkeit3 *</v>
+        <f>K202</f>
+        <v>Betriebwirtschaftslehre</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -1666,24 +1679,24 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="str">
-        <f>K202</f>
-        <v>Betriebwirtschaftslehre</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="F7" s="15"/>
-      <c r="G7"/>
-      <c r="I7"/>
-      <c r="K7"/>
-      <c r="M7"/>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="e">
+      <c r="A7" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" ref="A8:A67" si="0">K5</f>
+        <v>0</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="F8" s="15"/>
+      <c r="G8"/>
+      <c r="I8"/>
+      <c r="K8"/>
+      <c r="M8"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1692,11 +1705,31 @@
       </c>
       <c r="C9"/>
       <c r="D9"/>
+      <c r="E9" s="2" t="str">
+        <f t="shared" ref="E9:E67" si="1">IF(ISBLANK(F9)=TRUE,"",IF(COUNTIF(H9,"richtig")+COUNTIF(J9,"richtig")+COUNTIF(L9,"richtig")+COUNTIF(N9,"richtig")&gt;1,"ja","nein"))</f>
+        <v/>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9"/>
+      <c r="H9" s="2" t="str">
+        <f>IF(ISBLANK($F9)=TRUE,"",IF(ISNUMBER(FIND(H$2,VLOOKUP($F9,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
       <c r="I9"/>
+      <c r="J9" s="2" t="str">
+        <f>IF(ISBLANK($F9)=TRUE,"",IF(ISNUMBER(FIND(J$2,VLOOKUP($F9,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
       <c r="K9"/>
+      <c r="L9" s="2" t="str">
+        <f>IF(ISBLANK($F9)=TRUE,"",IF(ISNUMBER(FIND(L$2,VLOOKUP($F9,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
       <c r="M9"/>
+      <c r="N9" s="20" t="str">
+        <f>IF(ISBLANK($F9)=TRUE,"",IF(ISNUMBER(FIND(N$2,VLOOKUP($F9,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1706,7 +1739,7 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" s="2" t="str">
-        <f t="shared" ref="E10:E68" si="1">IF(ISBLANK(F10)=TRUE,"",IF(COUNTIF(H10,"richtig")+COUNTIF(J10,"richtig")+COUNTIF(L10,"richtig")+COUNTIF(N10,"richtig")&gt;1,"ja","nein"))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F10" s="15"/>
@@ -3614,13 +3647,13 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A68:A131" si="2">K65</f>
         <v>0</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E68:E128" si="3">IF(ISBLANK(F68)=TRUE,"",IF(COUNTIF(H68,"richtig")+COUNTIF(J68,"richtig")+COUNTIF(L68,"richtig")+COUNTIF(N68,"richtig")&gt;1,"ja","nein"))</f>
         <v/>
       </c>
       <c r="F68" s="15"/>
@@ -3647,13 +3680,13 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <f t="shared" ref="A69:A132" si="2">K66</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69" s="2" t="str">
-        <f t="shared" ref="E69:E129" si="3">IF(ISBLANK(F69)=TRUE,"",IF(COUNTIF(H69,"richtig")+COUNTIF(J69,"richtig")+COUNTIF(L69,"richtig")+COUNTIF(N69,"richtig")&gt;1,"ja","nein"))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F69" s="15"/>
@@ -4290,10 +4323,6 @@
         <v/>
       </c>
       <c r="I88"/>
-      <c r="J88" s="2" t="str">
-        <f>IF(ISBLANK($F88)=TRUE,"",IF(ISNUMBER(FIND(J$2,VLOOKUP($F88,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
-        <v/>
-      </c>
       <c r="K88"/>
       <c r="L88" s="2" t="str">
         <f>IF(ISBLANK($F88)=TRUE,"",IF(ISNUMBER(FIND(L$2,VLOOKUP($F88,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
@@ -4469,15 +4498,7 @@
       </c>
       <c r="I94"/>
       <c r="K94"/>
-      <c r="L94" s="2" t="str">
-        <f>IF(ISBLANK($F94)=TRUE,"",IF(ISNUMBER(FIND(L$2,VLOOKUP($F94,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
-        <v/>
-      </c>
       <c r="M94"/>
-      <c r="N94" s="20" t="str">
-        <f>IF(ISBLANK($F94)=TRUE,"",IF(ISNUMBER(FIND(N$2,VLOOKUP($F94,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
-        <v/>
-      </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
@@ -4555,10 +4576,6 @@
       </c>
       <c r="F98" s="15"/>
       <c r="G98"/>
-      <c r="H98" s="2" t="str">
-        <f>IF(ISBLANK($F98)=TRUE,"",IF(ISNUMBER(FIND(H$2,VLOOKUP($F98,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
-        <v/>
-      </c>
       <c r="I98"/>
       <c r="K98"/>
       <c r="M98"/>
@@ -4620,7 +4637,6 @@
         <v>0</v>
       </c>
       <c r="C102"/>
-      <c r="D102"/>
       <c r="E102" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5053,10 +5069,6 @@
         <v>0</v>
       </c>
       <c r="C129"/>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
       <c r="F129" s="15"/>
       <c r="G129"/>
       <c r="I129"/>
@@ -5089,7 +5101,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A132:A193" si="4">K129</f>
         <v>0</v>
       </c>
       <c r="C132"/>
@@ -5101,7 +5113,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <f t="shared" ref="A133:A196" si="4">K130</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C133"/>
@@ -5200,12 +5212,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C141"/>
-      <c r="F141" s="15"/>
-      <c r="G141"/>
-      <c r="I141"/>
-      <c r="K141"/>
-      <c r="M141"/>
+      <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
@@ -5572,36 +5579,36 @@
       <c r="F193" s="5"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F194" s="5"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="M194" s="6"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <f t="shared" si="4"/>
+        <f>K191</f>
         <v>0</v>
       </c>
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <f t="shared" si="4"/>
+        <f>K192</f>
         <v>0</v>
       </c>
       <c r="F196" s="5"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
-        <f t="shared" ref="A197:A200" si="5">K194</f>
+        <f>K193</f>
         <v>0</v>
       </c>
       <c r="F197" s="5"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A198:A200" si="5">K195</f>
         <v>0</v>
       </c>
       <c r="F198" s="5"/>
@@ -5646,30 +5653,26 @@
       <c r="G202" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H202" s="2" t="str">
-        <f>IF(ISBLANK($F202)=TRUE,"",IF(ISNUMBER(FIND(H$2,VLOOKUP($F202,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
-        <v>falsch</v>
+      <c r="H202" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J202" s="2" t="str">
-        <f>IF(ISBLANK($F202)=TRUE,"",IF(ISNUMBER(FIND(J$2,VLOOKUP($F202,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
-        <v>richtig</v>
+      <c r="J202" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K202" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L202" s="2" t="str">
-        <f>IF(ISBLANK($F202)=TRUE,"",IF(ISNUMBER(FIND(L$2,VLOOKUP($F202,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
-        <v>richtig</v>
+      <c r="L202" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="M202" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N202" s="20" t="str">
-        <f>IF(ISBLANK($F202)=TRUE,"",IF(ISNUMBER(FIND(N$2,VLOOKUP($F202,Jimdo_Import!$C:$J,8,FALSE),1))=TRUE, "richtig", "falsch"))</f>
-        <v>falsch</v>
+      <c r="N202" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5678,12 +5681,12 @@
       <formula1>"richtig,falsch"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wählen Sie aus, ob die Frage richtig oder falsch ist " sqref="H2:H3 H201 H203:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wählen Sie  ja oder nein aus." promptTitle="ja" sqref="E9:E1048576 E1:E4 E6:E7"/>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Die maximale Zeichenlänge der Antwort beträgt 55 Zeichen._x000a_Bitte kürzen Sie ihre Antwort." sqref="G9:G1048576 I9:I1048576 M9:M1048576 K9:K1048576 K4 K6:K7 M4 M6:M7 I4 I6:I7 G4 G6:G7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Bitte wählen Sie  ja oder nein aus." promptTitle="ja" sqref="E8:E1048576 E1:E4 E5:E6"/>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Die maximale Zeichenlänge der Antwort beträgt 55 Zeichen._x000a_Bitte kürzen Sie ihre Antwort." sqref="G8:G1048576 I8:I1048576 M8:M1048576 K8:K1048576 K4 K5:K6 M4 M5:M6 I4 I5:I6 G4 G5:G6">
       <formula1>0</formula1>
       <formula2>55</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Die maximale Zeichenlänge der Frage beträgt 170 Zeichen._x000a_Bitte kürzen Sie ihre Frage." sqref="F6:F1048576 F4">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehler" error="Die maximale Zeichenlänge der Frage beträgt 170 Zeichen._x000a_Bitte kürzen Sie ihre Frage." sqref="F5:F1048576 F4">
       <formula1>0</formula1>
       <formula2>170</formula2>
     </dataValidation>
@@ -5749,13 +5752,13 @@
           <x14:formula1>
             <xm:f>Settings!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H4 H202 H6:H200</xm:sqref>
+          <xm:sqref>H4 H202 H5:H200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L200 N6:N200 N4 J4 L4 N202 L202 J202 J6:J200</xm:sqref>
+          <xm:sqref>L5:L200 N5:N200 N4 J4 L4 N202 L202 J202 J5:J200</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5786,7 +5789,7 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="e">
+      <c r="C1" s="23" t="e">
         <f>A1&amp;A2&amp;A3&amp;A4&amp;A5&amp;A6&amp;A7&amp;A8&amp;A9&amp;A10&amp;A11&amp;A12&amp;A13&amp;A14&amp;A15&amp;A16&amp;A17&amp;A18&amp;A19&amp;A20&amp;A21&amp;A22&amp;A23&amp;A24&amp;A25&amp;A26&amp;A27&amp;A28&amp;A29&amp;A30&amp;A31&amp;A32&amp;A33&amp;A34&amp;A35&amp;A36&amp;A37&amp;A38&amp;A39&amp;A40&amp;A41&amp;A42&amp;A43&amp;A44&amp;A45&amp;A46&amp;A47&amp;A48&amp;A49&amp;A50</f>
         <v>#REF!</v>
       </c>
@@ -5796,841 +5799,841 @@
         <f>IF(ISBLANK(FragenTemplate!#REF!),"",("('"&amp;FragenTemplate!#REF!&amp;"', "&amp;IF(ISBLANK(FragenTemplate!#REF!),"","'"&amp;FragenTemplate!#REF!&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!#REF!,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!#REF!&amp;"', '"&amp;FragenTemplate!#REF!&amp;"', '"&amp;FragenTemplate!#REF!&amp;"', '"&amp;FragenTemplate!#REF!&amp;"', '"&amp;FragenTemplate!#REF!&amp;"', "&amp;IF(EXACT(FragenTemplate!#REF!,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!#REF!,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!#REF!,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!#REF!,"richtig"),"true","false")&amp;",true)"&amp;IF(A3="",";",",")))</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="e">
         <f>IF(ISBLANK(FragenTemplate!#REF!),"",("('"&amp;FragenTemplate!#REF!&amp;"', "&amp;IF(ISBLANK(FragenTemplate!#REF!),"","'"&amp;FragenTemplate!#REF!&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!#REF!,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!#REF!&amp;"', '"&amp;FragenTemplate!#REF!&amp;"', '"&amp;FragenTemplate!#REF!&amp;"', '"&amp;FragenTemplate!#REF!&amp;"', '"&amp;FragenTemplate!#REF!&amp;"', "&amp;IF(EXACT(FragenTemplate!#REF!,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!#REF!,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!#REF!,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!#REF!,"richtig"),"true","false")&amp;",true)"&amp;IF(A4="",";",",")))</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C6),"",("('"&amp;FragenTemplate!C6&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D6),"","'"&amp;FragenTemplate!D6&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E6,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F6&amp;"', '"&amp;FragenTemplate!G6&amp;"', '"&amp;FragenTemplate!I6&amp;"', '"&amp;FragenTemplate!K6&amp;"', '"&amp;FragenTemplate!M6&amp;"', "&amp;IF(EXACT(FragenTemplate!H6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N6,"richtig"),"true","false")&amp;",true)"&amp;IF(A5="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C4" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C5),"",("('"&amp;FragenTemplate!C5&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D5),"","'"&amp;FragenTemplate!D5&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E5,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F5&amp;"', '"&amp;FragenTemplate!G5&amp;"', '"&amp;FragenTemplate!I5&amp;"', '"&amp;FragenTemplate!K5&amp;"', '"&amp;FragenTemplate!M5&amp;"', "&amp;IF(EXACT(FragenTemplate!H5,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J5,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L5,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N5,"richtig"),"true","false")&amp;",true)"&amp;IF(A5="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C7),"",("('"&amp;FragenTemplate!C7&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D7),"","'"&amp;FragenTemplate!D7&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E7,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F7&amp;"', '"&amp;FragenTemplate!G7&amp;"', '"&amp;FragenTemplate!I7&amp;"', '"&amp;FragenTemplate!K7&amp;"', '"&amp;FragenTemplate!M7&amp;"', "&amp;IF(EXACT(FragenTemplate!H7,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J7,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L7,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N7,"richtig"),"true","false")&amp;",true)"&amp;IF(A6="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C5" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C6),"",("('"&amp;FragenTemplate!C6&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D6),"","'"&amp;FragenTemplate!D6&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E6,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F6&amp;"', '"&amp;FragenTemplate!G6&amp;"', '"&amp;FragenTemplate!I6&amp;"', '"&amp;FragenTemplate!K6&amp;"', '"&amp;FragenTemplate!M6&amp;"', "&amp;IF(EXACT(FragenTemplate!H6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L6,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N6,"richtig"),"true","false")&amp;",true)"&amp;IF(A6="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF(ISBLANK(FragenTemplate!C202),"",("('"&amp;FragenTemplate!C202&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D202),"","'"&amp;FragenTemplate!D202&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E202,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F202&amp;"', '"&amp;FragenTemplate!G202&amp;"', '"&amp;FragenTemplate!I202&amp;"', '"&amp;FragenTemplate!K202&amp;"', '"&amp;FragenTemplate!M202&amp;"', "&amp;IF(EXACT(FragenTemplate!H202,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J202,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L202,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N202,"richtig"),"true","false")&amp;",true)"&amp;IF(A7="",";",",")))</f>
         <v>('Allgemeine BWL', , false, 'Für was steht BWL?', 'Busy Word Long', 'Betriebwirtschaftsehre', 'Betriebwirtschaftslehre', 'Betriebwissenslehre', false,true,true,false,true);</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C9),"",("('"&amp;FragenTemplate!C9&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D9),"","'"&amp;FragenTemplate!D9&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E9,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F9&amp;"', '"&amp;FragenTemplate!G9&amp;"', '"&amp;FragenTemplate!I9&amp;"', '"&amp;FragenTemplate!K9&amp;"', '"&amp;FragenTemplate!M9&amp;"', "&amp;IF(EXACT(FragenTemplate!H9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N9,"richtig"),"true","false")&amp;",true)"&amp;IF(A8="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C7" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C8),"",("('"&amp;FragenTemplate!C8&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D8),"","'"&amp;FragenTemplate!D8&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E8,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F8&amp;"', '"&amp;FragenTemplate!G8&amp;"', '"&amp;FragenTemplate!I8&amp;"', '"&amp;FragenTemplate!K8&amp;"', '"&amp;FragenTemplate!M8&amp;"', "&amp;IF(EXACT(FragenTemplate!H8,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J8,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L8,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N8,"richtig"),"true","false")&amp;",true)"&amp;IF(A8="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C10),"",("('"&amp;FragenTemplate!C10&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D10),"","'"&amp;FragenTemplate!D10&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E10,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F10&amp;"', '"&amp;FragenTemplate!G10&amp;"', '"&amp;FragenTemplate!I10&amp;"', '"&amp;FragenTemplate!K10&amp;"', '"&amp;FragenTemplate!M10&amp;"', "&amp;IF(EXACT(FragenTemplate!H10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N10,"richtig"),"true","false")&amp;",true)"&amp;IF(A9="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C8" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C9),"",("('"&amp;FragenTemplate!C9&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D9),"","'"&amp;FragenTemplate!D9&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E9,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F9&amp;"', '"&amp;FragenTemplate!G9&amp;"', '"&amp;FragenTemplate!I9&amp;"', '"&amp;FragenTemplate!K9&amp;"', '"&amp;FragenTemplate!M9&amp;"', "&amp;IF(EXACT(FragenTemplate!H9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L9,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N9,"richtig"),"true","false")&amp;",true)"&amp;IF(A9="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C11),"",("('"&amp;FragenTemplate!C11&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D11),"","'"&amp;FragenTemplate!D11&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E11,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F11&amp;"', '"&amp;FragenTemplate!G11&amp;"', '"&amp;FragenTemplate!I11&amp;"', '"&amp;FragenTemplate!K11&amp;"', '"&amp;FragenTemplate!M11&amp;"', "&amp;IF(EXACT(FragenTemplate!H11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N11,"richtig"),"true","false")&amp;",true)"&amp;IF(A10="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C9" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C10),"",("('"&amp;FragenTemplate!C10&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D10),"","'"&amp;FragenTemplate!D10&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E10,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F10&amp;"', '"&amp;FragenTemplate!G10&amp;"', '"&amp;FragenTemplate!I10&amp;"', '"&amp;FragenTemplate!K10&amp;"', '"&amp;FragenTemplate!M10&amp;"', "&amp;IF(EXACT(FragenTemplate!H10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L10,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N10,"richtig"),"true","false")&amp;",true)"&amp;IF(A10="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C12),"",("('"&amp;FragenTemplate!C12&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D12),"","'"&amp;FragenTemplate!D12&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E12,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F12&amp;"', '"&amp;FragenTemplate!G12&amp;"', '"&amp;FragenTemplate!I12&amp;"', '"&amp;FragenTemplate!K12&amp;"', '"&amp;FragenTemplate!M12&amp;"', "&amp;IF(EXACT(FragenTemplate!H12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N12,"richtig"),"true","false")&amp;",true)"&amp;IF(A11="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C10" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C11),"",("('"&amp;FragenTemplate!C11&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D11),"","'"&amp;FragenTemplate!D11&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E11,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F11&amp;"', '"&amp;FragenTemplate!G11&amp;"', '"&amp;FragenTemplate!I11&amp;"', '"&amp;FragenTemplate!K11&amp;"', '"&amp;FragenTemplate!M11&amp;"', "&amp;IF(EXACT(FragenTemplate!H11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L11,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N11,"richtig"),"true","false")&amp;",true)"&amp;IF(A11="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C13),"",("('"&amp;FragenTemplate!C13&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D13),"","'"&amp;FragenTemplate!D13&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E13,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F13&amp;"', '"&amp;FragenTemplate!G13&amp;"', '"&amp;FragenTemplate!I13&amp;"', '"&amp;FragenTemplate!K13&amp;"', '"&amp;FragenTemplate!M13&amp;"', "&amp;IF(EXACT(FragenTemplate!H13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N13,"richtig"),"true","false")&amp;",true)"&amp;IF(A12="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C11" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C12),"",("('"&amp;FragenTemplate!C12&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D12),"","'"&amp;FragenTemplate!D12&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E12,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F12&amp;"', '"&amp;FragenTemplate!G12&amp;"', '"&amp;FragenTemplate!I12&amp;"', '"&amp;FragenTemplate!K12&amp;"', '"&amp;FragenTemplate!M12&amp;"', "&amp;IF(EXACT(FragenTemplate!H12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L12,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N12,"richtig"),"true","false")&amp;",true)"&amp;IF(A12="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C14),"",("('"&amp;FragenTemplate!C14&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D14),"","'"&amp;FragenTemplate!D14&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E14,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F14&amp;"', '"&amp;FragenTemplate!G14&amp;"', '"&amp;FragenTemplate!I14&amp;"', '"&amp;FragenTemplate!K14&amp;"', '"&amp;FragenTemplate!M14&amp;"', "&amp;IF(EXACT(FragenTemplate!H14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N14,"richtig"),"true","false")&amp;",true)"&amp;IF(A13="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C12" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C13),"",("('"&amp;FragenTemplate!C13&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D13),"","'"&amp;FragenTemplate!D13&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E13,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F13&amp;"', '"&amp;FragenTemplate!G13&amp;"', '"&amp;FragenTemplate!I13&amp;"', '"&amp;FragenTemplate!K13&amp;"', '"&amp;FragenTemplate!M13&amp;"', "&amp;IF(EXACT(FragenTemplate!H13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L13,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N13,"richtig"),"true","false")&amp;",true)"&amp;IF(A13="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C15),"",("('"&amp;FragenTemplate!C15&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D15),"","'"&amp;FragenTemplate!D15&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E15,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F15&amp;"', '"&amp;FragenTemplate!G15&amp;"', '"&amp;FragenTemplate!I15&amp;"', '"&amp;FragenTemplate!K15&amp;"', '"&amp;FragenTemplate!M15&amp;"', "&amp;IF(EXACT(FragenTemplate!H15,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J15,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L15,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N15,"richtig"),"true","false")&amp;",true)"&amp;IF(A14="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C13" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C14),"",("('"&amp;FragenTemplate!C14&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D14),"","'"&amp;FragenTemplate!D14&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E14,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F14&amp;"', '"&amp;FragenTemplate!G14&amp;"', '"&amp;FragenTemplate!I14&amp;"', '"&amp;FragenTemplate!K14&amp;"', '"&amp;FragenTemplate!M14&amp;"', "&amp;IF(EXACT(FragenTemplate!H14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L14,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N14,"richtig"),"true","false")&amp;",true)"&amp;IF(A14="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C17),"",("('"&amp;FragenTemplate!C17&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D17),"","'"&amp;FragenTemplate!D17&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E17,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F17&amp;"', '"&amp;FragenTemplate!G17&amp;"', '"&amp;FragenTemplate!I17&amp;"', '"&amp;FragenTemplate!K17&amp;"', '"&amp;FragenTemplate!M17&amp;"', "&amp;IF(EXACT(FragenTemplate!H17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N17,"richtig"),"true","false")&amp;",true)"&amp;IF(A16="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C15" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C16),"",("('"&amp;FragenTemplate!C16&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D16),"","'"&amp;FragenTemplate!D16&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E16,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F16&amp;"', '"&amp;FragenTemplate!G16&amp;"', '"&amp;FragenTemplate!I16&amp;"', '"&amp;FragenTemplate!K16&amp;"', '"&amp;FragenTemplate!M16&amp;"', "&amp;IF(EXACT(FragenTemplate!H16,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J16,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L16,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N16,"richtig"),"true","false")&amp;",true)"&amp;IF(A16="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C18),"",("('"&amp;FragenTemplate!C18&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D18),"","'"&amp;FragenTemplate!D18&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E18,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F18&amp;"', '"&amp;FragenTemplate!G18&amp;"', '"&amp;FragenTemplate!I18&amp;"', '"&amp;FragenTemplate!K18&amp;"', '"&amp;FragenTemplate!M18&amp;"', "&amp;IF(EXACT(FragenTemplate!H18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N18,"richtig"),"true","false")&amp;",true)"&amp;IF(A17="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C16" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C17),"",("('"&amp;FragenTemplate!C17&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D17),"","'"&amp;FragenTemplate!D17&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E17,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F17&amp;"', '"&amp;FragenTemplate!G17&amp;"', '"&amp;FragenTemplate!I17&amp;"', '"&amp;FragenTemplate!K17&amp;"', '"&amp;FragenTemplate!M17&amp;"', "&amp;IF(EXACT(FragenTemplate!H17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L17,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N17,"richtig"),"true","false")&amp;",true)"&amp;IF(A17="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C19),"",("('"&amp;FragenTemplate!C19&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D19),"","'"&amp;FragenTemplate!D19&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E19,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F19&amp;"', '"&amp;FragenTemplate!G19&amp;"', '"&amp;FragenTemplate!I19&amp;"', '"&amp;FragenTemplate!K19&amp;"', '"&amp;FragenTemplate!M19&amp;"', "&amp;IF(EXACT(FragenTemplate!H19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N19,"richtig"),"true","false")&amp;",true)"&amp;IF(A18="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C17" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C18),"",("('"&amp;FragenTemplate!C18&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D18),"","'"&amp;FragenTemplate!D18&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E18,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F18&amp;"', '"&amp;FragenTemplate!G18&amp;"', '"&amp;FragenTemplate!I18&amp;"', '"&amp;FragenTemplate!K18&amp;"', '"&amp;FragenTemplate!M18&amp;"', "&amp;IF(EXACT(FragenTemplate!H18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L18,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N18,"richtig"),"true","false")&amp;",true)"&amp;IF(A18="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C20),"",("('"&amp;FragenTemplate!C20&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D20),"","'"&amp;FragenTemplate!D20&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E20,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F20&amp;"', '"&amp;FragenTemplate!G20&amp;"', '"&amp;FragenTemplate!I20&amp;"', '"&amp;FragenTemplate!K20&amp;"', '"&amp;FragenTemplate!M20&amp;"', "&amp;IF(EXACT(FragenTemplate!H20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N20,"richtig"),"true","false")&amp;",true)"&amp;IF(A19="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C18" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C19),"",("('"&amp;FragenTemplate!C19&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D19),"","'"&amp;FragenTemplate!D19&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E19,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F19&amp;"', '"&amp;FragenTemplate!G19&amp;"', '"&amp;FragenTemplate!I19&amp;"', '"&amp;FragenTemplate!K19&amp;"', '"&amp;FragenTemplate!M19&amp;"', "&amp;IF(EXACT(FragenTemplate!H19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L19,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N19,"richtig"),"true","false")&amp;",true)"&amp;IF(A19="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C21),"",("('"&amp;FragenTemplate!C21&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D21),"","'"&amp;FragenTemplate!D21&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E21,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F21&amp;"', '"&amp;FragenTemplate!G21&amp;"', '"&amp;FragenTemplate!I21&amp;"', '"&amp;FragenTemplate!K21&amp;"', '"&amp;FragenTemplate!M21&amp;"', "&amp;IF(EXACT(FragenTemplate!H21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N21,"richtig"),"true","false")&amp;",true)"&amp;IF(A20="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C19" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C20),"",("('"&amp;FragenTemplate!C20&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D20),"","'"&amp;FragenTemplate!D20&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E20,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F20&amp;"', '"&amp;FragenTemplate!G20&amp;"', '"&amp;FragenTemplate!I20&amp;"', '"&amp;FragenTemplate!K20&amp;"', '"&amp;FragenTemplate!M20&amp;"', "&amp;IF(EXACT(FragenTemplate!H20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L20,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N20,"richtig"),"true","false")&amp;",true)"&amp;IF(A20="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C22),"",("('"&amp;FragenTemplate!C22&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D22),"","'"&amp;FragenTemplate!D22&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E22,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F22&amp;"', '"&amp;FragenTemplate!G22&amp;"', '"&amp;FragenTemplate!I22&amp;"', '"&amp;FragenTemplate!K22&amp;"', '"&amp;FragenTemplate!M22&amp;"', "&amp;IF(EXACT(FragenTemplate!H22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N22,"richtig"),"true","false")&amp;",true)"&amp;IF(A21="",";",",")))</f>
-        <v/>
-      </c>
-      <c r="C20" s="6"/>
+        <f>IF(ISBLANK(FragenTemplate!C21),"",("('"&amp;FragenTemplate!C21&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D21),"","'"&amp;FragenTemplate!D21&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E21,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F21&amp;"', '"&amp;FragenTemplate!G21&amp;"', '"&amp;FragenTemplate!I21&amp;"', '"&amp;FragenTemplate!K21&amp;"', '"&amp;FragenTemplate!M21&amp;"', "&amp;IF(EXACT(FragenTemplate!H21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L21,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N21,"richtig"),"true","false")&amp;",true)"&amp;IF(A21="",";",",")))</f>
+        <v/>
+      </c>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C23),"",("('"&amp;FragenTemplate!C23&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D23),"","'"&amp;FragenTemplate!D23&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E23,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F23&amp;"', '"&amp;FragenTemplate!G23&amp;"', '"&amp;FragenTemplate!I23&amp;"', '"&amp;FragenTemplate!K23&amp;"', '"&amp;FragenTemplate!M23&amp;"', "&amp;IF(EXACT(FragenTemplate!H23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N23,"richtig"),"true","false")&amp;",true)"&amp;IF(A22="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C22),"",("('"&amp;FragenTemplate!C22&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D22),"","'"&amp;FragenTemplate!D22&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E22,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F22&amp;"', '"&amp;FragenTemplate!G22&amp;"', '"&amp;FragenTemplate!I22&amp;"', '"&amp;FragenTemplate!K22&amp;"', '"&amp;FragenTemplate!M22&amp;"', "&amp;IF(EXACT(FragenTemplate!H22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L22,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N22,"richtig"),"true","false")&amp;",true)"&amp;IF(A22="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C24),"",("('"&amp;FragenTemplate!C24&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D24),"","'"&amp;FragenTemplate!D24&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E24,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F24&amp;"', '"&amp;FragenTemplate!G24&amp;"', '"&amp;FragenTemplate!I24&amp;"', '"&amp;FragenTemplate!K24&amp;"', '"&amp;FragenTemplate!M24&amp;"', "&amp;IF(EXACT(FragenTemplate!H24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N24,"richtig"),"true","false")&amp;",true)"&amp;IF(A23="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C23),"",("('"&amp;FragenTemplate!C23&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D23),"","'"&amp;FragenTemplate!D23&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E23,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F23&amp;"', '"&amp;FragenTemplate!G23&amp;"', '"&amp;FragenTemplate!I23&amp;"', '"&amp;FragenTemplate!K23&amp;"', '"&amp;FragenTemplate!M23&amp;"', "&amp;IF(EXACT(FragenTemplate!H23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L23,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N23,"richtig"),"true","false")&amp;",true)"&amp;IF(A23="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C25),"",("('"&amp;FragenTemplate!C25&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D25),"","'"&amp;FragenTemplate!D25&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E25,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F25&amp;"', '"&amp;FragenTemplate!G25&amp;"', '"&amp;FragenTemplate!I25&amp;"', '"&amp;FragenTemplate!K25&amp;"', '"&amp;FragenTemplate!M25&amp;"', "&amp;IF(EXACT(FragenTemplate!H25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N25,"richtig"),"true","false")&amp;",true)"&amp;IF(A24="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C24),"",("('"&amp;FragenTemplate!C24&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D24),"","'"&amp;FragenTemplate!D24&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E24,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F24&amp;"', '"&amp;FragenTemplate!G24&amp;"', '"&amp;FragenTemplate!I24&amp;"', '"&amp;FragenTemplate!K24&amp;"', '"&amp;FragenTemplate!M24&amp;"', "&amp;IF(EXACT(FragenTemplate!H24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L24,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N24,"richtig"),"true","false")&amp;",true)"&amp;IF(A24="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C26),"",("('"&amp;FragenTemplate!C26&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D26),"","'"&amp;FragenTemplate!D26&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E26,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F26&amp;"', '"&amp;FragenTemplate!G26&amp;"', '"&amp;FragenTemplate!I26&amp;"', '"&amp;FragenTemplate!K26&amp;"', '"&amp;FragenTemplate!M26&amp;"', "&amp;IF(EXACT(FragenTemplate!H26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N26,"richtig"),"true","false")&amp;",true)"&amp;IF(A25="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C25),"",("('"&amp;FragenTemplate!C25&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D25),"","'"&amp;FragenTemplate!D25&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E25,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F25&amp;"', '"&amp;FragenTemplate!G25&amp;"', '"&amp;FragenTemplate!I25&amp;"', '"&amp;FragenTemplate!K25&amp;"', '"&amp;FragenTemplate!M25&amp;"', "&amp;IF(EXACT(FragenTemplate!H25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L25,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N25,"richtig"),"true","false")&amp;",true)"&amp;IF(A25="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C27),"",("('"&amp;FragenTemplate!C27&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D27),"","'"&amp;FragenTemplate!D27&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E27,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F27&amp;"', '"&amp;FragenTemplate!G27&amp;"', '"&amp;FragenTemplate!I27&amp;"', '"&amp;FragenTemplate!K27&amp;"', '"&amp;FragenTemplate!M27&amp;"', "&amp;IF(EXACT(FragenTemplate!H27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N27,"richtig"),"true","false")&amp;",true)"&amp;IF(A26="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C26),"",("('"&amp;FragenTemplate!C26&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D26),"","'"&amp;FragenTemplate!D26&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E26,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F26&amp;"', '"&amp;FragenTemplate!G26&amp;"', '"&amp;FragenTemplate!I26&amp;"', '"&amp;FragenTemplate!K26&amp;"', '"&amp;FragenTemplate!M26&amp;"', "&amp;IF(EXACT(FragenTemplate!H26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L26,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N26,"richtig"),"true","false")&amp;",true)"&amp;IF(A26="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C28),"",("('"&amp;FragenTemplate!C28&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D28),"","'"&amp;FragenTemplate!D28&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E28,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F28&amp;"', '"&amp;FragenTemplate!G28&amp;"', '"&amp;FragenTemplate!I28&amp;"', '"&amp;FragenTemplate!K28&amp;"', '"&amp;FragenTemplate!M28&amp;"', "&amp;IF(EXACT(FragenTemplate!H28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N28,"richtig"),"true","false")&amp;",true)"&amp;IF(A27="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C27),"",("('"&amp;FragenTemplate!C27&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D27),"","'"&amp;FragenTemplate!D27&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E27,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F27&amp;"', '"&amp;FragenTemplate!G27&amp;"', '"&amp;FragenTemplate!I27&amp;"', '"&amp;FragenTemplate!K27&amp;"', '"&amp;FragenTemplate!M27&amp;"', "&amp;IF(EXACT(FragenTemplate!H27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L27,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N27,"richtig"),"true","false")&amp;",true)"&amp;IF(A27="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C29),"",("('"&amp;FragenTemplate!C29&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D29),"","'"&amp;FragenTemplate!D29&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E29,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F29&amp;"', '"&amp;FragenTemplate!G29&amp;"', '"&amp;FragenTemplate!I29&amp;"', '"&amp;FragenTemplate!K29&amp;"', '"&amp;FragenTemplate!M29&amp;"', "&amp;IF(EXACT(FragenTemplate!H29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N29,"richtig"),"true","false")&amp;",true)"&amp;IF(A28="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C28),"",("('"&amp;FragenTemplate!C28&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D28),"","'"&amp;FragenTemplate!D28&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E28,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F28&amp;"', '"&amp;FragenTemplate!G28&amp;"', '"&amp;FragenTemplate!I28&amp;"', '"&amp;FragenTemplate!K28&amp;"', '"&amp;FragenTemplate!M28&amp;"', "&amp;IF(EXACT(FragenTemplate!H28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L28,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N28,"richtig"),"true","false")&amp;",true)"&amp;IF(A28="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C30),"",("('"&amp;FragenTemplate!C30&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D30),"","'"&amp;FragenTemplate!D30&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E30,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F30&amp;"', '"&amp;FragenTemplate!G30&amp;"', '"&amp;FragenTemplate!I30&amp;"', '"&amp;FragenTemplate!K30&amp;"', '"&amp;FragenTemplate!M30&amp;"', "&amp;IF(EXACT(FragenTemplate!H30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N30,"richtig"),"true","false")&amp;",true)"&amp;IF(A29="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C29),"",("('"&amp;FragenTemplate!C29&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D29),"","'"&amp;FragenTemplate!D29&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E29,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F29&amp;"', '"&amp;FragenTemplate!G29&amp;"', '"&amp;FragenTemplate!I29&amp;"', '"&amp;FragenTemplate!K29&amp;"', '"&amp;FragenTemplate!M29&amp;"', "&amp;IF(EXACT(FragenTemplate!H29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L29,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N29,"richtig"),"true","false")&amp;",true)"&amp;IF(A29="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C31),"",("('"&amp;FragenTemplate!C31&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D31),"","'"&amp;FragenTemplate!D31&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E31,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F31&amp;"', '"&amp;FragenTemplate!G31&amp;"', '"&amp;FragenTemplate!I31&amp;"', '"&amp;FragenTemplate!K31&amp;"', '"&amp;FragenTemplate!M31&amp;"', "&amp;IF(EXACT(FragenTemplate!H31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N31,"richtig"),"true","false")&amp;",true)"&amp;IF(A30="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C30),"",("('"&amp;FragenTemplate!C30&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D30),"","'"&amp;FragenTemplate!D30&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E30,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F30&amp;"', '"&amp;FragenTemplate!G30&amp;"', '"&amp;FragenTemplate!I30&amp;"', '"&amp;FragenTemplate!K30&amp;"', '"&amp;FragenTemplate!M30&amp;"', "&amp;IF(EXACT(FragenTemplate!H30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L30,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N30,"richtig"),"true","false")&amp;",true)"&amp;IF(A30="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C32),"",("('"&amp;FragenTemplate!C32&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D32),"","'"&amp;FragenTemplate!D32&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E32,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F32&amp;"', '"&amp;FragenTemplate!G32&amp;"', '"&amp;FragenTemplate!I32&amp;"', '"&amp;FragenTemplate!K32&amp;"', '"&amp;FragenTemplate!M32&amp;"', "&amp;IF(EXACT(FragenTemplate!H32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N32,"richtig"),"true","false")&amp;",true)"&amp;IF(A31="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C31),"",("('"&amp;FragenTemplate!C31&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D31),"","'"&amp;FragenTemplate!D31&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E31,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F31&amp;"', '"&amp;FragenTemplate!G31&amp;"', '"&amp;FragenTemplate!I31&amp;"', '"&amp;FragenTemplate!K31&amp;"', '"&amp;FragenTemplate!M31&amp;"', "&amp;IF(EXACT(FragenTemplate!H31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L31,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N31,"richtig"),"true","false")&amp;",true)"&amp;IF(A31="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C33),"",("('"&amp;FragenTemplate!C33&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D33),"","'"&amp;FragenTemplate!D33&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E33,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F33&amp;"', '"&amp;FragenTemplate!G33&amp;"', '"&amp;FragenTemplate!I33&amp;"', '"&amp;FragenTemplate!K33&amp;"', '"&amp;FragenTemplate!M33&amp;"', "&amp;IF(EXACT(FragenTemplate!H33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N33,"richtig"),"true","false")&amp;",true)"&amp;IF(A32="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C32),"",("('"&amp;FragenTemplate!C32&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D32),"","'"&amp;FragenTemplate!D32&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E32,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F32&amp;"', '"&amp;FragenTemplate!G32&amp;"', '"&amp;FragenTemplate!I32&amp;"', '"&amp;FragenTemplate!K32&amp;"', '"&amp;FragenTemplate!M32&amp;"', "&amp;IF(EXACT(FragenTemplate!H32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L32,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N32,"richtig"),"true","false")&amp;",true)"&amp;IF(A32="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C34),"",("('"&amp;FragenTemplate!C34&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D34),"","'"&amp;FragenTemplate!D34&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E34,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F34&amp;"', '"&amp;FragenTemplate!G34&amp;"', '"&amp;FragenTemplate!I34&amp;"', '"&amp;FragenTemplate!K34&amp;"', '"&amp;FragenTemplate!M34&amp;"', "&amp;IF(EXACT(FragenTemplate!H34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N34,"richtig"),"true","false")&amp;",true)"&amp;IF(A33="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C33),"",("('"&amp;FragenTemplate!C33&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D33),"","'"&amp;FragenTemplate!D33&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E33,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F33&amp;"', '"&amp;FragenTemplate!G33&amp;"', '"&amp;FragenTemplate!I33&amp;"', '"&amp;FragenTemplate!K33&amp;"', '"&amp;FragenTemplate!M33&amp;"', "&amp;IF(EXACT(FragenTemplate!H33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L33,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N33,"richtig"),"true","false")&amp;",true)"&amp;IF(A33="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C35),"",("('"&amp;FragenTemplate!C35&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D35),"","'"&amp;FragenTemplate!D35&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E35,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F35&amp;"', '"&amp;FragenTemplate!G35&amp;"', '"&amp;FragenTemplate!I35&amp;"', '"&amp;FragenTemplate!K35&amp;"', '"&amp;FragenTemplate!M35&amp;"', "&amp;IF(EXACT(FragenTemplate!H35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N35,"richtig"),"true","false")&amp;",true)"&amp;IF(A34="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C34),"",("('"&amp;FragenTemplate!C34&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D34),"","'"&amp;FragenTemplate!D34&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E34,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F34&amp;"', '"&amp;FragenTemplate!G34&amp;"', '"&amp;FragenTemplate!I34&amp;"', '"&amp;FragenTemplate!K34&amp;"', '"&amp;FragenTemplate!M34&amp;"', "&amp;IF(EXACT(FragenTemplate!H34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L34,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N34,"richtig"),"true","false")&amp;",true)"&amp;IF(A34="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C36),"",("('"&amp;FragenTemplate!C36&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D36),"","'"&amp;FragenTemplate!D36&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E36,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F36&amp;"', '"&amp;FragenTemplate!G36&amp;"', '"&amp;FragenTemplate!I36&amp;"', '"&amp;FragenTemplate!K36&amp;"', '"&amp;FragenTemplate!M36&amp;"', "&amp;IF(EXACT(FragenTemplate!H36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N36,"richtig"),"true","false")&amp;",true)"&amp;IF(A35="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C35),"",("('"&amp;FragenTemplate!C35&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D35),"","'"&amp;FragenTemplate!D35&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E35,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F35&amp;"', '"&amp;FragenTemplate!G35&amp;"', '"&amp;FragenTemplate!I35&amp;"', '"&amp;FragenTemplate!K35&amp;"', '"&amp;FragenTemplate!M35&amp;"', "&amp;IF(EXACT(FragenTemplate!H35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L35,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N35,"richtig"),"true","false")&amp;",true)"&amp;IF(A35="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C37),"",("('"&amp;FragenTemplate!C37&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D37),"","'"&amp;FragenTemplate!D37&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E37,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F37&amp;"', '"&amp;FragenTemplate!G37&amp;"', '"&amp;FragenTemplate!I37&amp;"', '"&amp;FragenTemplate!K37&amp;"', '"&amp;FragenTemplate!M37&amp;"', "&amp;IF(EXACT(FragenTemplate!H37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N37,"richtig"),"true","false")&amp;",true)"&amp;IF(A36="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C36),"",("('"&amp;FragenTemplate!C36&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D36),"","'"&amp;FragenTemplate!D36&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E36,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F36&amp;"', '"&amp;FragenTemplate!G36&amp;"', '"&amp;FragenTemplate!I36&amp;"', '"&amp;FragenTemplate!K36&amp;"', '"&amp;FragenTemplate!M36&amp;"', "&amp;IF(EXACT(FragenTemplate!H36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L36,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N36,"richtig"),"true","false")&amp;",true)"&amp;IF(A36="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C38),"",("('"&amp;FragenTemplate!C38&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D38),"","'"&amp;FragenTemplate!D38&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E38,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F38&amp;"', '"&amp;FragenTemplate!G38&amp;"', '"&amp;FragenTemplate!I38&amp;"', '"&amp;FragenTemplate!K38&amp;"', '"&amp;FragenTemplate!M38&amp;"', "&amp;IF(EXACT(FragenTemplate!H38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N38,"richtig"),"true","false")&amp;",true)"&amp;IF(A37="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C37),"",("('"&amp;FragenTemplate!C37&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D37),"","'"&amp;FragenTemplate!D37&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E37,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F37&amp;"', '"&amp;FragenTemplate!G37&amp;"', '"&amp;FragenTemplate!I37&amp;"', '"&amp;FragenTemplate!K37&amp;"', '"&amp;FragenTemplate!M37&amp;"', "&amp;IF(EXACT(FragenTemplate!H37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L37,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N37,"richtig"),"true","false")&amp;",true)"&amp;IF(A37="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C39),"",("('"&amp;FragenTemplate!C39&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D39),"","'"&amp;FragenTemplate!D39&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E39,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F39&amp;"', '"&amp;FragenTemplate!G39&amp;"', '"&amp;FragenTemplate!I39&amp;"', '"&amp;FragenTemplate!K39&amp;"', '"&amp;FragenTemplate!M39&amp;"', "&amp;IF(EXACT(FragenTemplate!H39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N39,"richtig"),"true","false")&amp;",true)"&amp;IF(A38="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C38),"",("('"&amp;FragenTemplate!C38&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D38),"","'"&amp;FragenTemplate!D38&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E38,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F38&amp;"', '"&amp;FragenTemplate!G38&amp;"', '"&amp;FragenTemplate!I38&amp;"', '"&amp;FragenTemplate!K38&amp;"', '"&amp;FragenTemplate!M38&amp;"', "&amp;IF(EXACT(FragenTemplate!H38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L38,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N38,"richtig"),"true","false")&amp;",true)"&amp;IF(A38="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C40),"",("('"&amp;FragenTemplate!C40&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D40),"","'"&amp;FragenTemplate!D40&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E40,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F40&amp;"', '"&amp;FragenTemplate!G40&amp;"', '"&amp;FragenTemplate!I40&amp;"', '"&amp;FragenTemplate!K40&amp;"', '"&amp;FragenTemplate!M40&amp;"', "&amp;IF(EXACT(FragenTemplate!H40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N40,"richtig"),"true","false")&amp;",true)"&amp;IF(A39="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C39),"",("('"&amp;FragenTemplate!C39&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D39),"","'"&amp;FragenTemplate!D39&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E39,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F39&amp;"', '"&amp;FragenTemplate!G39&amp;"', '"&amp;FragenTemplate!I39&amp;"', '"&amp;FragenTemplate!K39&amp;"', '"&amp;FragenTemplate!M39&amp;"', "&amp;IF(EXACT(FragenTemplate!H39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L39,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N39,"richtig"),"true","false")&amp;",true)"&amp;IF(A39="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C41),"",("('"&amp;FragenTemplate!C41&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D41),"","'"&amp;FragenTemplate!D41&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E41,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F41&amp;"', '"&amp;FragenTemplate!G41&amp;"', '"&amp;FragenTemplate!I41&amp;"', '"&amp;FragenTemplate!K41&amp;"', '"&amp;FragenTemplate!M41&amp;"', "&amp;IF(EXACT(FragenTemplate!H41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N41,"richtig"),"true","false")&amp;",true)"&amp;IF(A40="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C40),"",("('"&amp;FragenTemplate!C40&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D40),"","'"&amp;FragenTemplate!D40&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E40,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F40&amp;"', '"&amp;FragenTemplate!G40&amp;"', '"&amp;FragenTemplate!I40&amp;"', '"&amp;FragenTemplate!K40&amp;"', '"&amp;FragenTemplate!M40&amp;"', "&amp;IF(EXACT(FragenTemplate!H40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L40,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N40,"richtig"),"true","false")&amp;",true)"&amp;IF(A40="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C42),"",("('"&amp;FragenTemplate!C42&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D42),"","'"&amp;FragenTemplate!D42&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E42,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F42&amp;"', '"&amp;FragenTemplate!G42&amp;"', '"&amp;FragenTemplate!I42&amp;"', '"&amp;FragenTemplate!K42&amp;"', '"&amp;FragenTemplate!M42&amp;"', "&amp;IF(EXACT(FragenTemplate!H42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N42,"richtig"),"true","false")&amp;",true)"&amp;IF(A41="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C41),"",("('"&amp;FragenTemplate!C41&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D41),"","'"&amp;FragenTemplate!D41&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E41,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F41&amp;"', '"&amp;FragenTemplate!G41&amp;"', '"&amp;FragenTemplate!I41&amp;"', '"&amp;FragenTemplate!K41&amp;"', '"&amp;FragenTemplate!M41&amp;"', "&amp;IF(EXACT(FragenTemplate!H41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L41,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N41,"richtig"),"true","false")&amp;",true)"&amp;IF(A41="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C43),"",("('"&amp;FragenTemplate!C43&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D43),"","'"&amp;FragenTemplate!D43&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E43,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F43&amp;"', '"&amp;FragenTemplate!G43&amp;"', '"&amp;FragenTemplate!I43&amp;"', '"&amp;FragenTemplate!K43&amp;"', '"&amp;FragenTemplate!M43&amp;"', "&amp;IF(EXACT(FragenTemplate!H43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N43,"richtig"),"true","false")&amp;",true)"&amp;IF(A42="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C42),"",("('"&amp;FragenTemplate!C42&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D42),"","'"&amp;FragenTemplate!D42&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E42,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F42&amp;"', '"&amp;FragenTemplate!G42&amp;"', '"&amp;FragenTemplate!I42&amp;"', '"&amp;FragenTemplate!K42&amp;"', '"&amp;FragenTemplate!M42&amp;"', "&amp;IF(EXACT(FragenTemplate!H42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L42,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N42,"richtig"),"true","false")&amp;",true)"&amp;IF(A42="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C44),"",("('"&amp;FragenTemplate!C44&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D44),"","'"&amp;FragenTemplate!D44&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E44,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F44&amp;"', '"&amp;FragenTemplate!G44&amp;"', '"&amp;FragenTemplate!I44&amp;"', '"&amp;FragenTemplate!K44&amp;"', '"&amp;FragenTemplate!M44&amp;"', "&amp;IF(EXACT(FragenTemplate!H44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N44,"richtig"),"true","false")&amp;",true)"&amp;IF(A43="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C43),"",("('"&amp;FragenTemplate!C43&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D43),"","'"&amp;FragenTemplate!D43&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E43,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F43&amp;"', '"&amp;FragenTemplate!G43&amp;"', '"&amp;FragenTemplate!I43&amp;"', '"&amp;FragenTemplate!K43&amp;"', '"&amp;FragenTemplate!M43&amp;"', "&amp;IF(EXACT(FragenTemplate!H43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L43,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N43,"richtig"),"true","false")&amp;",true)"&amp;IF(A43="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C45),"",("('"&amp;FragenTemplate!C45&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D45),"","'"&amp;FragenTemplate!D45&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E45,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F45&amp;"', '"&amp;FragenTemplate!G45&amp;"', '"&amp;FragenTemplate!I45&amp;"', '"&amp;FragenTemplate!K45&amp;"', '"&amp;FragenTemplate!M45&amp;"', "&amp;IF(EXACT(FragenTemplate!H45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N45,"richtig"),"true","false")&amp;",true)"&amp;IF(A44="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C44),"",("('"&amp;FragenTemplate!C44&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D44),"","'"&amp;FragenTemplate!D44&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E44,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F44&amp;"', '"&amp;FragenTemplate!G44&amp;"', '"&amp;FragenTemplate!I44&amp;"', '"&amp;FragenTemplate!K44&amp;"', '"&amp;FragenTemplate!M44&amp;"', "&amp;IF(EXACT(FragenTemplate!H44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L44,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N44,"richtig"),"true","false")&amp;",true)"&amp;IF(A44="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C46),"",("('"&amp;FragenTemplate!C46&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D46),"","'"&amp;FragenTemplate!D46&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E46,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F46&amp;"', '"&amp;FragenTemplate!G46&amp;"', '"&amp;FragenTemplate!I46&amp;"', '"&amp;FragenTemplate!K46&amp;"', '"&amp;FragenTemplate!M46&amp;"', "&amp;IF(EXACT(FragenTemplate!H46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N46,"richtig"),"true","false")&amp;",true)"&amp;IF(A45="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C45),"",("('"&amp;FragenTemplate!C45&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D45),"","'"&amp;FragenTemplate!D45&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E45,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F45&amp;"', '"&amp;FragenTemplate!G45&amp;"', '"&amp;FragenTemplate!I45&amp;"', '"&amp;FragenTemplate!K45&amp;"', '"&amp;FragenTemplate!M45&amp;"', "&amp;IF(EXACT(FragenTemplate!H45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L45,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N45,"richtig"),"true","false")&amp;",true)"&amp;IF(A45="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C47),"",("('"&amp;FragenTemplate!C47&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D47),"","'"&amp;FragenTemplate!D47&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E47,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F47&amp;"', '"&amp;FragenTemplate!G47&amp;"', '"&amp;FragenTemplate!I47&amp;"', '"&amp;FragenTemplate!K47&amp;"', '"&amp;FragenTemplate!M47&amp;"', "&amp;IF(EXACT(FragenTemplate!H47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N47,"richtig"),"true","false")&amp;",true)"&amp;IF(A46="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C46),"",("('"&amp;FragenTemplate!C46&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D46),"","'"&amp;FragenTemplate!D46&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E46,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F46&amp;"', '"&amp;FragenTemplate!G46&amp;"', '"&amp;FragenTemplate!I46&amp;"', '"&amp;FragenTemplate!K46&amp;"', '"&amp;FragenTemplate!M46&amp;"', "&amp;IF(EXACT(FragenTemplate!H46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L46,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N46,"richtig"),"true","false")&amp;",true)"&amp;IF(A46="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C48),"",("('"&amp;FragenTemplate!C48&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D48),"","'"&amp;FragenTemplate!D48&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E48,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F48&amp;"', '"&amp;FragenTemplate!G48&amp;"', '"&amp;FragenTemplate!I48&amp;"', '"&amp;FragenTemplate!K48&amp;"', '"&amp;FragenTemplate!M48&amp;"', "&amp;IF(EXACT(FragenTemplate!H48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N48,"richtig"),"true","false")&amp;",true)"&amp;IF(A47="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C47),"",("('"&amp;FragenTemplate!C47&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D47),"","'"&amp;FragenTemplate!D47&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E47,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F47&amp;"', '"&amp;FragenTemplate!G47&amp;"', '"&amp;FragenTemplate!I47&amp;"', '"&amp;FragenTemplate!K47&amp;"', '"&amp;FragenTemplate!M47&amp;"', "&amp;IF(EXACT(FragenTemplate!H47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L47,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N47,"richtig"),"true","false")&amp;",true)"&amp;IF(A47="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C49),"",("('"&amp;FragenTemplate!C49&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D49),"","'"&amp;FragenTemplate!D49&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E49,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F49&amp;"', '"&amp;FragenTemplate!G49&amp;"', '"&amp;FragenTemplate!I49&amp;"', '"&amp;FragenTemplate!K49&amp;"', '"&amp;FragenTemplate!M49&amp;"', "&amp;IF(EXACT(FragenTemplate!H49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N49,"richtig"),"true","false")&amp;",true)"&amp;IF(A48="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C48),"",("('"&amp;FragenTemplate!C48&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D48),"","'"&amp;FragenTemplate!D48&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E48,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F48&amp;"', '"&amp;FragenTemplate!G48&amp;"', '"&amp;FragenTemplate!I48&amp;"', '"&amp;FragenTemplate!K48&amp;"', '"&amp;FragenTemplate!M48&amp;"', "&amp;IF(EXACT(FragenTemplate!H48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L48,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N48,"richtig"),"true","false")&amp;",true)"&amp;IF(A48="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C50),"",("('"&amp;FragenTemplate!C50&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D50),"","'"&amp;FragenTemplate!D50&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E50,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F50&amp;"', '"&amp;FragenTemplate!G50&amp;"', '"&amp;FragenTemplate!I50&amp;"', '"&amp;FragenTemplate!K50&amp;"', '"&amp;FragenTemplate!M50&amp;"', "&amp;IF(EXACT(FragenTemplate!H50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N50,"richtig"),"true","false")&amp;",true)"&amp;IF(A49="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C49),"",("('"&amp;FragenTemplate!C49&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D49),"","'"&amp;FragenTemplate!D49&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E49,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F49&amp;"', '"&amp;FragenTemplate!G49&amp;"', '"&amp;FragenTemplate!I49&amp;"', '"&amp;FragenTemplate!K49&amp;"', '"&amp;FragenTemplate!M49&amp;"', "&amp;IF(EXACT(FragenTemplate!H49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L49,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N49,"richtig"),"true","false")&amp;",true)"&amp;IF(A49="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C51),"",("('"&amp;FragenTemplate!C51&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D51),"","'"&amp;FragenTemplate!D51&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E51,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F51&amp;"', '"&amp;FragenTemplate!G51&amp;"', '"&amp;FragenTemplate!I51&amp;"', '"&amp;FragenTemplate!K51&amp;"', '"&amp;FragenTemplate!M51&amp;"', "&amp;IF(EXACT(FragenTemplate!H51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N51,"richtig"),"true","false")&amp;",true)"&amp;IF(A50="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C50),"",("('"&amp;FragenTemplate!C50&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D50),"","'"&amp;FragenTemplate!D50&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E50,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F50&amp;"', '"&amp;FragenTemplate!G50&amp;"', '"&amp;FragenTemplate!I50&amp;"', '"&amp;FragenTemplate!K50&amp;"', '"&amp;FragenTemplate!M50&amp;"', "&amp;IF(EXACT(FragenTemplate!H50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L50,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N50,"richtig"),"true","false")&amp;",true)"&amp;IF(A50="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C52),"",("('"&amp;FragenTemplate!C52&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D52),"","'"&amp;FragenTemplate!D52&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E52,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F52&amp;"', '"&amp;FragenTemplate!G52&amp;"', '"&amp;FragenTemplate!I52&amp;"', '"&amp;FragenTemplate!K52&amp;"', '"&amp;FragenTemplate!M52&amp;"', "&amp;IF(EXACT(FragenTemplate!H52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N52,"richtig"),"true","false")&amp;",true)"&amp;IF(A51="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C51),"",("('"&amp;FragenTemplate!C51&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D51),"","'"&amp;FragenTemplate!D51&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E51,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F51&amp;"', '"&amp;FragenTemplate!G51&amp;"', '"&amp;FragenTemplate!I51&amp;"', '"&amp;FragenTemplate!K51&amp;"', '"&amp;FragenTemplate!M51&amp;"', "&amp;IF(EXACT(FragenTemplate!H51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L51,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N51,"richtig"),"true","false")&amp;",true)"&amp;IF(A51="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C53),"",("('"&amp;FragenTemplate!C53&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D53),"","'"&amp;FragenTemplate!D53&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E53,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F53&amp;"', '"&amp;FragenTemplate!G53&amp;"', '"&amp;FragenTemplate!I53&amp;"', '"&amp;FragenTemplate!K53&amp;"', '"&amp;FragenTemplate!M53&amp;"', "&amp;IF(EXACT(FragenTemplate!H53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N53,"richtig"),"true","false")&amp;",true)"&amp;IF(A52="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C52),"",("('"&amp;FragenTemplate!C52&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D52),"","'"&amp;FragenTemplate!D52&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E52,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F52&amp;"', '"&amp;FragenTemplate!G52&amp;"', '"&amp;FragenTemplate!I52&amp;"', '"&amp;FragenTemplate!K52&amp;"', '"&amp;FragenTemplate!M52&amp;"', "&amp;IF(EXACT(FragenTemplate!H52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L52,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N52,"richtig"),"true","false")&amp;",true)"&amp;IF(A52="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C54),"",("('"&amp;FragenTemplate!C54&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D54),"","'"&amp;FragenTemplate!D54&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E54,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F54&amp;"', '"&amp;FragenTemplate!G54&amp;"', '"&amp;FragenTemplate!I54&amp;"', '"&amp;FragenTemplate!K54&amp;"', '"&amp;FragenTemplate!M54&amp;"', "&amp;IF(EXACT(FragenTemplate!H54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N54,"richtig"),"true","false")&amp;",true)"&amp;IF(A53="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C53),"",("('"&amp;FragenTemplate!C53&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D53),"","'"&amp;FragenTemplate!D53&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E53,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F53&amp;"', '"&amp;FragenTemplate!G53&amp;"', '"&amp;FragenTemplate!I53&amp;"', '"&amp;FragenTemplate!K53&amp;"', '"&amp;FragenTemplate!M53&amp;"', "&amp;IF(EXACT(FragenTemplate!H53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L53,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N53,"richtig"),"true","false")&amp;",true)"&amp;IF(A53="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C55),"",("('"&amp;FragenTemplate!C55&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D55),"","'"&amp;FragenTemplate!D55&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E55,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F55&amp;"', '"&amp;FragenTemplate!G55&amp;"', '"&amp;FragenTemplate!I55&amp;"', '"&amp;FragenTemplate!K55&amp;"', '"&amp;FragenTemplate!M55&amp;"', "&amp;IF(EXACT(FragenTemplate!H55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N55,"richtig"),"true","false")&amp;",true)"&amp;IF(A54="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C54),"",("('"&amp;FragenTemplate!C54&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D54),"","'"&amp;FragenTemplate!D54&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E54,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F54&amp;"', '"&amp;FragenTemplate!G54&amp;"', '"&amp;FragenTemplate!I54&amp;"', '"&amp;FragenTemplate!K54&amp;"', '"&amp;FragenTemplate!M54&amp;"', "&amp;IF(EXACT(FragenTemplate!H54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L54,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N54,"richtig"),"true","false")&amp;",true)"&amp;IF(A54="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C56),"",("('"&amp;FragenTemplate!C56&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D56),"","'"&amp;FragenTemplate!D56&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E56,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F56&amp;"', '"&amp;FragenTemplate!G56&amp;"', '"&amp;FragenTemplate!I56&amp;"', '"&amp;FragenTemplate!K56&amp;"', '"&amp;FragenTemplate!M56&amp;"', "&amp;IF(EXACT(FragenTemplate!H56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N56,"richtig"),"true","false")&amp;",true)"&amp;IF(A55="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C55),"",("('"&amp;FragenTemplate!C55&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D55),"","'"&amp;FragenTemplate!D55&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E55,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F55&amp;"', '"&amp;FragenTemplate!G55&amp;"', '"&amp;FragenTemplate!I55&amp;"', '"&amp;FragenTemplate!K55&amp;"', '"&amp;FragenTemplate!M55&amp;"', "&amp;IF(EXACT(FragenTemplate!H55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L55,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N55,"richtig"),"true","false")&amp;",true)"&amp;IF(A55="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C57),"",("('"&amp;FragenTemplate!C57&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D57),"","'"&amp;FragenTemplate!D57&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E57,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F57&amp;"', '"&amp;FragenTemplate!G57&amp;"', '"&amp;FragenTemplate!I57&amp;"', '"&amp;FragenTemplate!K57&amp;"', '"&amp;FragenTemplate!M57&amp;"', "&amp;IF(EXACT(FragenTemplate!H57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N57,"richtig"),"true","false")&amp;",true)"&amp;IF(A56="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C56),"",("('"&amp;FragenTemplate!C56&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D56),"","'"&amp;FragenTemplate!D56&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E56,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F56&amp;"', '"&amp;FragenTemplate!G56&amp;"', '"&amp;FragenTemplate!I56&amp;"', '"&amp;FragenTemplate!K56&amp;"', '"&amp;FragenTemplate!M56&amp;"', "&amp;IF(EXACT(FragenTemplate!H56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L56,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N56,"richtig"),"true","false")&amp;",true)"&amp;IF(A56="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C58),"",("('"&amp;FragenTemplate!C58&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D58),"","'"&amp;FragenTemplate!D58&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E58,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F58&amp;"', '"&amp;FragenTemplate!G58&amp;"', '"&amp;FragenTemplate!I58&amp;"', '"&amp;FragenTemplate!K58&amp;"', '"&amp;FragenTemplate!M58&amp;"', "&amp;IF(EXACT(FragenTemplate!H58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N58,"richtig"),"true","false")&amp;",true)"&amp;IF(A57="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C57),"",("('"&amp;FragenTemplate!C57&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D57),"","'"&amp;FragenTemplate!D57&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E57,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F57&amp;"', '"&amp;FragenTemplate!G57&amp;"', '"&amp;FragenTemplate!I57&amp;"', '"&amp;FragenTemplate!K57&amp;"', '"&amp;FragenTemplate!M57&amp;"', "&amp;IF(EXACT(FragenTemplate!H57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L57,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N57,"richtig"),"true","false")&amp;",true)"&amp;IF(A57="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C59),"",("('"&amp;FragenTemplate!C59&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D59),"","'"&amp;FragenTemplate!D59&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E59,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F59&amp;"', '"&amp;FragenTemplate!G59&amp;"', '"&amp;FragenTemplate!I59&amp;"', '"&amp;FragenTemplate!K59&amp;"', '"&amp;FragenTemplate!M59&amp;"', "&amp;IF(EXACT(FragenTemplate!H59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N59,"richtig"),"true","false")&amp;",true)"&amp;IF(A58="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C58),"",("('"&amp;FragenTemplate!C58&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D58),"","'"&amp;FragenTemplate!D58&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E58,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F58&amp;"', '"&amp;FragenTemplate!G58&amp;"', '"&amp;FragenTemplate!I58&amp;"', '"&amp;FragenTemplate!K58&amp;"', '"&amp;FragenTemplate!M58&amp;"', "&amp;IF(EXACT(FragenTemplate!H58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L58,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N58,"richtig"),"true","false")&amp;",true)"&amp;IF(A58="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C60),"",("('"&amp;FragenTemplate!C60&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D60),"","'"&amp;FragenTemplate!D60&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E60,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F60&amp;"', '"&amp;FragenTemplate!G60&amp;"', '"&amp;FragenTemplate!I60&amp;"', '"&amp;FragenTemplate!K60&amp;"', '"&amp;FragenTemplate!M60&amp;"', "&amp;IF(EXACT(FragenTemplate!H60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N60,"richtig"),"true","false")&amp;",true)"&amp;IF(A59="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C59),"",("('"&amp;FragenTemplate!C59&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D59),"","'"&amp;FragenTemplate!D59&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E59,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F59&amp;"', '"&amp;FragenTemplate!G59&amp;"', '"&amp;FragenTemplate!I59&amp;"', '"&amp;FragenTemplate!K59&amp;"', '"&amp;FragenTemplate!M59&amp;"', "&amp;IF(EXACT(FragenTemplate!H59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L59,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N59,"richtig"),"true","false")&amp;",true)"&amp;IF(A59="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C61),"",("('"&amp;FragenTemplate!C61&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D61),"","'"&amp;FragenTemplate!D61&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E61,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F61&amp;"', '"&amp;FragenTemplate!G61&amp;"', '"&amp;FragenTemplate!I61&amp;"', '"&amp;FragenTemplate!K61&amp;"', '"&amp;FragenTemplate!M61&amp;"', "&amp;IF(EXACT(FragenTemplate!H61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N61,"richtig"),"true","false")&amp;",true)"&amp;IF(A60="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C60),"",("('"&amp;FragenTemplate!C60&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D60),"","'"&amp;FragenTemplate!D60&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E60,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F60&amp;"', '"&amp;FragenTemplate!G60&amp;"', '"&amp;FragenTemplate!I60&amp;"', '"&amp;FragenTemplate!K60&amp;"', '"&amp;FragenTemplate!M60&amp;"', "&amp;IF(EXACT(FragenTemplate!H60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L60,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N60,"richtig"),"true","false")&amp;",true)"&amp;IF(A60="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C62),"",("('"&amp;FragenTemplate!C62&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D62),"","'"&amp;FragenTemplate!D62&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E62,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F62&amp;"', '"&amp;FragenTemplate!G62&amp;"', '"&amp;FragenTemplate!I62&amp;"', '"&amp;FragenTemplate!K62&amp;"', '"&amp;FragenTemplate!M62&amp;"', "&amp;IF(EXACT(FragenTemplate!H62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N62,"richtig"),"true","false")&amp;",true)"&amp;IF(A61="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C61),"",("('"&amp;FragenTemplate!C61&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D61),"","'"&amp;FragenTemplate!D61&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E61,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F61&amp;"', '"&amp;FragenTemplate!G61&amp;"', '"&amp;FragenTemplate!I61&amp;"', '"&amp;FragenTemplate!K61&amp;"', '"&amp;FragenTemplate!M61&amp;"', "&amp;IF(EXACT(FragenTemplate!H61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L61,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N61,"richtig"),"true","false")&amp;",true)"&amp;IF(A61="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C63),"",("('"&amp;FragenTemplate!C63&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D63),"","'"&amp;FragenTemplate!D63&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E63,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F63&amp;"', '"&amp;FragenTemplate!G63&amp;"', '"&amp;FragenTemplate!I63&amp;"', '"&amp;FragenTemplate!K63&amp;"', '"&amp;FragenTemplate!M63&amp;"', "&amp;IF(EXACT(FragenTemplate!H63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N63,"richtig"),"true","false")&amp;",true)"&amp;IF(A62="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C62),"",("('"&amp;FragenTemplate!C62&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D62),"","'"&amp;FragenTemplate!D62&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E62,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F62&amp;"', '"&amp;FragenTemplate!G62&amp;"', '"&amp;FragenTemplate!I62&amp;"', '"&amp;FragenTemplate!K62&amp;"', '"&amp;FragenTemplate!M62&amp;"', "&amp;IF(EXACT(FragenTemplate!H62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L62,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N62,"richtig"),"true","false")&amp;",true)"&amp;IF(A62="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C64),"",("('"&amp;FragenTemplate!C64&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D64),"","'"&amp;FragenTemplate!D64&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E64,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F64&amp;"', '"&amp;FragenTemplate!G64&amp;"', '"&amp;FragenTemplate!I64&amp;"', '"&amp;FragenTemplate!K64&amp;"', '"&amp;FragenTemplate!M64&amp;"', "&amp;IF(EXACT(FragenTemplate!H64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N64,"richtig"),"true","false")&amp;",true)"&amp;IF(A63="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C63),"",("('"&amp;FragenTemplate!C63&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D63),"","'"&amp;FragenTemplate!D63&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E63,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F63&amp;"', '"&amp;FragenTemplate!G63&amp;"', '"&amp;FragenTemplate!I63&amp;"', '"&amp;FragenTemplate!K63&amp;"', '"&amp;FragenTemplate!M63&amp;"', "&amp;IF(EXACT(FragenTemplate!H63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L63,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N63,"richtig"),"true","false")&amp;",true)"&amp;IF(A63="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C65),"",("('"&amp;FragenTemplate!C65&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D65),"","'"&amp;FragenTemplate!D65&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E65,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F65&amp;"', '"&amp;FragenTemplate!G65&amp;"', '"&amp;FragenTemplate!I65&amp;"', '"&amp;FragenTemplate!K65&amp;"', '"&amp;FragenTemplate!M65&amp;"', "&amp;IF(EXACT(FragenTemplate!H65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N65,"richtig"),"true","false")&amp;",true)"&amp;IF(A64="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C64),"",("('"&amp;FragenTemplate!C64&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D64),"","'"&amp;FragenTemplate!D64&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E64,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F64&amp;"', '"&amp;FragenTemplate!G64&amp;"', '"&amp;FragenTemplate!I64&amp;"', '"&amp;FragenTemplate!K64&amp;"', '"&amp;FragenTemplate!M64&amp;"', "&amp;IF(EXACT(FragenTemplate!H64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L64,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N64,"richtig"),"true","false")&amp;",true)"&amp;IF(A64="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C66),"",("('"&amp;FragenTemplate!C66&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D66),"","'"&amp;FragenTemplate!D66&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E66,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F66&amp;"', '"&amp;FragenTemplate!G66&amp;"', '"&amp;FragenTemplate!I66&amp;"', '"&amp;FragenTemplate!K66&amp;"', '"&amp;FragenTemplate!M66&amp;"', "&amp;IF(EXACT(FragenTemplate!H66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N66,"richtig"),"true","false")&amp;",true)"&amp;IF(A65="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C65),"",("('"&amp;FragenTemplate!C65&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D65),"","'"&amp;FragenTemplate!D65&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E65,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F65&amp;"', '"&amp;FragenTemplate!G65&amp;"', '"&amp;FragenTemplate!I65&amp;"', '"&amp;FragenTemplate!K65&amp;"', '"&amp;FragenTemplate!M65&amp;"', "&amp;IF(EXACT(FragenTemplate!H65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L65,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N65,"richtig"),"true","false")&amp;",true)"&amp;IF(A65="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C67),"",("('"&amp;FragenTemplate!C67&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D67),"","'"&amp;FragenTemplate!D67&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E67,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F67&amp;"', '"&amp;FragenTemplate!G67&amp;"', '"&amp;FragenTemplate!I67&amp;"', '"&amp;FragenTemplate!K67&amp;"', '"&amp;FragenTemplate!M67&amp;"', "&amp;IF(EXACT(FragenTemplate!H67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N67,"richtig"),"true","false")&amp;",true)"&amp;IF(A66="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C66),"",("('"&amp;FragenTemplate!C66&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D66),"","'"&amp;FragenTemplate!D66&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E66,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F66&amp;"', '"&amp;FragenTemplate!G66&amp;"', '"&amp;FragenTemplate!I66&amp;"', '"&amp;FragenTemplate!K66&amp;"', '"&amp;FragenTemplate!M66&amp;"', "&amp;IF(EXACT(FragenTemplate!H66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L66,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N66,"richtig"),"true","false")&amp;",true)"&amp;IF(A66="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C68),"",("('"&amp;FragenTemplate!C68&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D68),"","'"&amp;FragenTemplate!D68&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E68,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F68&amp;"', '"&amp;FragenTemplate!G68&amp;"', '"&amp;FragenTemplate!I68&amp;"', '"&amp;FragenTemplate!K68&amp;"', '"&amp;FragenTemplate!M68&amp;"', "&amp;IF(EXACT(FragenTemplate!H68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N68,"richtig"),"true","false")&amp;",true)"&amp;IF(A67="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C67),"",("('"&amp;FragenTemplate!C67&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D67),"","'"&amp;FragenTemplate!D67&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E67,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F67&amp;"', '"&amp;FragenTemplate!G67&amp;"', '"&amp;FragenTemplate!I67&amp;"', '"&amp;FragenTemplate!K67&amp;"', '"&amp;FragenTemplate!M67&amp;"', "&amp;IF(EXACT(FragenTemplate!H67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L67,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N67,"richtig"),"true","false")&amp;",true)"&amp;IF(A67="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C69),"",("('"&amp;FragenTemplate!C69&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D69),"","'"&amp;FragenTemplate!D69&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E69,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F69&amp;"', '"&amp;FragenTemplate!G69&amp;"', '"&amp;FragenTemplate!I69&amp;"', '"&amp;FragenTemplate!K69&amp;"', '"&amp;FragenTemplate!M69&amp;"', "&amp;IF(EXACT(FragenTemplate!H69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N69,"richtig"),"true","false")&amp;",true)"&amp;IF(A68="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C68),"",("('"&amp;FragenTemplate!C68&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D68),"","'"&amp;FragenTemplate!D68&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E68,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F68&amp;"', '"&amp;FragenTemplate!G68&amp;"', '"&amp;FragenTemplate!I68&amp;"', '"&amp;FragenTemplate!K68&amp;"', '"&amp;FragenTemplate!M68&amp;"', "&amp;IF(EXACT(FragenTemplate!H68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L68,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N68,"richtig"),"true","false")&amp;",true)"&amp;IF(A68="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C70),"",("('"&amp;FragenTemplate!C70&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D70),"","'"&amp;FragenTemplate!D70&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E70,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F70&amp;"', '"&amp;FragenTemplate!G70&amp;"', '"&amp;FragenTemplate!I70&amp;"', '"&amp;FragenTemplate!K70&amp;"', '"&amp;FragenTemplate!M70&amp;"', "&amp;IF(EXACT(FragenTemplate!H70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N70,"richtig"),"true","false")&amp;",true)"&amp;IF(A69="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C69),"",("('"&amp;FragenTemplate!C69&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D69),"","'"&amp;FragenTemplate!D69&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E69,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F69&amp;"', '"&amp;FragenTemplate!G69&amp;"', '"&amp;FragenTemplate!I69&amp;"', '"&amp;FragenTemplate!K69&amp;"', '"&amp;FragenTemplate!M69&amp;"', "&amp;IF(EXACT(FragenTemplate!H69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L69,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N69,"richtig"),"true","false")&amp;",true)"&amp;IF(A69="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C71),"",("('"&amp;FragenTemplate!C71&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D71),"","'"&amp;FragenTemplate!D71&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E71,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F71&amp;"', '"&amp;FragenTemplate!G71&amp;"', '"&amp;FragenTemplate!I71&amp;"', '"&amp;FragenTemplate!K71&amp;"', '"&amp;FragenTemplate!M71&amp;"', "&amp;IF(EXACT(FragenTemplate!H71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N71,"richtig"),"true","false")&amp;",true)"&amp;IF(A70="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C70),"",("('"&amp;FragenTemplate!C70&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D70),"","'"&amp;FragenTemplate!D70&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E70,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F70&amp;"', '"&amp;FragenTemplate!G70&amp;"', '"&amp;FragenTemplate!I70&amp;"', '"&amp;FragenTemplate!K70&amp;"', '"&amp;FragenTemplate!M70&amp;"', "&amp;IF(EXACT(FragenTemplate!H70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L70,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N70,"richtig"),"true","false")&amp;",true)"&amp;IF(A70="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C72),"",("('"&amp;FragenTemplate!C72&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D72),"","'"&amp;FragenTemplate!D72&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E72,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F72&amp;"', '"&amp;FragenTemplate!G72&amp;"', '"&amp;FragenTemplate!I72&amp;"', '"&amp;FragenTemplate!K72&amp;"', '"&amp;FragenTemplate!M72&amp;"', "&amp;IF(EXACT(FragenTemplate!H72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N72,"richtig"),"true","false")&amp;",true)"&amp;IF(A71="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C71),"",("('"&amp;FragenTemplate!C71&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D71),"","'"&amp;FragenTemplate!D71&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E71,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F71&amp;"', '"&amp;FragenTemplate!G71&amp;"', '"&amp;FragenTemplate!I71&amp;"', '"&amp;FragenTemplate!K71&amp;"', '"&amp;FragenTemplate!M71&amp;"', "&amp;IF(EXACT(FragenTemplate!H71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L71,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N71,"richtig"),"true","false")&amp;",true)"&amp;IF(A71="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C73),"",("('"&amp;FragenTemplate!C73&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D73),"","'"&amp;FragenTemplate!D73&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E73,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F73&amp;"', '"&amp;FragenTemplate!G73&amp;"', '"&amp;FragenTemplate!I73&amp;"', '"&amp;FragenTemplate!K73&amp;"', '"&amp;FragenTemplate!M73&amp;"', "&amp;IF(EXACT(FragenTemplate!H73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N73,"richtig"),"true","false")&amp;",true)"&amp;IF(A72="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C72),"",("('"&amp;FragenTemplate!C72&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D72),"","'"&amp;FragenTemplate!D72&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E72,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F72&amp;"', '"&amp;FragenTemplate!G72&amp;"', '"&amp;FragenTemplate!I72&amp;"', '"&amp;FragenTemplate!K72&amp;"', '"&amp;FragenTemplate!M72&amp;"', "&amp;IF(EXACT(FragenTemplate!H72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L72,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N72,"richtig"),"true","false")&amp;",true)"&amp;IF(A72="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C74),"",("('"&amp;FragenTemplate!C74&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D74),"","'"&amp;FragenTemplate!D74&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E74,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F74&amp;"', '"&amp;FragenTemplate!G74&amp;"', '"&amp;FragenTemplate!I74&amp;"', '"&amp;FragenTemplate!K74&amp;"', '"&amp;FragenTemplate!M74&amp;"', "&amp;IF(EXACT(FragenTemplate!H74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N74,"richtig"),"true","false")&amp;",true)"&amp;IF(A73="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C73),"",("('"&amp;FragenTemplate!C73&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D73),"","'"&amp;FragenTemplate!D73&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E73,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F73&amp;"', '"&amp;FragenTemplate!G73&amp;"', '"&amp;FragenTemplate!I73&amp;"', '"&amp;FragenTemplate!K73&amp;"', '"&amp;FragenTemplate!M73&amp;"', "&amp;IF(EXACT(FragenTemplate!H73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L73,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N73,"richtig"),"true","false")&amp;",true)"&amp;IF(A73="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C75),"",("('"&amp;FragenTemplate!C75&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D75),"","'"&amp;FragenTemplate!D75&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E75,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F75&amp;"', '"&amp;FragenTemplate!G75&amp;"', '"&amp;FragenTemplate!I75&amp;"', '"&amp;FragenTemplate!K75&amp;"', '"&amp;FragenTemplate!M75&amp;"', "&amp;IF(EXACT(FragenTemplate!H75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N75,"richtig"),"true","false")&amp;",true)"&amp;IF(A74="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C74),"",("('"&amp;FragenTemplate!C74&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D74),"","'"&amp;FragenTemplate!D74&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E74,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F74&amp;"', '"&amp;FragenTemplate!G74&amp;"', '"&amp;FragenTemplate!I74&amp;"', '"&amp;FragenTemplate!K74&amp;"', '"&amp;FragenTemplate!M74&amp;"', "&amp;IF(EXACT(FragenTemplate!H74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L74,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N74,"richtig"),"true","false")&amp;",true)"&amp;IF(A74="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C76),"",("('"&amp;FragenTemplate!C76&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D76),"","'"&amp;FragenTemplate!D76&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E76,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F76&amp;"', '"&amp;FragenTemplate!G76&amp;"', '"&amp;FragenTemplate!I76&amp;"', '"&amp;FragenTemplate!K76&amp;"', '"&amp;FragenTemplate!M76&amp;"', "&amp;IF(EXACT(FragenTemplate!H76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N76,"richtig"),"true","false")&amp;",true)"&amp;IF(A75="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C75),"",("('"&amp;FragenTemplate!C75&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D75),"","'"&amp;FragenTemplate!D75&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E75,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F75&amp;"', '"&amp;FragenTemplate!G75&amp;"', '"&amp;FragenTemplate!I75&amp;"', '"&amp;FragenTemplate!K75&amp;"', '"&amp;FragenTemplate!M75&amp;"', "&amp;IF(EXACT(FragenTemplate!H75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L75,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N75,"richtig"),"true","false")&amp;",true)"&amp;IF(A75="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C77),"",("('"&amp;FragenTemplate!C77&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D77),"","'"&amp;FragenTemplate!D77&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E77,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F77&amp;"', '"&amp;FragenTemplate!G77&amp;"', '"&amp;FragenTemplate!I77&amp;"', '"&amp;FragenTemplate!K77&amp;"', '"&amp;FragenTemplate!M77&amp;"', "&amp;IF(EXACT(FragenTemplate!H77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N77,"richtig"),"true","false")&amp;",true)"&amp;IF(A76="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C76),"",("('"&amp;FragenTemplate!C76&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D76),"","'"&amp;FragenTemplate!D76&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E76,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F76&amp;"', '"&amp;FragenTemplate!G76&amp;"', '"&amp;FragenTemplate!I76&amp;"', '"&amp;FragenTemplate!K76&amp;"', '"&amp;FragenTemplate!M76&amp;"', "&amp;IF(EXACT(FragenTemplate!H76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L76,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N76,"richtig"),"true","false")&amp;",true)"&amp;IF(A76="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C78),"",("('"&amp;FragenTemplate!C78&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D78),"","'"&amp;FragenTemplate!D78&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E78,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F78&amp;"', '"&amp;FragenTemplate!G78&amp;"', '"&amp;FragenTemplate!I78&amp;"', '"&amp;FragenTemplate!K78&amp;"', '"&amp;FragenTemplate!M78&amp;"', "&amp;IF(EXACT(FragenTemplate!H78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N78,"richtig"),"true","false")&amp;",true)"&amp;IF(A77="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C77),"",("('"&amp;FragenTemplate!C77&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D77),"","'"&amp;FragenTemplate!D77&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E77,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F77&amp;"', '"&amp;FragenTemplate!G77&amp;"', '"&amp;FragenTemplate!I77&amp;"', '"&amp;FragenTemplate!K77&amp;"', '"&amp;FragenTemplate!M77&amp;"', "&amp;IF(EXACT(FragenTemplate!H77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L77,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N77,"richtig"),"true","false")&amp;",true)"&amp;IF(A77="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C79),"",("('"&amp;FragenTemplate!C79&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D79),"","'"&amp;FragenTemplate!D79&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E79,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F79&amp;"', '"&amp;FragenTemplate!G79&amp;"', '"&amp;FragenTemplate!I79&amp;"', '"&amp;FragenTemplate!K79&amp;"', '"&amp;FragenTemplate!M79&amp;"', "&amp;IF(EXACT(FragenTemplate!H79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N79,"richtig"),"true","false")&amp;",true)"&amp;IF(A78="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C78),"",("('"&amp;FragenTemplate!C78&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D78),"","'"&amp;FragenTemplate!D78&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E78,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F78&amp;"', '"&amp;FragenTemplate!G78&amp;"', '"&amp;FragenTemplate!I78&amp;"', '"&amp;FragenTemplate!K78&amp;"', '"&amp;FragenTemplate!M78&amp;"', "&amp;IF(EXACT(FragenTemplate!H78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L78,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N78,"richtig"),"true","false")&amp;",true)"&amp;IF(A78="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C80),"",("('"&amp;FragenTemplate!C80&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D80),"","'"&amp;FragenTemplate!D80&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E80,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F80&amp;"', '"&amp;FragenTemplate!G80&amp;"', '"&amp;FragenTemplate!I80&amp;"', '"&amp;FragenTemplate!K80&amp;"', '"&amp;FragenTemplate!M80&amp;"', "&amp;IF(EXACT(FragenTemplate!H80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N80,"richtig"),"true","false")&amp;",true)"&amp;IF(A79="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C79),"",("('"&amp;FragenTemplate!C79&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D79),"","'"&amp;FragenTemplate!D79&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E79,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F79&amp;"', '"&amp;FragenTemplate!G79&amp;"', '"&amp;FragenTemplate!I79&amp;"', '"&amp;FragenTemplate!K79&amp;"', '"&amp;FragenTemplate!M79&amp;"', "&amp;IF(EXACT(FragenTemplate!H79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L79,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N79,"richtig"),"true","false")&amp;",true)"&amp;IF(A79="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C81),"",("('"&amp;FragenTemplate!C81&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D81),"","'"&amp;FragenTemplate!D81&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E81,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F81&amp;"', '"&amp;FragenTemplate!G81&amp;"', '"&amp;FragenTemplate!I81&amp;"', '"&amp;FragenTemplate!K81&amp;"', '"&amp;FragenTemplate!M81&amp;"', "&amp;IF(EXACT(FragenTemplate!H81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N81,"richtig"),"true","false")&amp;",true)"&amp;IF(A80="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C80),"",("('"&amp;FragenTemplate!C80&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D80),"","'"&amp;FragenTemplate!D80&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E80,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F80&amp;"', '"&amp;FragenTemplate!G80&amp;"', '"&amp;FragenTemplate!I80&amp;"', '"&amp;FragenTemplate!K80&amp;"', '"&amp;FragenTemplate!M80&amp;"', "&amp;IF(EXACT(FragenTemplate!H80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L80,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N80,"richtig"),"true","false")&amp;",true)"&amp;IF(A80="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C82),"",("('"&amp;FragenTemplate!C82&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D82),"","'"&amp;FragenTemplate!D82&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E82,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F82&amp;"', '"&amp;FragenTemplate!G82&amp;"', '"&amp;FragenTemplate!I82&amp;"', '"&amp;FragenTemplate!K82&amp;"', '"&amp;FragenTemplate!M82&amp;"', "&amp;IF(EXACT(FragenTemplate!H82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N82,"richtig"),"true","false")&amp;",true)"&amp;IF(A81="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C81),"",("('"&amp;FragenTemplate!C81&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D81),"","'"&amp;FragenTemplate!D81&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E81,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F81&amp;"', '"&amp;FragenTemplate!G81&amp;"', '"&amp;FragenTemplate!I81&amp;"', '"&amp;FragenTemplate!K81&amp;"', '"&amp;FragenTemplate!M81&amp;"', "&amp;IF(EXACT(FragenTemplate!H81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L81,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N81,"richtig"),"true","false")&amp;",true)"&amp;IF(A81="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C83),"",("('"&amp;FragenTemplate!C83&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D83),"","'"&amp;FragenTemplate!D83&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E83,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F83&amp;"', '"&amp;FragenTemplate!G83&amp;"', '"&amp;FragenTemplate!I83&amp;"', '"&amp;FragenTemplate!K83&amp;"', '"&amp;FragenTemplate!M83&amp;"', "&amp;IF(EXACT(FragenTemplate!H83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N83,"richtig"),"true","false")&amp;",true)"&amp;IF(A82="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C82),"",("('"&amp;FragenTemplate!C82&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D82),"","'"&amp;FragenTemplate!D82&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E82,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F82&amp;"', '"&amp;FragenTemplate!G82&amp;"', '"&amp;FragenTemplate!I82&amp;"', '"&amp;FragenTemplate!K82&amp;"', '"&amp;FragenTemplate!M82&amp;"', "&amp;IF(EXACT(FragenTemplate!H82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L82,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N82,"richtig"),"true","false")&amp;",true)"&amp;IF(A82="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C84),"",("('"&amp;FragenTemplate!C84&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D84),"","'"&amp;FragenTemplate!D84&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E84,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F84&amp;"', '"&amp;FragenTemplate!G84&amp;"', '"&amp;FragenTemplate!I84&amp;"', '"&amp;FragenTemplate!K84&amp;"', '"&amp;FragenTemplate!M84&amp;"', "&amp;IF(EXACT(FragenTemplate!H84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N84,"richtig"),"true","false")&amp;",true)"&amp;IF(A83="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C83),"",("('"&amp;FragenTemplate!C83&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D83),"","'"&amp;FragenTemplate!D83&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E83,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F83&amp;"', '"&amp;FragenTemplate!G83&amp;"', '"&amp;FragenTemplate!I83&amp;"', '"&amp;FragenTemplate!K83&amp;"', '"&amp;FragenTemplate!M83&amp;"', "&amp;IF(EXACT(FragenTemplate!H83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L83,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N83,"richtig"),"true","false")&amp;",true)"&amp;IF(A83="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C85),"",("('"&amp;FragenTemplate!C85&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D85),"","'"&amp;FragenTemplate!D85&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E85,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F85&amp;"', '"&amp;FragenTemplate!G85&amp;"', '"&amp;FragenTemplate!I85&amp;"', '"&amp;FragenTemplate!K85&amp;"', '"&amp;FragenTemplate!M85&amp;"', "&amp;IF(EXACT(FragenTemplate!H85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N85,"richtig"),"true","false")&amp;",true)"&amp;IF(A84="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C84),"",("('"&amp;FragenTemplate!C84&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D84),"","'"&amp;FragenTemplate!D84&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E84,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F84&amp;"', '"&amp;FragenTemplate!G84&amp;"', '"&amp;FragenTemplate!I84&amp;"', '"&amp;FragenTemplate!K84&amp;"', '"&amp;FragenTemplate!M84&amp;"', "&amp;IF(EXACT(FragenTemplate!H84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L84,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N84,"richtig"),"true","false")&amp;",true)"&amp;IF(A84="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C86),"",("('"&amp;FragenTemplate!C86&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D86),"","'"&amp;FragenTemplate!D86&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E86,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F86&amp;"', '"&amp;FragenTemplate!G86&amp;"', '"&amp;FragenTemplate!I86&amp;"', '"&amp;FragenTemplate!K86&amp;"', '"&amp;FragenTemplate!M86&amp;"', "&amp;IF(EXACT(FragenTemplate!H86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N86,"richtig"),"true","false")&amp;",true)"&amp;IF(A85="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C85),"",("('"&amp;FragenTemplate!C85&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D85),"","'"&amp;FragenTemplate!D85&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E85,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F85&amp;"', '"&amp;FragenTemplate!G85&amp;"', '"&amp;FragenTemplate!I85&amp;"', '"&amp;FragenTemplate!K85&amp;"', '"&amp;FragenTemplate!M85&amp;"', "&amp;IF(EXACT(FragenTemplate!H85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L85,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N85,"richtig"),"true","false")&amp;",true)"&amp;IF(A85="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C87),"",("('"&amp;FragenTemplate!C87&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D87),"","'"&amp;FragenTemplate!D87&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E87,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F87&amp;"', '"&amp;FragenTemplate!G87&amp;"', '"&amp;FragenTemplate!I87&amp;"', '"&amp;FragenTemplate!K87&amp;"', '"&amp;FragenTemplate!M87&amp;"', "&amp;IF(EXACT(FragenTemplate!H87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N87,"richtig"),"true","false")&amp;",true)"&amp;IF(A86="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C86),"",("('"&amp;FragenTemplate!C86&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D86),"","'"&amp;FragenTemplate!D86&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E86,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F86&amp;"', '"&amp;FragenTemplate!G86&amp;"', '"&amp;FragenTemplate!I86&amp;"', '"&amp;FragenTemplate!K86&amp;"', '"&amp;FragenTemplate!M86&amp;"', "&amp;IF(EXACT(FragenTemplate!H86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L86,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N86,"richtig"),"true","false")&amp;",true)"&amp;IF(A86="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C88),"",("('"&amp;FragenTemplate!C88&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D88),"","'"&amp;FragenTemplate!D88&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E88,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F88&amp;"', '"&amp;FragenTemplate!G88&amp;"', '"&amp;FragenTemplate!I88&amp;"', '"&amp;FragenTemplate!K88&amp;"', '"&amp;FragenTemplate!M88&amp;"', "&amp;IF(EXACT(FragenTemplate!H88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N88,"richtig"),"true","false")&amp;",true)"&amp;IF(A87="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C87),"",("('"&amp;FragenTemplate!C87&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D87),"","'"&amp;FragenTemplate!D87&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E87,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F87&amp;"', '"&amp;FragenTemplate!G87&amp;"', '"&amp;FragenTemplate!I87&amp;"', '"&amp;FragenTemplate!K87&amp;"', '"&amp;FragenTemplate!M87&amp;"', "&amp;IF(EXACT(FragenTemplate!H87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L87,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N87,"richtig"),"true","false")&amp;",true)"&amp;IF(A87="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C89),"",("('"&amp;FragenTemplate!C89&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D89),"","'"&amp;FragenTemplate!D89&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E89,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F89&amp;"', '"&amp;FragenTemplate!G89&amp;"', '"&amp;FragenTemplate!I89&amp;"', '"&amp;FragenTemplate!K89&amp;"', '"&amp;FragenTemplate!M89&amp;"', "&amp;IF(EXACT(FragenTemplate!H89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N89,"richtig"),"true","false")&amp;",true)"&amp;IF(A88="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C88),"",("('"&amp;FragenTemplate!C88&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D88),"","'"&amp;FragenTemplate!D88&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E88,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F88&amp;"', '"&amp;FragenTemplate!G88&amp;"', '"&amp;FragenTemplate!I88&amp;"', '"&amp;FragenTemplate!K88&amp;"', '"&amp;FragenTemplate!M88&amp;"', "&amp;IF(EXACT(FragenTemplate!H88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L88,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N88,"richtig"),"true","false")&amp;",true)"&amp;IF(A88="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C90),"",("('"&amp;FragenTemplate!C90&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D90),"","'"&amp;FragenTemplate!D90&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E90,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F90&amp;"', '"&amp;FragenTemplate!G90&amp;"', '"&amp;FragenTemplate!I90&amp;"', '"&amp;FragenTemplate!K90&amp;"', '"&amp;FragenTemplate!M90&amp;"', "&amp;IF(EXACT(FragenTemplate!H90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N90,"richtig"),"true","false")&amp;",true)"&amp;IF(A89="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C89),"",("('"&amp;FragenTemplate!C89&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D89),"","'"&amp;FragenTemplate!D89&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E89,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F89&amp;"', '"&amp;FragenTemplate!G89&amp;"', '"&amp;FragenTemplate!I89&amp;"', '"&amp;FragenTemplate!K89&amp;"', '"&amp;FragenTemplate!M89&amp;"', "&amp;IF(EXACT(FragenTemplate!H89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L89,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N89,"richtig"),"true","false")&amp;",true)"&amp;IF(A89="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C91),"",("('"&amp;FragenTemplate!C91&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D91),"","'"&amp;FragenTemplate!D91&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E91,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F91&amp;"', '"&amp;FragenTemplate!G91&amp;"', '"&amp;FragenTemplate!I91&amp;"', '"&amp;FragenTemplate!K91&amp;"', '"&amp;FragenTemplate!M91&amp;"', "&amp;IF(EXACT(FragenTemplate!H91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N91,"richtig"),"true","false")&amp;",true)"&amp;IF(A90="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C90),"",("('"&amp;FragenTemplate!C90&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D90),"","'"&amp;FragenTemplate!D90&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E90,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F90&amp;"', '"&amp;FragenTemplate!G90&amp;"', '"&amp;FragenTemplate!I90&amp;"', '"&amp;FragenTemplate!K90&amp;"', '"&amp;FragenTemplate!M90&amp;"', "&amp;IF(EXACT(FragenTemplate!H90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L90,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N90,"richtig"),"true","false")&amp;",true)"&amp;IF(A90="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C92),"",("('"&amp;FragenTemplate!C92&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D92),"","'"&amp;FragenTemplate!D92&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E92,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F92&amp;"', '"&amp;FragenTemplate!G92&amp;"', '"&amp;FragenTemplate!I92&amp;"', '"&amp;FragenTemplate!K92&amp;"', '"&amp;FragenTemplate!M92&amp;"', "&amp;IF(EXACT(FragenTemplate!H92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N92,"richtig"),"true","false")&amp;",true)"&amp;IF(A91="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C91),"",("('"&amp;FragenTemplate!C91&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D91),"","'"&amp;FragenTemplate!D91&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E91,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F91&amp;"', '"&amp;FragenTemplate!G91&amp;"', '"&amp;FragenTemplate!I91&amp;"', '"&amp;FragenTemplate!K91&amp;"', '"&amp;FragenTemplate!M91&amp;"', "&amp;IF(EXACT(FragenTemplate!H91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L91,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N91,"richtig"),"true","false")&amp;",true)"&amp;IF(A91="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C93),"",("('"&amp;FragenTemplate!C93&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D93),"","'"&amp;FragenTemplate!D93&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E93,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F93&amp;"', '"&amp;FragenTemplate!G93&amp;"', '"&amp;FragenTemplate!I93&amp;"', '"&amp;FragenTemplate!K93&amp;"', '"&amp;FragenTemplate!M93&amp;"', "&amp;IF(EXACT(FragenTemplate!H93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N93,"richtig"),"true","false")&amp;",true)"&amp;IF(A92="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C92),"",("('"&amp;FragenTemplate!C92&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D92),"","'"&amp;FragenTemplate!D92&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E92,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F92&amp;"', '"&amp;FragenTemplate!G92&amp;"', '"&amp;FragenTemplate!I92&amp;"', '"&amp;FragenTemplate!K92&amp;"', '"&amp;FragenTemplate!M92&amp;"', "&amp;IF(EXACT(FragenTemplate!H92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L92,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N92,"richtig"),"true","false")&amp;",true)"&amp;IF(A92="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C94),"",("('"&amp;FragenTemplate!C94&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D94),"","'"&amp;FragenTemplate!D94&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E94,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F94&amp;"', '"&amp;FragenTemplate!G94&amp;"', '"&amp;FragenTemplate!I94&amp;"', '"&amp;FragenTemplate!K94&amp;"', '"&amp;FragenTemplate!M94&amp;"', "&amp;IF(EXACT(FragenTemplate!H94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N94,"richtig"),"true","false")&amp;",true)"&amp;IF(A93="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C93),"",("('"&amp;FragenTemplate!C93&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D93),"","'"&amp;FragenTemplate!D93&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E93,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F93&amp;"', '"&amp;FragenTemplate!G93&amp;"', '"&amp;FragenTemplate!I93&amp;"', '"&amp;FragenTemplate!K93&amp;"', '"&amp;FragenTemplate!M93&amp;"', "&amp;IF(EXACT(FragenTemplate!H93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L93,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N93,"richtig"),"true","false")&amp;",true)"&amp;IF(A93="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C95),"",("('"&amp;FragenTemplate!C95&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D95),"","'"&amp;FragenTemplate!D95&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E95,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F95&amp;"', '"&amp;FragenTemplate!G95&amp;"', '"&amp;FragenTemplate!I95&amp;"', '"&amp;FragenTemplate!K95&amp;"', '"&amp;FragenTemplate!M95&amp;"', "&amp;IF(EXACT(FragenTemplate!H95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N95,"richtig"),"true","false")&amp;",true)"&amp;IF(A94="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C94),"",("('"&amp;FragenTemplate!C94&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D94),"","'"&amp;FragenTemplate!D94&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E94,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F94&amp;"', '"&amp;FragenTemplate!G94&amp;"', '"&amp;FragenTemplate!I94&amp;"', '"&amp;FragenTemplate!K94&amp;"', '"&amp;FragenTemplate!M94&amp;"', "&amp;IF(EXACT(FragenTemplate!H94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L94,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N94,"richtig"),"true","false")&amp;",true)"&amp;IF(A94="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C96),"",("('"&amp;FragenTemplate!C96&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D96),"","'"&amp;FragenTemplate!D96&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E96,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F96&amp;"', '"&amp;FragenTemplate!G96&amp;"', '"&amp;FragenTemplate!I96&amp;"', '"&amp;FragenTemplate!K96&amp;"', '"&amp;FragenTemplate!M96&amp;"', "&amp;IF(EXACT(FragenTemplate!H96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N96,"richtig"),"true","false")&amp;",true)"&amp;IF(A95="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C95),"",("('"&amp;FragenTemplate!C95&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D95),"","'"&amp;FragenTemplate!D95&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E95,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F95&amp;"', '"&amp;FragenTemplate!G95&amp;"', '"&amp;FragenTemplate!I95&amp;"', '"&amp;FragenTemplate!K95&amp;"', '"&amp;FragenTemplate!M95&amp;"', "&amp;IF(EXACT(FragenTemplate!H95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L95,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N95,"richtig"),"true","false")&amp;",true)"&amp;IF(A95="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C97),"",("('"&amp;FragenTemplate!C97&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D97),"","'"&amp;FragenTemplate!D97&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E97,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F97&amp;"', '"&amp;FragenTemplate!G97&amp;"', '"&amp;FragenTemplate!I97&amp;"', '"&amp;FragenTemplate!K97&amp;"', '"&amp;FragenTemplate!M97&amp;"', "&amp;IF(EXACT(FragenTemplate!H97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N97,"richtig"),"true","false")&amp;",true)"&amp;IF(A96="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C96),"",("('"&amp;FragenTemplate!C96&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D96),"","'"&amp;FragenTemplate!D96&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E96,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F96&amp;"', '"&amp;FragenTemplate!G96&amp;"', '"&amp;FragenTemplate!I96&amp;"', '"&amp;FragenTemplate!K96&amp;"', '"&amp;FragenTemplate!M96&amp;"', "&amp;IF(EXACT(FragenTemplate!H96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L96,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N96,"richtig"),"true","false")&amp;",true)"&amp;IF(A96="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C98),"",("('"&amp;FragenTemplate!C98&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D98),"","'"&amp;FragenTemplate!D98&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E98,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F98&amp;"', '"&amp;FragenTemplate!G98&amp;"', '"&amp;FragenTemplate!I98&amp;"', '"&amp;FragenTemplate!K98&amp;"', '"&amp;FragenTemplate!M98&amp;"', "&amp;IF(EXACT(FragenTemplate!H98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N98,"richtig"),"true","false")&amp;",true)"&amp;IF(A97="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C97),"",("('"&amp;FragenTemplate!C97&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D97),"","'"&amp;FragenTemplate!D97&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E97,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F97&amp;"', '"&amp;FragenTemplate!G97&amp;"', '"&amp;FragenTemplate!I97&amp;"', '"&amp;FragenTemplate!K97&amp;"', '"&amp;FragenTemplate!M97&amp;"', "&amp;IF(EXACT(FragenTemplate!H97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L97,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N97,"richtig"),"true","false")&amp;",true)"&amp;IF(A97="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C99),"",("('"&amp;FragenTemplate!C99&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D99),"","'"&amp;FragenTemplate!D99&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E99,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F99&amp;"', '"&amp;FragenTemplate!G99&amp;"', '"&amp;FragenTemplate!I99&amp;"', '"&amp;FragenTemplate!K99&amp;"', '"&amp;FragenTemplate!M99&amp;"', "&amp;IF(EXACT(FragenTemplate!H99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N99,"richtig"),"true","false")&amp;",true)"&amp;IF(A98="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C98),"",("('"&amp;FragenTemplate!C98&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D98),"","'"&amp;FragenTemplate!D98&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E98,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F98&amp;"', '"&amp;FragenTemplate!G98&amp;"', '"&amp;FragenTemplate!I98&amp;"', '"&amp;FragenTemplate!K98&amp;"', '"&amp;FragenTemplate!M98&amp;"', "&amp;IF(EXACT(FragenTemplate!H98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L98,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N98,"richtig"),"true","false")&amp;",true)"&amp;IF(A98="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C100),"",("('"&amp;FragenTemplate!C100&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D100),"","'"&amp;FragenTemplate!D100&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E100,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F100&amp;"', '"&amp;FragenTemplate!G100&amp;"', '"&amp;FragenTemplate!I100&amp;"', '"&amp;FragenTemplate!K100&amp;"', '"&amp;FragenTemplate!M100&amp;"', "&amp;IF(EXACT(FragenTemplate!H100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N100,"richtig"),"true","false")&amp;",true)"&amp;IF(A99="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C99),"",("('"&amp;FragenTemplate!C99&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D99),"","'"&amp;FragenTemplate!D99&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E99,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F99&amp;"', '"&amp;FragenTemplate!G99&amp;"', '"&amp;FragenTemplate!I99&amp;"', '"&amp;FragenTemplate!K99&amp;"', '"&amp;FragenTemplate!M99&amp;"', "&amp;IF(EXACT(FragenTemplate!H99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L99,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N99,"richtig"),"true","false")&amp;",true)"&amp;IF(A99="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C101),"",("('"&amp;FragenTemplate!C101&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D101),"","'"&amp;FragenTemplate!D101&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E101,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F101&amp;"', '"&amp;FragenTemplate!G101&amp;"', '"&amp;FragenTemplate!I101&amp;"', '"&amp;FragenTemplate!K101&amp;"', '"&amp;FragenTemplate!M101&amp;"', "&amp;IF(EXACT(FragenTemplate!H101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N101,"richtig"),"true","false")&amp;",true)"&amp;IF(A100="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C100),"",("('"&amp;FragenTemplate!C100&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D100),"","'"&amp;FragenTemplate!D100&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E100,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F100&amp;"', '"&amp;FragenTemplate!G100&amp;"', '"&amp;FragenTemplate!I100&amp;"', '"&amp;FragenTemplate!K100&amp;"', '"&amp;FragenTemplate!M100&amp;"', "&amp;IF(EXACT(FragenTemplate!H100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L100,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N100,"richtig"),"true","false")&amp;",true)"&amp;IF(A100="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C102),"",("('"&amp;FragenTemplate!C102&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D102),"","'"&amp;FragenTemplate!D102&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E102,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F102&amp;"', '"&amp;FragenTemplate!G102&amp;"', '"&amp;FragenTemplate!I102&amp;"', '"&amp;FragenTemplate!K102&amp;"', '"&amp;FragenTemplate!M102&amp;"', "&amp;IF(EXACT(FragenTemplate!H102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N102,"richtig"),"true","false")&amp;",true)"&amp;IF(A101="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C101),"",("('"&amp;FragenTemplate!C101&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D101),"","'"&amp;FragenTemplate!D101&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E101,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F101&amp;"', '"&amp;FragenTemplate!G101&amp;"', '"&amp;FragenTemplate!I101&amp;"', '"&amp;FragenTemplate!K101&amp;"', '"&amp;FragenTemplate!M101&amp;"', "&amp;IF(EXACT(FragenTemplate!H101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L101,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N101,"richtig"),"true","false")&amp;",true)"&amp;IF(A101="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C103),"",("('"&amp;FragenTemplate!C103&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D103),"","'"&amp;FragenTemplate!D103&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E103,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F103&amp;"', '"&amp;FragenTemplate!G103&amp;"', '"&amp;FragenTemplate!I103&amp;"', '"&amp;FragenTemplate!K103&amp;"', '"&amp;FragenTemplate!M103&amp;"', "&amp;IF(EXACT(FragenTemplate!H103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N103,"richtig"),"true","false")&amp;",true)"&amp;IF(A102="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C102),"",("('"&amp;FragenTemplate!C102&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D102),"","'"&amp;FragenTemplate!D102&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E102,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F102&amp;"', '"&amp;FragenTemplate!G102&amp;"', '"&amp;FragenTemplate!I102&amp;"', '"&amp;FragenTemplate!K102&amp;"', '"&amp;FragenTemplate!M102&amp;"', "&amp;IF(EXACT(FragenTemplate!H102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L102,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N102,"richtig"),"true","false")&amp;",true)"&amp;IF(A102="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C104),"",("('"&amp;FragenTemplate!C104&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D104),"","'"&amp;FragenTemplate!D104&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E104,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F104&amp;"', '"&amp;FragenTemplate!G104&amp;"', '"&amp;FragenTemplate!I104&amp;"', '"&amp;FragenTemplate!K104&amp;"', '"&amp;FragenTemplate!M104&amp;"', "&amp;IF(EXACT(FragenTemplate!H104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N104,"richtig"),"true","false")&amp;",true)"&amp;IF(A103="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C103),"",("('"&amp;FragenTemplate!C103&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D103),"","'"&amp;FragenTemplate!D103&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E103,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F103&amp;"', '"&amp;FragenTemplate!G103&amp;"', '"&amp;FragenTemplate!I103&amp;"', '"&amp;FragenTemplate!K103&amp;"', '"&amp;FragenTemplate!M103&amp;"', "&amp;IF(EXACT(FragenTemplate!H103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L103,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N103,"richtig"),"true","false")&amp;",true)"&amp;IF(A103="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C105),"",("('"&amp;FragenTemplate!C105&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D105),"","'"&amp;FragenTemplate!D105&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E105,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F105&amp;"', '"&amp;FragenTemplate!G105&amp;"', '"&amp;FragenTemplate!I105&amp;"', '"&amp;FragenTemplate!K105&amp;"', '"&amp;FragenTemplate!M105&amp;"', "&amp;IF(EXACT(FragenTemplate!H105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N105,"richtig"),"true","false")&amp;",true)"&amp;IF(A104="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C104),"",("('"&amp;FragenTemplate!C104&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D104),"","'"&amp;FragenTemplate!D104&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E104,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F104&amp;"', '"&amp;FragenTemplate!G104&amp;"', '"&amp;FragenTemplate!I104&amp;"', '"&amp;FragenTemplate!K104&amp;"', '"&amp;FragenTemplate!M104&amp;"', "&amp;IF(EXACT(FragenTemplate!H104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L104,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N104,"richtig"),"true","false")&amp;",true)"&amp;IF(A104="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C106),"",("('"&amp;FragenTemplate!C106&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D106),"","'"&amp;FragenTemplate!D106&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E106,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F106&amp;"', '"&amp;FragenTemplate!G106&amp;"', '"&amp;FragenTemplate!I106&amp;"', '"&amp;FragenTemplate!K106&amp;"', '"&amp;FragenTemplate!M106&amp;"', "&amp;IF(EXACT(FragenTemplate!H106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N106,"richtig"),"true","false")&amp;",true)"&amp;IF(A105="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C105),"",("('"&amp;FragenTemplate!C105&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D105),"","'"&amp;FragenTemplate!D105&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E105,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F105&amp;"', '"&amp;FragenTemplate!G105&amp;"', '"&amp;FragenTemplate!I105&amp;"', '"&amp;FragenTemplate!K105&amp;"', '"&amp;FragenTemplate!M105&amp;"', "&amp;IF(EXACT(FragenTemplate!H105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L105,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N105,"richtig"),"true","false")&amp;",true)"&amp;IF(A105="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C107),"",("('"&amp;FragenTemplate!C107&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D107),"","'"&amp;FragenTemplate!D107&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E107,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F107&amp;"', '"&amp;FragenTemplate!G107&amp;"', '"&amp;FragenTemplate!I107&amp;"', '"&amp;FragenTemplate!K107&amp;"', '"&amp;FragenTemplate!M107&amp;"', "&amp;IF(EXACT(FragenTemplate!H107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N107,"richtig"),"true","false")&amp;",true)"&amp;IF(A106="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C106),"",("('"&amp;FragenTemplate!C106&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D106),"","'"&amp;FragenTemplate!D106&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E106,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F106&amp;"', '"&amp;FragenTemplate!G106&amp;"', '"&amp;FragenTemplate!I106&amp;"', '"&amp;FragenTemplate!K106&amp;"', '"&amp;FragenTemplate!M106&amp;"', "&amp;IF(EXACT(FragenTemplate!H106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L106,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N106,"richtig"),"true","false")&amp;",true)"&amp;IF(A106="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C108),"",("('"&amp;FragenTemplate!C108&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D108),"","'"&amp;FragenTemplate!D108&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E108,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F108&amp;"', '"&amp;FragenTemplate!G108&amp;"', '"&amp;FragenTemplate!I108&amp;"', '"&amp;FragenTemplate!K108&amp;"', '"&amp;FragenTemplate!M108&amp;"', "&amp;IF(EXACT(FragenTemplate!H108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N108,"richtig"),"true","false")&amp;",true)"&amp;IF(A107="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C107),"",("('"&amp;FragenTemplate!C107&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D107),"","'"&amp;FragenTemplate!D107&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E107,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F107&amp;"', '"&amp;FragenTemplate!G107&amp;"', '"&amp;FragenTemplate!I107&amp;"', '"&amp;FragenTemplate!K107&amp;"', '"&amp;FragenTemplate!M107&amp;"', "&amp;IF(EXACT(FragenTemplate!H107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L107,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N107,"richtig"),"true","false")&amp;",true)"&amp;IF(A107="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C109),"",("('"&amp;FragenTemplate!C109&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D109),"","'"&amp;FragenTemplate!D109&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E109,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F109&amp;"', '"&amp;FragenTemplate!G109&amp;"', '"&amp;FragenTemplate!I109&amp;"', '"&amp;FragenTemplate!K109&amp;"', '"&amp;FragenTemplate!M109&amp;"', "&amp;IF(EXACT(FragenTemplate!H109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N109,"richtig"),"true","false")&amp;",true)"&amp;IF(A108="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C108),"",("('"&amp;FragenTemplate!C108&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D108),"","'"&amp;FragenTemplate!D108&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E108,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F108&amp;"', '"&amp;FragenTemplate!G108&amp;"', '"&amp;FragenTemplate!I108&amp;"', '"&amp;FragenTemplate!K108&amp;"', '"&amp;FragenTemplate!M108&amp;"', "&amp;IF(EXACT(FragenTemplate!H108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L108,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N108,"richtig"),"true","false")&amp;",true)"&amp;IF(A108="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C110),"",("('"&amp;FragenTemplate!C110&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D110),"","'"&amp;FragenTemplate!D110&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E110,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F110&amp;"', '"&amp;FragenTemplate!G110&amp;"', '"&amp;FragenTemplate!I110&amp;"', '"&amp;FragenTemplate!K110&amp;"', '"&amp;FragenTemplate!M110&amp;"', "&amp;IF(EXACT(FragenTemplate!H110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N110,"richtig"),"true","false")&amp;",true)"&amp;IF(A109="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C109),"",("('"&amp;FragenTemplate!C109&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D109),"","'"&amp;FragenTemplate!D109&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E109,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F109&amp;"', '"&amp;FragenTemplate!G109&amp;"', '"&amp;FragenTemplate!I109&amp;"', '"&amp;FragenTemplate!K109&amp;"', '"&amp;FragenTemplate!M109&amp;"', "&amp;IF(EXACT(FragenTemplate!H109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L109,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N109,"richtig"),"true","false")&amp;",true)"&amp;IF(A109="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C111),"",("('"&amp;FragenTemplate!C111&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D111),"","'"&amp;FragenTemplate!D111&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E111,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F111&amp;"', '"&amp;FragenTemplate!G111&amp;"', '"&amp;FragenTemplate!I111&amp;"', '"&amp;FragenTemplate!K111&amp;"', '"&amp;FragenTemplate!M111&amp;"', "&amp;IF(EXACT(FragenTemplate!H111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N111,"richtig"),"true","false")&amp;",true)"&amp;IF(A110="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C110),"",("('"&amp;FragenTemplate!C110&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D110),"","'"&amp;FragenTemplate!D110&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E110,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F110&amp;"', '"&amp;FragenTemplate!G110&amp;"', '"&amp;FragenTemplate!I110&amp;"', '"&amp;FragenTemplate!K110&amp;"', '"&amp;FragenTemplate!M110&amp;"', "&amp;IF(EXACT(FragenTemplate!H110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L110,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N110,"richtig"),"true","false")&amp;",true)"&amp;IF(A110="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C112),"",("('"&amp;FragenTemplate!C112&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D112),"","'"&amp;FragenTemplate!D112&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E112,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F112&amp;"', '"&amp;FragenTemplate!G112&amp;"', '"&amp;FragenTemplate!I112&amp;"', '"&amp;FragenTemplate!K112&amp;"', '"&amp;FragenTemplate!M112&amp;"', "&amp;IF(EXACT(FragenTemplate!H112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N112,"richtig"),"true","false")&amp;",true)"&amp;IF(A111="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C111),"",("('"&amp;FragenTemplate!C111&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D111),"","'"&amp;FragenTemplate!D111&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E111,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F111&amp;"', '"&amp;FragenTemplate!G111&amp;"', '"&amp;FragenTemplate!I111&amp;"', '"&amp;FragenTemplate!K111&amp;"', '"&amp;FragenTemplate!M111&amp;"', "&amp;IF(EXACT(FragenTemplate!H111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L111,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N111,"richtig"),"true","false")&amp;",true)"&amp;IF(A111="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C113),"",("('"&amp;FragenTemplate!C113&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D113),"","'"&amp;FragenTemplate!D113&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E113,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F113&amp;"', '"&amp;FragenTemplate!G113&amp;"', '"&amp;FragenTemplate!I113&amp;"', '"&amp;FragenTemplate!K113&amp;"', '"&amp;FragenTemplate!M113&amp;"', "&amp;IF(EXACT(FragenTemplate!H113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N113,"richtig"),"true","false")&amp;",true)"&amp;IF(A112="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C112),"",("('"&amp;FragenTemplate!C112&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D112),"","'"&amp;FragenTemplate!D112&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E112,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F112&amp;"', '"&amp;FragenTemplate!G112&amp;"', '"&amp;FragenTemplate!I112&amp;"', '"&amp;FragenTemplate!K112&amp;"', '"&amp;FragenTemplate!M112&amp;"', "&amp;IF(EXACT(FragenTemplate!H112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L112,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N112,"richtig"),"true","false")&amp;",true)"&amp;IF(A112="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C114),"",("('"&amp;FragenTemplate!C114&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D114),"","'"&amp;FragenTemplate!D114&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E114,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F114&amp;"', '"&amp;FragenTemplate!G114&amp;"', '"&amp;FragenTemplate!I114&amp;"', '"&amp;FragenTemplate!K114&amp;"', '"&amp;FragenTemplate!M114&amp;"', "&amp;IF(EXACT(FragenTemplate!H114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N114,"richtig"),"true","false")&amp;",true)"&amp;IF(A113="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C113),"",("('"&amp;FragenTemplate!C113&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D113),"","'"&amp;FragenTemplate!D113&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E113,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F113&amp;"', '"&amp;FragenTemplate!G113&amp;"', '"&amp;FragenTemplate!I113&amp;"', '"&amp;FragenTemplate!K113&amp;"', '"&amp;FragenTemplate!M113&amp;"', "&amp;IF(EXACT(FragenTemplate!H113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L113,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N113,"richtig"),"true","false")&amp;",true)"&amp;IF(A113="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C115),"",("('"&amp;FragenTemplate!C115&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D115),"","'"&amp;FragenTemplate!D115&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E115,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F115&amp;"', '"&amp;FragenTemplate!G115&amp;"', '"&amp;FragenTemplate!I115&amp;"', '"&amp;FragenTemplate!K115&amp;"', '"&amp;FragenTemplate!M115&amp;"', "&amp;IF(EXACT(FragenTemplate!H115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N115,"richtig"),"true","false")&amp;",true)"&amp;IF(A114="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C114),"",("('"&amp;FragenTemplate!C114&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D114),"","'"&amp;FragenTemplate!D114&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E114,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F114&amp;"', '"&amp;FragenTemplate!G114&amp;"', '"&amp;FragenTemplate!I114&amp;"', '"&amp;FragenTemplate!K114&amp;"', '"&amp;FragenTemplate!M114&amp;"', "&amp;IF(EXACT(FragenTemplate!H114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L114,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N114,"richtig"),"true","false")&amp;",true)"&amp;IF(A114="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C116),"",("('"&amp;FragenTemplate!C116&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D116),"","'"&amp;FragenTemplate!D116&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E116,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F116&amp;"', '"&amp;FragenTemplate!G116&amp;"', '"&amp;FragenTemplate!I116&amp;"', '"&amp;FragenTemplate!K116&amp;"', '"&amp;FragenTemplate!M116&amp;"', "&amp;IF(EXACT(FragenTemplate!H116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N116,"richtig"),"true","false")&amp;",true)"&amp;IF(A115="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C115),"",("('"&amp;FragenTemplate!C115&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D115),"","'"&amp;FragenTemplate!D115&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E115,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F115&amp;"', '"&amp;FragenTemplate!G115&amp;"', '"&amp;FragenTemplate!I115&amp;"', '"&amp;FragenTemplate!K115&amp;"', '"&amp;FragenTemplate!M115&amp;"', "&amp;IF(EXACT(FragenTemplate!H115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L115,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N115,"richtig"),"true","false")&amp;",true)"&amp;IF(A115="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C117),"",("('"&amp;FragenTemplate!C117&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D117),"","'"&amp;FragenTemplate!D117&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E117,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F117&amp;"', '"&amp;FragenTemplate!G117&amp;"', '"&amp;FragenTemplate!I117&amp;"', '"&amp;FragenTemplate!K117&amp;"', '"&amp;FragenTemplate!M117&amp;"', "&amp;IF(EXACT(FragenTemplate!H117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N117,"richtig"),"true","false")&amp;",true)"&amp;IF(A116="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C116),"",("('"&amp;FragenTemplate!C116&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D116),"","'"&amp;FragenTemplate!D116&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E116,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F116&amp;"', '"&amp;FragenTemplate!G116&amp;"', '"&amp;FragenTemplate!I116&amp;"', '"&amp;FragenTemplate!K116&amp;"', '"&amp;FragenTemplate!M116&amp;"', "&amp;IF(EXACT(FragenTemplate!H116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L116,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N116,"richtig"),"true","false")&amp;",true)"&amp;IF(A116="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C118),"",("('"&amp;FragenTemplate!C118&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D118),"","'"&amp;FragenTemplate!D118&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E118,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F118&amp;"', '"&amp;FragenTemplate!G118&amp;"', '"&amp;FragenTemplate!I118&amp;"', '"&amp;FragenTemplate!K118&amp;"', '"&amp;FragenTemplate!M118&amp;"', "&amp;IF(EXACT(FragenTemplate!H118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N118,"richtig"),"true","false")&amp;",true)"&amp;IF(A117="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C117),"",("('"&amp;FragenTemplate!C117&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D117),"","'"&amp;FragenTemplate!D117&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E117,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F117&amp;"', '"&amp;FragenTemplate!G117&amp;"', '"&amp;FragenTemplate!I117&amp;"', '"&amp;FragenTemplate!K117&amp;"', '"&amp;FragenTemplate!M117&amp;"', "&amp;IF(EXACT(FragenTemplate!H117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L117,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N117,"richtig"),"true","false")&amp;",true)"&amp;IF(A117="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C119),"",("('"&amp;FragenTemplate!C119&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D119),"","'"&amp;FragenTemplate!D119&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E119,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F119&amp;"', '"&amp;FragenTemplate!G119&amp;"', '"&amp;FragenTemplate!I119&amp;"', '"&amp;FragenTemplate!K119&amp;"', '"&amp;FragenTemplate!M119&amp;"', "&amp;IF(EXACT(FragenTemplate!H119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N119,"richtig"),"true","false")&amp;",true)"&amp;IF(A118="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C118),"",("('"&amp;FragenTemplate!C118&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D118),"","'"&amp;FragenTemplate!D118&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E118,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F118&amp;"', '"&amp;FragenTemplate!G118&amp;"', '"&amp;FragenTemplate!I118&amp;"', '"&amp;FragenTemplate!K118&amp;"', '"&amp;FragenTemplate!M118&amp;"', "&amp;IF(EXACT(FragenTemplate!H118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L118,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N118,"richtig"),"true","false")&amp;",true)"&amp;IF(A118="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C120),"",("('"&amp;FragenTemplate!C120&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D120),"","'"&amp;FragenTemplate!D120&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E120,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F120&amp;"', '"&amp;FragenTemplate!G120&amp;"', '"&amp;FragenTemplate!I120&amp;"', '"&amp;FragenTemplate!K120&amp;"', '"&amp;FragenTemplate!M120&amp;"', "&amp;IF(EXACT(FragenTemplate!H120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N120,"richtig"),"true","false")&amp;",true)"&amp;IF(A119="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C119),"",("('"&amp;FragenTemplate!C119&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D119),"","'"&amp;FragenTemplate!D119&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E119,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F119&amp;"', '"&amp;FragenTemplate!G119&amp;"', '"&amp;FragenTemplate!I119&amp;"', '"&amp;FragenTemplate!K119&amp;"', '"&amp;FragenTemplate!M119&amp;"', "&amp;IF(EXACT(FragenTemplate!H119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L119,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N119,"richtig"),"true","false")&amp;",true)"&amp;IF(A119="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C121),"",("('"&amp;FragenTemplate!C121&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D121),"","'"&amp;FragenTemplate!D121&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E121,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F121&amp;"', '"&amp;FragenTemplate!G121&amp;"', '"&amp;FragenTemplate!I121&amp;"', '"&amp;FragenTemplate!K121&amp;"', '"&amp;FragenTemplate!M121&amp;"', "&amp;IF(EXACT(FragenTemplate!H121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N121,"richtig"),"true","false")&amp;",true)"&amp;IF(A120="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C120),"",("('"&amp;FragenTemplate!C120&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D120),"","'"&amp;FragenTemplate!D120&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E120,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F120&amp;"', '"&amp;FragenTemplate!G120&amp;"', '"&amp;FragenTemplate!I120&amp;"', '"&amp;FragenTemplate!K120&amp;"', '"&amp;FragenTemplate!M120&amp;"', "&amp;IF(EXACT(FragenTemplate!H120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L120,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N120,"richtig"),"true","false")&amp;",true)"&amp;IF(A120="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C122),"",("('"&amp;FragenTemplate!C122&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D122),"","'"&amp;FragenTemplate!D122&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E122,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F122&amp;"', '"&amp;FragenTemplate!G122&amp;"', '"&amp;FragenTemplate!I122&amp;"', '"&amp;FragenTemplate!K122&amp;"', '"&amp;FragenTemplate!M122&amp;"', "&amp;IF(EXACT(FragenTemplate!H122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N122,"richtig"),"true","false")&amp;",true)"&amp;IF(A121="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C121),"",("('"&amp;FragenTemplate!C121&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D121),"","'"&amp;FragenTemplate!D121&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E121,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F121&amp;"', '"&amp;FragenTemplate!G121&amp;"', '"&amp;FragenTemplate!I121&amp;"', '"&amp;FragenTemplate!K121&amp;"', '"&amp;FragenTemplate!M121&amp;"', "&amp;IF(EXACT(FragenTemplate!H121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L121,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N121,"richtig"),"true","false")&amp;",true)"&amp;IF(A121="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C123),"",("('"&amp;FragenTemplate!C123&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D123),"","'"&amp;FragenTemplate!D123&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E123,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F123&amp;"', '"&amp;FragenTemplate!G123&amp;"', '"&amp;FragenTemplate!I123&amp;"', '"&amp;FragenTemplate!K123&amp;"', '"&amp;FragenTemplate!M123&amp;"', "&amp;IF(EXACT(FragenTemplate!H123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N123,"richtig"),"true","false")&amp;",true)"&amp;IF(A122="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C122),"",("('"&amp;FragenTemplate!C122&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D122),"","'"&amp;FragenTemplate!D122&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E122,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F122&amp;"', '"&amp;FragenTemplate!G122&amp;"', '"&amp;FragenTemplate!I122&amp;"', '"&amp;FragenTemplate!K122&amp;"', '"&amp;FragenTemplate!M122&amp;"', "&amp;IF(EXACT(FragenTemplate!H122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L122,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N122,"richtig"),"true","false")&amp;",true)"&amp;IF(A122="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C124),"",("('"&amp;FragenTemplate!C124&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D124),"","'"&amp;FragenTemplate!D124&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E124,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F124&amp;"', '"&amp;FragenTemplate!G124&amp;"', '"&amp;FragenTemplate!I124&amp;"', '"&amp;FragenTemplate!K124&amp;"', '"&amp;FragenTemplate!M124&amp;"', "&amp;IF(EXACT(FragenTemplate!H124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N124,"richtig"),"true","false")&amp;",true)"&amp;IF(A123="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C123),"",("('"&amp;FragenTemplate!C123&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D123),"","'"&amp;FragenTemplate!D123&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E123,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F123&amp;"', '"&amp;FragenTemplate!G123&amp;"', '"&amp;FragenTemplate!I123&amp;"', '"&amp;FragenTemplate!K123&amp;"', '"&amp;FragenTemplate!M123&amp;"', "&amp;IF(EXACT(FragenTemplate!H123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L123,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N123,"richtig"),"true","false")&amp;",true)"&amp;IF(A123="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C125),"",("('"&amp;FragenTemplate!C125&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D125),"","'"&amp;FragenTemplate!D125&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E125,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F125&amp;"', '"&amp;FragenTemplate!G125&amp;"', '"&amp;FragenTemplate!I125&amp;"', '"&amp;FragenTemplate!K125&amp;"', '"&amp;FragenTemplate!M125&amp;"', "&amp;IF(EXACT(FragenTemplate!H125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N125,"richtig"),"true","false")&amp;",true)"&amp;IF(A124="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C124),"",("('"&amp;FragenTemplate!C124&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D124),"","'"&amp;FragenTemplate!D124&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E124,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F124&amp;"', '"&amp;FragenTemplate!G124&amp;"', '"&amp;FragenTemplate!I124&amp;"', '"&amp;FragenTemplate!K124&amp;"', '"&amp;FragenTemplate!M124&amp;"', "&amp;IF(EXACT(FragenTemplate!H124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L124,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N124,"richtig"),"true","false")&amp;",true)"&amp;IF(A124="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C126),"",("('"&amp;FragenTemplate!C126&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D126),"","'"&amp;FragenTemplate!D126&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E126,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F126&amp;"', '"&amp;FragenTemplate!G126&amp;"', '"&amp;FragenTemplate!I126&amp;"', '"&amp;FragenTemplate!K126&amp;"', '"&amp;FragenTemplate!M126&amp;"', "&amp;IF(EXACT(FragenTemplate!H126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N126,"richtig"),"true","false")&amp;",true)"&amp;IF(A125="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C125),"",("('"&amp;FragenTemplate!C125&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D125),"","'"&amp;FragenTemplate!D125&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E125,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F125&amp;"', '"&amp;FragenTemplate!G125&amp;"', '"&amp;FragenTemplate!I125&amp;"', '"&amp;FragenTemplate!K125&amp;"', '"&amp;FragenTemplate!M125&amp;"', "&amp;IF(EXACT(FragenTemplate!H125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L125,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N125,"richtig"),"true","false")&amp;",true)"&amp;IF(A125="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C127),"",("('"&amp;FragenTemplate!C127&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D127),"","'"&amp;FragenTemplate!D127&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E127,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F127&amp;"', '"&amp;FragenTemplate!G127&amp;"', '"&amp;FragenTemplate!I127&amp;"', '"&amp;FragenTemplate!K127&amp;"', '"&amp;FragenTemplate!M127&amp;"', "&amp;IF(EXACT(FragenTemplate!H127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N127,"richtig"),"true","false")&amp;",true)"&amp;IF(A126="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C126),"",("('"&amp;FragenTemplate!C126&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D126),"","'"&amp;FragenTemplate!D126&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E126,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F126&amp;"', '"&amp;FragenTemplate!G126&amp;"', '"&amp;FragenTemplate!I126&amp;"', '"&amp;FragenTemplate!K126&amp;"', '"&amp;FragenTemplate!M126&amp;"', "&amp;IF(EXACT(FragenTemplate!H126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L126,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N126,"richtig"),"true","false")&amp;",true)"&amp;IF(A126="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C128),"",("('"&amp;FragenTemplate!C128&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D128),"","'"&amp;FragenTemplate!D128&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E128,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F128&amp;"', '"&amp;FragenTemplate!G128&amp;"', '"&amp;FragenTemplate!I128&amp;"', '"&amp;FragenTemplate!K128&amp;"', '"&amp;FragenTemplate!M128&amp;"', "&amp;IF(EXACT(FragenTemplate!H128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N128,"richtig"),"true","false")&amp;",true)"&amp;IF(A127="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C127),"",("('"&amp;FragenTemplate!C127&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D127),"","'"&amp;FragenTemplate!D127&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E127,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F127&amp;"', '"&amp;FragenTemplate!G127&amp;"', '"&amp;FragenTemplate!I127&amp;"', '"&amp;FragenTemplate!K127&amp;"', '"&amp;FragenTemplate!M127&amp;"', "&amp;IF(EXACT(FragenTemplate!H127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L127,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N127,"richtig"),"true","false")&amp;",true)"&amp;IF(A127="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C129),"",("('"&amp;FragenTemplate!C129&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D129),"","'"&amp;FragenTemplate!D129&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E129,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F129&amp;"', '"&amp;FragenTemplate!G129&amp;"', '"&amp;FragenTemplate!I129&amp;"', '"&amp;FragenTemplate!K129&amp;"', '"&amp;FragenTemplate!M129&amp;"', "&amp;IF(EXACT(FragenTemplate!H129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N129,"richtig"),"true","false")&amp;",true)"&amp;IF(A128="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C128),"",("('"&amp;FragenTemplate!C128&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D128),"","'"&amp;FragenTemplate!D128&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E128,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F128&amp;"', '"&amp;FragenTemplate!G128&amp;"', '"&amp;FragenTemplate!I128&amp;"', '"&amp;FragenTemplate!K128&amp;"', '"&amp;FragenTemplate!M128&amp;"', "&amp;IF(EXACT(FragenTemplate!H128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L128,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N128,"richtig"),"true","false")&amp;",true)"&amp;IF(A128="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C130),"",("('"&amp;FragenTemplate!C130&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D130),"","'"&amp;FragenTemplate!D130&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E130,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F130&amp;"', '"&amp;FragenTemplate!G130&amp;"', '"&amp;FragenTemplate!I130&amp;"', '"&amp;FragenTemplate!K130&amp;"', '"&amp;FragenTemplate!M130&amp;"', "&amp;IF(EXACT(FragenTemplate!H130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N130,"richtig"),"true","false")&amp;",true)"&amp;IF(A129="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C129),"",("('"&amp;FragenTemplate!C129&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D129),"","'"&amp;FragenTemplate!D129&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E129,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F129&amp;"', '"&amp;FragenTemplate!G129&amp;"', '"&amp;FragenTemplate!I129&amp;"', '"&amp;FragenTemplate!K129&amp;"', '"&amp;FragenTemplate!M129&amp;"', "&amp;IF(EXACT(FragenTemplate!H129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L129,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N129,"richtig"),"true","false")&amp;",true)"&amp;IF(A129="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C131),"",("('"&amp;FragenTemplate!C131&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D131),"","'"&amp;FragenTemplate!D131&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E131,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F131&amp;"', '"&amp;FragenTemplate!G131&amp;"', '"&amp;FragenTemplate!I131&amp;"', '"&amp;FragenTemplate!K131&amp;"', '"&amp;FragenTemplate!M131&amp;"', "&amp;IF(EXACT(FragenTemplate!H131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N131,"richtig"),"true","false")&amp;",true)"&amp;IF(A130="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C130),"",("('"&amp;FragenTemplate!C130&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D130),"","'"&amp;FragenTemplate!D130&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E130,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F130&amp;"', '"&amp;FragenTemplate!G130&amp;"', '"&amp;FragenTemplate!I130&amp;"', '"&amp;FragenTemplate!K130&amp;"', '"&amp;FragenTemplate!M130&amp;"', "&amp;IF(EXACT(FragenTemplate!H130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L130,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N130,"richtig"),"true","false")&amp;",true)"&amp;IF(A130="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C132),"",("('"&amp;FragenTemplate!C132&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D132),"","'"&amp;FragenTemplate!D132&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E132,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F132&amp;"', '"&amp;FragenTemplate!G132&amp;"', '"&amp;FragenTemplate!I132&amp;"', '"&amp;FragenTemplate!K132&amp;"', '"&amp;FragenTemplate!M132&amp;"', "&amp;IF(EXACT(FragenTemplate!H132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N132,"richtig"),"true","false")&amp;",true)"&amp;IF(A131="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C131),"",("('"&amp;FragenTemplate!C131&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D131),"","'"&amp;FragenTemplate!D131&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E131,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F131&amp;"', '"&amp;FragenTemplate!G131&amp;"', '"&amp;FragenTemplate!I131&amp;"', '"&amp;FragenTemplate!K131&amp;"', '"&amp;FragenTemplate!M131&amp;"', "&amp;IF(EXACT(FragenTemplate!H131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L131,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N131,"richtig"),"true","false")&amp;",true)"&amp;IF(A131="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C133),"",("('"&amp;FragenTemplate!C133&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D133),"","'"&amp;FragenTemplate!D133&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E133,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F133&amp;"', '"&amp;FragenTemplate!G133&amp;"', '"&amp;FragenTemplate!I133&amp;"', '"&amp;FragenTemplate!K133&amp;"', '"&amp;FragenTemplate!M133&amp;"', "&amp;IF(EXACT(FragenTemplate!H133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N133,"richtig"),"true","false")&amp;",true)"&amp;IF(A132="",";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C132),"",("('"&amp;FragenTemplate!C132&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D132),"","'"&amp;FragenTemplate!D132&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E132,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F132&amp;"', '"&amp;FragenTemplate!G132&amp;"', '"&amp;FragenTemplate!I132&amp;"', '"&amp;FragenTemplate!K132&amp;"', '"&amp;FragenTemplate!M132&amp;"', "&amp;IF(EXACT(FragenTemplate!H132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L132,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N132,"richtig"),"true","false")&amp;",true)"&amp;IF(A132="",";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C134),"",("('"&amp;FragenTemplate!C134&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D134),"","'"&amp;FragenTemplate!D134&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E134,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F134&amp;"', '"&amp;FragenTemplate!G134&amp;"', '"&amp;FragenTemplate!I134&amp;"', '"&amp;FragenTemplate!K134&amp;"', '"&amp;FragenTemplate!M134&amp;"', "&amp;IF(EXACT(FragenTemplate!H134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N134,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A133),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C133),"",("('"&amp;FragenTemplate!C133&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D133),"","'"&amp;FragenTemplate!D133&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E133,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F133&amp;"', '"&amp;FragenTemplate!G133&amp;"', '"&amp;FragenTemplate!I133&amp;"', '"&amp;FragenTemplate!K133&amp;"', '"&amp;FragenTemplate!M133&amp;"', "&amp;IF(EXACT(FragenTemplate!H133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L133,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N133,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A133),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C135),"",("('"&amp;FragenTemplate!C135&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D135),"","'"&amp;FragenTemplate!D135&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E135,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F135&amp;"', '"&amp;FragenTemplate!G135&amp;"', '"&amp;FragenTemplate!I135&amp;"', '"&amp;FragenTemplate!K135&amp;"', '"&amp;FragenTemplate!M135&amp;"', "&amp;IF(EXACT(FragenTemplate!H135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N135,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A134),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C134),"",("('"&amp;FragenTemplate!C134&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D134),"","'"&amp;FragenTemplate!D134&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E134,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F134&amp;"', '"&amp;FragenTemplate!G134&amp;"', '"&amp;FragenTemplate!I134&amp;"', '"&amp;FragenTemplate!K134&amp;"', '"&amp;FragenTemplate!M134&amp;"', "&amp;IF(EXACT(FragenTemplate!H134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L134,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N134,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A134),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C136),"",("('"&amp;FragenTemplate!C136&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D136),"","'"&amp;FragenTemplate!D136&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E136,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F136&amp;"', '"&amp;FragenTemplate!G136&amp;"', '"&amp;FragenTemplate!I136&amp;"', '"&amp;FragenTemplate!K136&amp;"', '"&amp;FragenTemplate!M136&amp;"', "&amp;IF(EXACT(FragenTemplate!H136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N136,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A135),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C135),"",("('"&amp;FragenTemplate!C135&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D135),"","'"&amp;FragenTemplate!D135&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E135,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F135&amp;"', '"&amp;FragenTemplate!G135&amp;"', '"&amp;FragenTemplate!I135&amp;"', '"&amp;FragenTemplate!K135&amp;"', '"&amp;FragenTemplate!M135&amp;"', "&amp;IF(EXACT(FragenTemplate!H135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L135,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N135,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A135),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C137),"",("('"&amp;FragenTemplate!C137&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D137),"","'"&amp;FragenTemplate!D137&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E137,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F137&amp;"', '"&amp;FragenTemplate!G137&amp;"', '"&amp;FragenTemplate!I137&amp;"', '"&amp;FragenTemplate!K137&amp;"', '"&amp;FragenTemplate!M137&amp;"', "&amp;IF(EXACT(FragenTemplate!H137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N137,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A136),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C136),"",("('"&amp;FragenTemplate!C136&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D136),"","'"&amp;FragenTemplate!D136&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E136,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F136&amp;"', '"&amp;FragenTemplate!G136&amp;"', '"&amp;FragenTemplate!I136&amp;"', '"&amp;FragenTemplate!K136&amp;"', '"&amp;FragenTemplate!M136&amp;"', "&amp;IF(EXACT(FragenTemplate!H136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L136,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N136,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A136),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C138),"",("('"&amp;FragenTemplate!C138&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D138),"","'"&amp;FragenTemplate!D138&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E138,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F138&amp;"', '"&amp;FragenTemplate!G138&amp;"', '"&amp;FragenTemplate!I138&amp;"', '"&amp;FragenTemplate!K138&amp;"', '"&amp;FragenTemplate!M138&amp;"', "&amp;IF(EXACT(FragenTemplate!H138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N138,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A137),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C137),"",("('"&amp;FragenTemplate!C137&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D137),"","'"&amp;FragenTemplate!D137&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E137,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F137&amp;"', '"&amp;FragenTemplate!G137&amp;"', '"&amp;FragenTemplate!I137&amp;"', '"&amp;FragenTemplate!K137&amp;"', '"&amp;FragenTemplate!M137&amp;"', "&amp;IF(EXACT(FragenTemplate!H137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L137,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N137,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A137),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C139),"",("('"&amp;FragenTemplate!C139&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D139),"","'"&amp;FragenTemplate!D139&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E139,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F139&amp;"', '"&amp;FragenTemplate!G139&amp;"', '"&amp;FragenTemplate!I139&amp;"', '"&amp;FragenTemplate!K139&amp;"', '"&amp;FragenTemplate!M139&amp;"', "&amp;IF(EXACT(FragenTemplate!H139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N139,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A138),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C138),"",("('"&amp;FragenTemplate!C138&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D138),"","'"&amp;FragenTemplate!D138&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E138,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F138&amp;"', '"&amp;FragenTemplate!G138&amp;"', '"&amp;FragenTemplate!I138&amp;"', '"&amp;FragenTemplate!K138&amp;"', '"&amp;FragenTemplate!M138&amp;"', "&amp;IF(EXACT(FragenTemplate!H138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L138,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N138,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A138),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C140),"",("('"&amp;FragenTemplate!C140&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D140),"","'"&amp;FragenTemplate!D140&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E140,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F140&amp;"', '"&amp;FragenTemplate!G140&amp;"', '"&amp;FragenTemplate!I140&amp;"', '"&amp;FragenTemplate!K140&amp;"', '"&amp;FragenTemplate!M140&amp;"', "&amp;IF(EXACT(FragenTemplate!H140,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J140,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L140,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N140,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A139),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C139),"",("('"&amp;FragenTemplate!C139&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D139),"","'"&amp;FragenTemplate!D139&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E139,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F139&amp;"', '"&amp;FragenTemplate!G139&amp;"', '"&amp;FragenTemplate!I139&amp;"', '"&amp;FragenTemplate!K139&amp;"', '"&amp;FragenTemplate!M139&amp;"', "&amp;IF(EXACT(FragenTemplate!H139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L139,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N139,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A139),";",",")))</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f>IF(ISBLANK(FragenTemplate!C141),"",("('"&amp;FragenTemplate!C141&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D141),"","'"&amp;FragenTemplate!D141&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E141,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F141&amp;"', '"&amp;FragenTemplate!G141&amp;"', '"&amp;FragenTemplate!I141&amp;"', '"&amp;FragenTemplate!K141&amp;"', '"&amp;FragenTemplate!M141&amp;"', "&amp;IF(EXACT(FragenTemplate!H141,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J141,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L141,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N141,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A140),";",",")))</f>
+        <f>IF(ISBLANK(FragenTemplate!C140),"",("('"&amp;FragenTemplate!C140&amp;"', "&amp;IF(ISBLANK(FragenTemplate!D140),"","'"&amp;FragenTemplate!D140&amp;"'")&amp;", "&amp;IF(EXACT(FragenTemplate!E140,"richtig"),"true","false")&amp;", '"&amp;FragenTemplate!F140&amp;"', '"&amp;FragenTemplate!G140&amp;"', '"&amp;FragenTemplate!I140&amp;"', '"&amp;FragenTemplate!K140&amp;"', '"&amp;FragenTemplate!M140&amp;"', "&amp;IF(EXACT(FragenTemplate!H140,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!J140,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!L140,"richtig"),"true","false")&amp;","&amp;IF(EXACT(FragenTemplate!N140,"richtig"),"true","false")&amp;",true)"&amp;IF(ISBLANK(A140),";",",")))</f>
         <v/>
       </c>
     </row>

--- a/Documents/FragenTemplate.xlsx
+++ b/Documents/FragenTemplate.xlsx
@@ -1364,8 +1364,8 @@
   <dimension ref="A1:BF202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H193" sqref="H193"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
